--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1252">
   <si>
     <t/>
   </si>
@@ -165,6 +165,12 @@
     <t>08/08/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>EVA AAULD07F</t>
+  </si>
+  <si>
+    <t>19/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>EVA AAVAD08F</t>
   </si>
   <si>
@@ -234,6 +240,12 @@
     <t>01/08/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>EVA T4VAA33X</t>
+  </si>
+  <si>
+    <t>12/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>TSH Kit 24T Afias Boditech</t>
   </si>
   <si>
@@ -318,6 +330,12 @@
     <t>11/04/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>EVA ACUKD06E</t>
+  </si>
+  <si>
+    <t>21/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>Anti-HBS Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -699,12 +717,6 @@
     <t>M-52 Diluent Reagent 5-part 20L Hematology Mindray</t>
   </si>
   <si>
-    <t>2025021953</t>
-  </si>
-  <si>
-    <t>18/02/2027 12:00:00 ص</t>
-  </si>
-  <si>
     <t>2025022051</t>
   </si>
   <si>
@@ -1026,9 +1038,6 @@
     <t>BC-10-3part Instrument Auto Hematology Mindray</t>
   </si>
   <si>
-    <t>BC-30S-3part Instrument used Auto Hematology Mindray</t>
-  </si>
-  <si>
     <t>Hba1c Control Chemistry Mindray</t>
   </si>
   <si>
@@ -1341,12 +1350,6 @@
     <t>2024120113</t>
   </si>
   <si>
-    <t>HIV kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>05/09/2025 12:00:00 ص</t>
-  </si>
-  <si>
     <t>Free T3 Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
@@ -1671,9 +1674,6 @@
     <t>H. Pylori SA Kit 25T iChroma Boditech</t>
   </si>
   <si>
-    <t>EVA HSUKG03</t>
-  </si>
-  <si>
     <t>EVA HSVCH02</t>
   </si>
   <si>
@@ -1734,9 +1734,6 @@
     <t>EVA TEVAE08EX</t>
   </si>
   <si>
-    <t>12/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>Renin Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
@@ -1899,9 +1896,6 @@
     <t>EVA VEUKB56X</t>
   </si>
   <si>
-    <t>21/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>EVA VEUKB57X</t>
   </si>
   <si>
@@ -2076,15 +2070,6 @@
     <t>32411023</t>
   </si>
   <si>
-    <t>probe cleanser Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32504296</t>
-  </si>
-  <si>
-    <t>21/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>Protein  Control Level 1 (1 ml ) Mispa i3</t>
   </si>
   <si>
@@ -2166,9 +2151,6 @@
     <t>148225001</t>
   </si>
   <si>
-    <t>19/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>( TP kit Chemistry Mindray ( Large</t>
   </si>
   <si>
@@ -2337,219 +2319,213 @@
     <t>Rubella Igm Kit 25T iChroma Boditech</t>
   </si>
   <si>
-    <t>RMULA08EX</t>
+    <t>RMULA09EX</t>
+  </si>
+  <si>
+    <t>Rubella Igg Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>RGUDA06EX</t>
+  </si>
+  <si>
+    <t>CMV Igm Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>VMUDA06EX</t>
+  </si>
+  <si>
+    <t>CMV Igg Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>VGUDA06EX</t>
+  </si>
+  <si>
+    <t>Free PSA Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>F1UAA05G</t>
+  </si>
+  <si>
+    <t>12/09/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HIV 1/2 Ab Kit 24T afias Boditech</t>
+  </si>
+  <si>
+    <t>HHUDA04G</t>
+  </si>
+  <si>
+    <t>18/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CEA Neo Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA CEVAA09EX</t>
+  </si>
+  <si>
+    <t>Toxo igm Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>XMUDA04EX</t>
+  </si>
+  <si>
+    <t>Toxo igg Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>XGUDA04EX</t>
+  </si>
+  <si>
+    <t>ASO Kit 30T Mispa i3</t>
+  </si>
+  <si>
+    <t>32503022</t>
+  </si>
+  <si>
+    <t>05/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>RF Kit 30T Mispa i3</t>
+  </si>
+  <si>
+    <t>EVA 32506408</t>
+  </si>
+  <si>
+    <t>Myoglobin NeO Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>KMUHB03EX</t>
+  </si>
+  <si>
+    <t>12/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>UPS 1500 VA OFFLINE (NEW)</t>
+  </si>
+  <si>
+    <t>UPS 1500 VA OFFLINE (USED)</t>
+  </si>
+  <si>
+    <t>HEMATOLOGY PRINTER (NEW)</t>
+  </si>
+  <si>
+    <t>Penkid Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PEUYA05G</t>
+  </si>
+  <si>
+    <t>16/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Ca19-9 Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>CXULA05G</t>
+  </si>
+  <si>
+    <t>Insulin Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>INUBA04</t>
+  </si>
+  <si>
+    <t>Daily check  (Clover A1c Plus)</t>
+  </si>
+  <si>
+    <t>PK24F27</t>
+  </si>
+  <si>
+    <t>26/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PSA NeO Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>PSUKA12EX</t>
+  </si>
+  <si>
+    <t>EVA PSUKA12EX</t>
+  </si>
+  <si>
+    <t>CK-MB NeO Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA KCUKA07X</t>
+  </si>
+  <si>
+    <t>PSA NeO Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PSVAA17X</t>
+  </si>
+  <si>
+    <t>EVA PSUKA14X</t>
+  </si>
+  <si>
+    <t>Mini-pipette (100 ul) pipette I-Chroma</t>
+  </si>
+  <si>
+    <t>RACK BLOCK IGRA for Afias 10</t>
+  </si>
+  <si>
+    <t>SE1-Electrolyte instrument Seamaty</t>
+  </si>
+  <si>
+    <t>Electrolyte kit BE5  20T Seamaty (K+、Na+、Cl-、Ca2+, PH )</t>
+  </si>
+  <si>
+    <t>9251285</t>
+  </si>
+  <si>
+    <t>20/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Mispa Plus Semi Automated Clinical Chemistry Analyser</t>
+  </si>
+  <si>
+    <t>KL-6 Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>KLUBA03X</t>
+  </si>
+  <si>
+    <t>PTH Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>PHUDA02EX</t>
+  </si>
+  <si>
+    <t>CA125 Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>C1UFA07EX</t>
+  </si>
+  <si>
+    <t>PTH Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PHUCA03G</t>
+  </si>
+  <si>
+    <t>13/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Free Anti-Infliximab Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>FIUCA09G</t>
+  </si>
+  <si>
+    <t>Total Anti-Infliximab Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>FNULA22G</t>
   </si>
   <si>
     <t>09/08/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>RMULA09EX</t>
-  </si>
-  <si>
-    <t>Rubella Igg Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>RGUDA06EX</t>
-  </si>
-  <si>
-    <t>CMV Igm Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>VMUDA06EX</t>
-  </si>
-  <si>
-    <t>CMV Igg Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>VGUDA06EX</t>
-  </si>
-  <si>
-    <t>Free PSA Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>F1UAA05G</t>
-  </si>
-  <si>
-    <t>12/09/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HIV 1/2 Ab Kit 24T afias Boditech</t>
-  </si>
-  <si>
-    <t>HHUDA04G</t>
-  </si>
-  <si>
-    <t>18/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CEA Neo Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA CEVAA09EX</t>
-  </si>
-  <si>
-    <t>Toxo igm Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>XMUDA04EX</t>
-  </si>
-  <si>
-    <t>Toxo igg Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>XGUDA04EX</t>
-  </si>
-  <si>
-    <t>ASO Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>32503022</t>
-  </si>
-  <si>
-    <t>05/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>RF Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32506408</t>
-  </si>
-  <si>
-    <t>Myoglobin NeO Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>KMUHB03EX</t>
-  </si>
-  <si>
-    <t>12/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>UPS 1500 VA OFFLINE (NEW)</t>
-  </si>
-  <si>
-    <t>UPS 1500 VA OFFLINE (USED)</t>
-  </si>
-  <si>
-    <t>HEMATOLOGY PRINTER (NEW)</t>
-  </si>
-  <si>
-    <t>HEMATOLOGY PRINTER (USED)</t>
-  </si>
-  <si>
-    <t>Penkid Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PEUYA05G</t>
-  </si>
-  <si>
-    <t>16/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Ca19-9 Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>CXULA05G</t>
-  </si>
-  <si>
-    <t>Insulin Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>INUBA04</t>
-  </si>
-  <si>
-    <t>Daily check  (Clover A1c Plus)</t>
-  </si>
-  <si>
-    <t>PK24F27</t>
-  </si>
-  <si>
-    <t>26/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PSA NeO Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>PSUKA12EX</t>
-  </si>
-  <si>
-    <t>EVA PSUKA12EX</t>
-  </si>
-  <si>
-    <t>CK-MB NeO Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA KCUKA07X</t>
-  </si>
-  <si>
-    <t>PSA NeO Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PSVAA17X</t>
-  </si>
-  <si>
-    <t>EVA PSUKA14X</t>
-  </si>
-  <si>
-    <t>Mini-pipette (100 ul) pipette I-Chroma</t>
-  </si>
-  <si>
-    <t>RACK BLOCK IGRA for Afias 10</t>
-  </si>
-  <si>
-    <t>SE1-Electrolyte instrument Seamaty</t>
-  </si>
-  <si>
-    <t>Electrolyte kit BE5  20T Seamaty (K+、Na+、Cl-、Ca2+, PH )</t>
-  </si>
-  <si>
-    <t>9251285</t>
-  </si>
-  <si>
-    <t>20/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Mispa Plus Semi Automated Clinical Chemistry Analyser</t>
-  </si>
-  <si>
-    <t>KL-6 Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>KLUBA03X</t>
-  </si>
-  <si>
-    <t>PTH Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>PHUDA02EX</t>
-  </si>
-  <si>
-    <t>CA125 Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>C1UFA07EX</t>
-  </si>
-  <si>
-    <t>PTH Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PHUCA03G</t>
-  </si>
-  <si>
-    <t>13/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Free Anti-Infliximab Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>FIUCA09G</t>
-  </si>
-  <si>
-    <t>Total Anti-Infliximab Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>FNULA22G</t>
-  </si>
-  <si>
     <t>Free Anti-Adalimumab Kit 24T Afias Boditech</t>
   </si>
   <si>
@@ -2892,12 +2868,6 @@
     <t>System wash buffer BioCLOA 1*1L</t>
   </si>
   <si>
-    <t>20240906</t>
-  </si>
-  <si>
-    <t>06/09/2025 12:00:00 ص</t>
-  </si>
-  <si>
     <t>EVA  20241106</t>
   </si>
   <si>
@@ -3153,6 +3123,15 @@
     <t>06/06/2025 12:00:00 ص</t>
   </si>
   <si>
+    <t>Monthly check cartridge 1 box (Clover A1c Plus)</t>
+  </si>
+  <si>
+    <t>D24G14A07DL</t>
+  </si>
+  <si>
+    <t>06/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>hs-cTnI kit 2×50T CL900i Mindray</t>
   </si>
   <si>
@@ -3241,42 +3220,6 @@
   </si>
   <si>
     <t>Scl-70 Control level 2 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Histone KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>20240910</t>
-  </si>
-  <si>
-    <t>09/09/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Histone  Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Histone  Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Histone Control level 2 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Nucleosome KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>20240904</t>
-  </si>
-  <si>
-    <t>04/09/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Nucleosome Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Nucleosome Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Nucleosome Control level 2 BioCLIA HOB</t>
   </si>
   <si>
     <t>GBM KIT BioCLIA 50 T HOB</t>
@@ -4185,10 +4128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C649"/>
+  <dimension ref="A1:C637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A647" sqref="A647:E647"/>
+      <selection activeCell="A635" sqref="A635:E635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4418,84 +4361,84 @@
     </row>
     <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>66</v>
@@ -4506,62 +4449,62 @@
     </row>
     <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>81</v>
@@ -4578,150 +4521,150 @@
         <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4737,35 +4680,35 @@
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4773,76 +4716,76 @@
         <v>119</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4853,117 +4796,117 @@
         <v>134</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="C69" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4974,106 +4917,106 @@
         <v>161</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C72" s="4" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5084,111 +5027,111 @@
         <v>186</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="C82" s="4" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>206</v>
@@ -5199,35 +5142,35 @@
     </row>
     <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5238,51 +5181,51 @@
         <v>215</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="C97" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5290,43 +5233,43 @@
         <v>225</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5337,29 +5280,29 @@
         <v>237</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C106" s="4" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5378,10 +5321,10 @@
         <v>245</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5389,21 +5332,21 @@
         <v>246</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>249</v>
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5411,65 +5354,65 @@
         <v>250</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>252</v>
+        <v>0</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5480,18 +5423,18 @@
         <v>267</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>0</v>
+      <c r="C118" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5510,21 +5453,21 @@
         <v>273</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>275</v>
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5543,98 +5486,98 @@
         <v>280</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>282</v>
+        <v>0</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5642,15 +5585,15 @@
         <v>304</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>0</v>
@@ -5661,7 +5604,7 @@
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>0</v>
@@ -5672,13 +5615,13 @@
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>309</v>
+        <v>0</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5686,32 +5629,32 @@
         <v>310</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>312</v>
+        <v>0</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5719,10 +5662,10 @@
         <v>314</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5785,43 +5728,43 @@
         <v>326</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>0</v>
+        <v>327</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>282</v>
+        <v>0</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>331</v>
+        <v>0</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>0</v>
+      <c r="C148" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5829,15 +5772,15 @@
         <v>333</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>0</v>
+        <v>334</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>0</v>
@@ -5848,7 +5791,7 @@
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>0</v>
@@ -5859,13 +5802,13 @@
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>338</v>
+        <v>0</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5876,45 +5819,45 @@
         <v>340</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>216</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>233</v>
+        <v>343</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>343</v>
+        <v>237</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>344</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>348</v>
@@ -5931,18 +5874,18 @@
         <v>351</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5972,15 +5915,15 @@
         <v>361</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>0</v>
+        <v>362</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>0</v>
@@ -5991,13 +5934,13 @@
     </row>
     <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>365</v>
+        <v>0</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6008,29 +5951,29 @@
         <v>367</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>17</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6090,32 +6033,32 @@
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>394</v>
@@ -6181,18 +6124,18 @@
         <v>410</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>414</v>
@@ -6203,51 +6146,51 @@
         <v>415</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>425</v>
@@ -6261,81 +6204,81 @@
         <v>427</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>173</v>
+        <v>428</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>429</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>275</v>
+        <v>436</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>438</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>441</v>
@@ -6343,640 +6286,640 @@
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C221" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>27</v>
+        <v>552</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>552</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>554</v>
+        <v>377</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>27</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6984,131 +6927,131 @@
         <v>555</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>559</v>
+        <v>399</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>560</v>
+        <v>454</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>453</v>
+        <v>563</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>455</v>
+        <v>380</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>377</v>
+        <v>567</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>568</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>570</v>
+        <v>399</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>396</v>
+        <v>574</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>575</v>
+        <v>438</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>435</v>
+        <v>576</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B265" s="3" t="s">
-        <v>577</v>
-      </c>
       <c r="C265" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7116,10 +7059,10 @@
         <v>578</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>459</v>
+        <v>0</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7127,87 +7070,87 @@
         <v>579</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>588</v>
+        <v>313</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>309</v>
+        <v>592</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>575</v>
+        <v>411</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>598</v>
+        <v>506</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7215,120 +7158,120 @@
         <v>599</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>505</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>374</v>
+        <v>602</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>601</v>
+        <v>79</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>75</v>
+        <v>605</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C279" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>615</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>619</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7347,87 +7290,87 @@
         <v>622</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>0</v>
+        <v>623</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>624</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>625</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>626</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>631</v>
+        <v>294</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>632</v>
+        <v>295</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7435,7 +7378,7 @@
         <v>634</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>635</v>
@@ -7446,29 +7389,29 @@
         <v>636</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>637</v>
+        <v>199</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B297" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="C297" s="5" t="s">
-        <v>193</v>
+        <v>639</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>640</v>
+        <v>389</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>641</v>
@@ -7479,32 +7422,32 @@
         <v>642</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>643</v>
+        <v>390</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7512,10 +7455,10 @@
         <v>646</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>443</v>
+        <v>647</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>647</v>
+        <v>171</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7526,7 +7469,7 @@
         <v>649</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7534,43 +7477,43 @@
         <v>650</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>0</v>
+      <c r="C305" s="5" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>658</v>
+        <v>182</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7581,84 +7524,84 @@
         <v>660</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B309" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B309" s="3" t="s">
-        <v>662</v>
-      </c>
       <c r="C309" s="5" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>78</v>
+        <v>667</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>672</v>
+        <v>414</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7669,29 +7612,29 @@
         <v>674</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>411</v>
+        <v>675</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>676</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>677</v>
+        <v>514</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>678</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7702,7 +7645,7 @@
         <v>680</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>384</v>
+        <v>244</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7713,7 +7656,7 @@
         <v>682</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7724,7 +7667,7 @@
         <v>684</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7732,87 +7675,87 @@
         <v>685</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>687</v>
+        <v>151</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>145</v>
+        <v>614</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>689</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>145</v>
+        <v>690</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B325" s="3" t="s">
-        <v>692</v>
-      </c>
       <c r="C325" s="5" t="s">
-        <v>615</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B327" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B327" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="C327" s="5" t="s">
-        <v>320</v>
+        <v>694</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>699</v>
+        <v>316</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7823,18 +7766,18 @@
         <v>701</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>702</v>
+        <v>171</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="C331" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7845,18 +7788,18 @@
         <v>706</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>165</v>
+        <v>707</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>709</v>
+        <v>49</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7867,67 +7810,67 @@
         <v>711</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>712</v>
+        <v>171</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B335" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="C335" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="C336" s="4" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>720</v>
+        <v>82</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>93</v>
+        <v>719</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B339" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>723</v>
-      </c>
       <c r="C339" s="5" t="s">
-        <v>78</v>
+        <v>722</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>724</v>
@@ -7955,103 +7898,103 @@
         <v>730</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>731</v>
+        <v>514</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B343" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="C343" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="C344" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="C345" s="5" t="s">
         <v>738</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="C346" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B347" s="3" t="s">
-        <v>743</v>
-      </c>
       <c r="C347" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B349" s="3" t="s">
-        <v>748</v>
-      </c>
       <c r="C349" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>750</v>
+        <v>514</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>750</v>
@@ -8059,68 +8002,68 @@
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="C352" s="4" t="s">
-        <v>513</v>
+        <v>211</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B353" s="3" t="s">
-        <v>755</v>
-      </c>
       <c r="C353" s="5" t="s">
-        <v>756</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>14</v>
+        <v>758</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="C356" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8128,43 +8071,43 @@
         <v>762</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>55</v>
+        <v>764</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>766</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>767</v>
+        <v>719</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="C360" s="4" t="s">
-        <v>770</v>
+        <v>490</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>773</v>
+        <v>490</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8172,32 +8115,32 @@
         <v>771</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>725</v>
+        <v>490</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C363" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="C364" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8208,7 +8151,7 @@
         <v>780</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>489</v>
+        <v>57</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8219,51 +8162,51 @@
         <v>782</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>783</v>
+        <v>490</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="B367" s="3" t="s">
-        <v>785</v>
-      </c>
       <c r="C367" s="5" t="s">
-        <v>786</v>
+        <v>490</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C368" s="4" t="s">
         <v>787</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B369" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="B369" s="3" t="s">
-        <v>790</v>
-      </c>
       <c r="C369" s="5" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="4" t="s">
         <v>792</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8271,180 +8214,180 @@
         <v>793</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>795</v>
+        <v>0</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>459</v>
+        <v>0</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>800</v>
+        <v>0</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>0</v>
+        <v>797</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>0</v>
+        <v>802</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="B377" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>0</v>
+      <c r="C377" s="5" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>807</v>
+        <v>497</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B379" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>809</v>
-      </c>
       <c r="C379" s="5" t="s">
-        <v>47</v>
+        <v>497</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="C380" s="4" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B381" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="B381" s="3" t="s">
-        <v>813</v>
-      </c>
       <c r="C381" s="5" t="s">
-        <v>814</v>
+        <v>63</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>496</v>
+        <v>627</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>496</v>
+        <v>0</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>629</v>
+        <v>819</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>0</v>
@@ -8455,46 +8398,46 @@
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>0</v>
+        <v>822</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>0</v>
+        <v>824</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>827</v>
-      </c>
       <c r="C390" s="4" t="s">
-        <v>828</v>
+        <v>630</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C391" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8505,7 +8448,7 @@
         <v>831</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8516,29 +8459,29 @@
         <v>833</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>387</v>
+        <v>834</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>632</v>
+        <v>511</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>838</v>
+        <v>154</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8549,7 +8492,7 @@
         <v>840</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>510</v>
+        <v>47</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8560,7 +8503,7 @@
         <v>842</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>773</v>
+        <v>503</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8571,7 +8514,7 @@
         <v>844</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8582,7 +8525,7 @@
         <v>846</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>148</v>
+        <v>503</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8593,7 +8536,7 @@
         <v>848</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>47</v>
+        <v>503</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8604,7 +8547,7 @@
         <v>850</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8615,7 +8558,7 @@
         <v>852</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8626,7 +8569,7 @@
         <v>854</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8637,7 +8580,7 @@
         <v>856</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8648,7 +8591,7 @@
         <v>858</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8659,7 +8602,7 @@
         <v>860</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8670,7 +8613,7 @@
         <v>862</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8681,7 +8624,7 @@
         <v>864</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8692,7 +8635,7 @@
         <v>866</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8703,7 +8646,7 @@
         <v>868</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8714,7 +8657,7 @@
         <v>870</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8725,7 +8668,7 @@
         <v>872</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8736,7 +8679,7 @@
         <v>874</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8747,7 +8690,7 @@
         <v>876</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8758,7 +8701,7 @@
         <v>878</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8769,7 +8712,7 @@
         <v>880</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8780,7 +8723,7 @@
         <v>882</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8791,7 +8734,7 @@
         <v>884</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8802,7 +8745,7 @@
         <v>886</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8813,7 +8756,7 @@
         <v>888</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8824,7 +8767,7 @@
         <v>890</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8835,7 +8778,7 @@
         <v>892</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8846,7 +8789,7 @@
         <v>894</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8857,7 +8800,7 @@
         <v>896</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8868,7 +8811,7 @@
         <v>898</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8879,67 +8822,67 @@
         <v>900</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>502</v>
+        <v>901</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>502</v>
+        <v>834</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>502</v>
+        <v>906</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>909</v>
+        <v>295</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>773</v>
+        <v>556</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>913</v>
@@ -8956,7 +8899,7 @@
         <v>916</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8967,62 +8910,62 @@
         <v>918</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>291</v>
+        <v>919</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>927</v>
+        <v>514</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B439" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="C439" s="5" t="s">
         <v>929</v>
-      </c>
-      <c r="C439" s="5" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9033,117 +8976,117 @@
         <v>931</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>932</v>
+        <v>454</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>933</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>556</v>
+        <v>934</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>513</v>
+        <v>937</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>453</v>
+        <v>207</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>945</v>
+        <v>499</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>948</v>
+        <v>511</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C450" s="4" t="s">
-        <v>498</v>
+        <v>0</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9151,719 +9094,719 @@
         <v>956</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="C451" s="5" t="s">
-        <v>958</v>
+        <v>0</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>510</v>
+        <v>0</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="C453" s="5" t="s">
-        <v>201</v>
+        <v>0</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>0</v>
+        <v>960</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>0</v>
+        <v>960</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>0</v>
+        <v>960</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>970</v>
+        <v>908</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>971</v>
+        <v>514</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>970</v>
+        <v>910</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>971</v>
+        <v>295</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>970</v>
+        <v>910</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>971</v>
+        <v>295</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>513</v>
+        <v>295</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>291</v>
+        <v>961</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>291</v>
+        <v>961</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>291</v>
+        <v>556</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>989</v>
+        <v>913</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>990</v>
+        <v>914</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>974</v>
+        <v>912</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>975</v>
+        <v>556</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>971</v>
+        <v>556</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>920</v>
+        <v>964</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>556</v>
+        <v>965</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>921</v>
+        <v>964</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>922</v>
+        <v>965</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>920</v>
+        <v>993</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>556</v>
+        <v>425</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>556</v>
+        <v>961</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>989</v>
+        <v>916</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>990</v>
+        <v>584</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1003</v>
+        <v>964</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>422</v>
+        <v>965</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>970</v>
+        <v>918</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>971</v>
+        <v>919</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>924</v>
+        <v>964</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>585</v>
+        <v>965</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>974</v>
+        <v>923</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>975</v>
+        <v>924</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>974</v>
+        <v>925</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>975</v>
+        <v>556</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>974</v>
+        <v>923</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>975</v>
+        <v>924</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>974</v>
+        <v>928</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>975</v>
+        <v>929</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>931</v>
+        <v>1006</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>933</v>
+        <v>1006</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>556</v>
+        <v>929</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>931</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>932</v>
+        <v>454</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>931</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>932</v>
+        <v>454</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>937</v>
+        <v>454</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1016</v>
+        <v>921</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>937</v>
+        <v>514</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1016</v>
+        <v>921</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>937</v>
+        <v>514</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>513</v>
+        <v>934</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>513</v>
+        <v>937</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>513</v>
+        <v>940</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>942</v>
+        <v>499</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>944</v>
@@ -9874,79 +9817,79 @@
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>947</v>
+        <v>1025</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>498</v>
+        <v>945</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>498</v>
+        <v>207</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>955</v>
+        <v>1029</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>498</v>
+        <v>390</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="C521" s="5" t="s">
-        <v>953</v>
+        <v>0</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>953</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>1035</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>953</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9954,10 +9897,10 @@
         <v>1037</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>950</v>
+        <v>456</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>201</v>
+        <v>587</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9965,10 +9908,10 @@
         <v>1038</v>
       </c>
       <c r="B525" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C525" s="5" t="s">
         <v>1039</v>
-      </c>
-      <c r="C525" s="5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9976,43 +9919,43 @@
         <v>1040</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>0</v>
+        <v>389</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C527" s="5" t="s">
         <v>1041</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C527" s="5" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B528" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B528" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="C528" s="4" t="s">
-        <v>588</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C529" s="5" t="s">
-        <v>1046</v>
+        <v>0</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10020,21 +9963,21 @@
         <v>1047</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>1048</v>
+        <v>481</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C531" s="5" t="s">
         <v>1049</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C531" s="5" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10045,238 +9988,238 @@
         <v>1051</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>1052</v>
+        <v>428</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B533" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="B533" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>0</v>
+      <c r="C533" s="5" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>386</v>
+        <v>1056</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>480</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>500</v>
+        <v>1056</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C536" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C536" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B538" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="C538" s="4" t="s">
         <v>1063</v>
-      </c>
-      <c r="C538" s="4" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B539" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C539" s="5" t="s">
         <v>1063</v>
-      </c>
-      <c r="C539" s="5" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>1064</v>
+        <v>560</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B541" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C541" s="5" t="s">
         <v>1063</v>
-      </c>
-      <c r="C541" s="5" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>1070</v>
+        <v>829</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>560</v>
+        <v>829</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>1070</v>
+        <v>829</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1070</v>
+        <v>829</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B547" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="B547" s="3" t="s">
+      <c r="C547" s="5" t="s">
         <v>1075</v>
-      </c>
-      <c r="C547" s="5" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B548" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C548" s="4" t="s">
         <v>1075</v>
-      </c>
-      <c r="C548" s="4" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B549" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C549" s="5" t="s">
         <v>1075</v>
-      </c>
-      <c r="C549" s="5" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B550" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C550" s="4" t="s">
         <v>1075</v>
-      </c>
-      <c r="C550" s="4" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B551" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="C551" s="5" t="s">
         <v>1081</v>
-      </c>
-      <c r="C551" s="5" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B552" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C552" s="4" t="s">
         <v>1081</v>
-      </c>
-      <c r="C552" s="4" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B553" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="B553" s="3" t="s">
+      <c r="C553" s="5" t="s">
         <v>1081</v>
-      </c>
-      <c r="C553" s="5" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10284,10 +10227,10 @@
         <v>1085</v>
       </c>
       <c r="B554" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C554" s="4" t="s">
         <v>1081</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10298,7 +10241,7 @@
         <v>1087</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>838</v>
+        <v>924</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10309,7 +10252,7 @@
         <v>1087</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>838</v>
+        <v>924</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10317,106 +10260,106 @@
         <v>1089</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>838</v>
+        <v>924</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>838</v>
+        <v>924</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B559" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="B559" s="3" t="s">
-        <v>1093</v>
-      </c>
       <c r="C559" s="5" t="s">
-        <v>1094</v>
+        <v>375</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>1094</v>
+        <v>375</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C561" s="5" t="s">
-        <v>1094</v>
+        <v>375</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1094</v>
+        <v>375</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>1100</v>
+        <v>375</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>1100</v>
+        <v>375</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>1100</v>
+        <v>375</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1103</v>
+        <v>430</v>
       </c>
       <c r="C566" s="4" t="s">
         <v>1100</v>
@@ -10424,145 +10367,145 @@
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1106</v>
+        <v>456</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>932</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>932</v>
+        <v>787</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1106</v>
+        <v>399</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>932</v>
+        <v>787</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>932</v>
+        <v>375</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>372</v>
+        <v>151</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C573" s="5" t="s">
-        <v>372</v>
+        <v>0</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C574" s="4" t="s">
-        <v>372</v>
+        <v>0</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>372</v>
+        <v>937</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B576" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B576" s="1" t="s">
-        <v>1111</v>
-      </c>
       <c r="C576" s="4" t="s">
-        <v>372</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>427</v>
+        <v>1120</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>1119</v>
+        <v>656</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>455</v>
+        <v>1121</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>1121</v>
+        <v>378</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10573,224 +10516,224 @@
         <v>1123</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>795</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>396</v>
+        <v>1126</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>795</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>372</v>
+        <v>182</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>145</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>416</v>
+        <v>276</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C585" s="3" t="s">
-        <v>0</v>
+        <v>1136</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C586" s="1" t="s">
-        <v>0</v>
+        <v>1138</v>
+      </c>
+      <c r="C586" s="4" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>945</v>
+        <v>63</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>1134</v>
+        <v>1145</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1137</v>
+        <v>411</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>411</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1139</v>
+        <v>411</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>658</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>375</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1142</v>
+        <v>1153</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>1144</v>
+        <v>1155</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1145</v>
+        <v>1156</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1148</v>
+        <v>1159</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>176</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>1149</v>
+        <v>1161</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>1151</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>272</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>446</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>1159</v>
+        <v>1171</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>61</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
       <c r="C600" s="4" t="s">
         <v>1163</v>
@@ -10798,513 +10741,381 @@
     </row>
     <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>408</v>
+        <v>1177</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>408</v>
+        <v>1179</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>1168</v>
+        <v>1180</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>1174</v>
+        <v>1185</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1175</v>
+        <v>1186</v>
       </c>
       <c r="C605" s="5" t="s">
-        <v>1176</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>1177</v>
+        <v>1188</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="C607" s="5" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1184</v>
+        <v>1193</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1185</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>1182</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>1188</v>
+        <v>1197</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1189</v>
+        <v>1198</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>1190</v>
+        <v>1199</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1191</v>
+        <v>1200</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>1192</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>1182</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>1197</v>
+        <v>1206</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1198</v>
+        <v>1207</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>1199</v>
+        <v>1208</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1200</v>
+        <v>1209</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1203</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1182</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>1218</v>
+        <v>1227</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>1182</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
-        <v>1220</v>
+        <v>1229</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>1182</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>1222</v>
+        <v>1232</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1223</v>
+        <v>1233</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>1224</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
-        <v>1225</v>
+        <v>1235</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1226</v>
+        <v>1236</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="C627" s="5" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
-        <v>1229</v>
+        <v>1239</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1182</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
-        <v>1231</v>
+        <v>1241</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="C629" s="5" t="s">
-        <v>1233</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
-        <v>1234</v>
+        <v>1244</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1235</v>
+        <v>1245</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
-        <v>1236</v>
+        <v>1246</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1237</v>
+        <v>1247</v>
       </c>
       <c r="C631" s="5" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>1182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="C633" s="5" t="s">
-        <v>1242</v>
+        <v>151</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A635" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B635" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C635" s="5" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A636" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C636" s="4" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A637" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B637" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C637" s="5" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A638" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C638" s="4" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A639" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C639" s="5" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A640" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C640" s="4" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A641" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B641" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C641" s="5" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A642" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C642" s="4" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A643" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B643" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C643" s="5" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A644" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C644" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A645" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B645" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C645" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A646" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C646" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="648" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="649" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="636" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="637" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UniMedica-Dawra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA68FD4-DCA5-4E97-B02E-6A59FB931424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3774,13 +3775,13 @@
     <t>EVA 32506436</t>
   </si>
   <si>
-    <t>ح</t>
+    <t>الكميه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh:mm:ss\ \t\t"/>
@@ -3842,17 +3843,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4132,21 +4131,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>1251</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4160,7 +4157,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4174,7 +4171,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4187,8 +4184,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4201,8 +4198,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4215,8 +4212,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4229,8 +4226,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>145</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4243,8 +4240,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4257,8 +4254,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4271,8 +4268,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4285,8 +4282,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -4299,8 +4296,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>223</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4313,8 +4310,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4327,8 +4324,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4341,8 +4338,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>440</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4355,8 +4352,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>-2</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4369,8 +4366,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4383,8 +4380,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4397,8 +4394,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4411,8 +4408,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4425,8 +4422,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4439,8 +4436,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4453,8 +4450,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4467,8 +4464,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4481,8 +4478,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>141</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4495,8 +4492,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>117</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4509,8 +4506,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4523,8 +4520,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4537,8 +4534,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4551,8 +4548,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>145</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4565,8 +4562,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>399</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4579,8 +4576,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4593,8 +4590,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4607,8 +4604,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>160</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4621,8 +4618,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>172</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4635,8 +4632,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4649,8 +4646,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>182</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4663,8 +4660,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4677,8 +4674,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4691,8 +4688,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4705,8 +4702,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -4719,8 +4716,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4733,8 +4730,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4747,8 +4744,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4761,8 +4758,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
         <v>313</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -4775,8 +4772,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4789,8 +4786,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -4803,8 +4800,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4817,8 +4814,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>-1</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4831,8 +4828,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4845,8 +4842,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
         <v>306</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4859,8 +4856,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
         <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -4873,8 +4870,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
         <v>1</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -4887,8 +4884,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
         <v>504</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -4901,8 +4898,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
         <v>72</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -4915,8 +4912,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
         <v>17</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -4929,8 +4926,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
         <v>4</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -4943,8 +4940,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
         <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -4957,8 +4954,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
         <v>52</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -4971,8 +4968,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
         <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -4985,8 +4982,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4999,8 +4996,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
         <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -5013,8 +5010,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -5027,8 +5024,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -5041,8 +5038,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
         <v>48</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -5055,8 +5052,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
         <v>16</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -5069,8 +5066,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
         <v>44</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -5083,8 +5080,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
         <v>36</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -5097,8 +5094,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
         <v>32</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -5111,8 +5108,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
         <v>18</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -5125,8 +5122,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
         <v>65</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5139,8 +5136,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
         <v>26</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -5153,8 +5150,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
         <v>17</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -5167,8 +5164,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
         <v>45</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -5181,8 +5178,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
         <v>47</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -5195,8 +5192,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
         <v>38</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -5209,8 +5206,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
         <v>23</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -5223,8 +5220,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
         <v>24</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -5237,8 +5234,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
         <v>38</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -5251,8 +5248,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
         <v>34</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -5265,8 +5262,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
         <v>9</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -5279,8 +5276,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
         <v>27</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -5293,8 +5290,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
         <v>10</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -5307,8 +5304,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
         <v>75</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -5321,8 +5318,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
         <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -5335,8 +5332,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
         <v>48</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -5349,8 +5346,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
         <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -5363,8 +5360,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
         <v>256</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -5377,8 +5374,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="8">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
         <v>25</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -5391,8 +5388,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
         <v>11</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -5405,8 +5402,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="8">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
         <v>26</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -5419,8 +5416,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
         <v>74</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -5433,8 +5430,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -5447,8 +5444,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
         <v>21</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5461,8 +5458,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="8">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
         <v>435</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -5475,8 +5472,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
         <v>52</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -5489,8 +5486,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
         <v>40</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -5503,8 +5500,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -5517,8 +5514,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
         <v>44</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -5531,8 +5528,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
         <v>1</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -5545,8 +5542,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
         <v>40</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -5559,8 +5556,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
         <v>4250</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -5573,8 +5570,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
         <v>9250</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -5587,8 +5584,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="7">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -5601,8 +5598,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="8">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
         <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -5615,8 +5612,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="6">
         <v>130195</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -5629,8 +5626,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="8">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
         <v>826</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -5643,8 +5640,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="6">
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -5657,8 +5654,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="8">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
         <v>20</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5671,8 +5668,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
         <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -5685,8 +5682,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="8">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
         <v>16</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -5699,8 +5696,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="7">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
         <v>56</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -5713,8 +5710,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="8">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
         <v>95</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -5727,8 +5724,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5741,8 +5738,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="8">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
         <v>20</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -5755,8 +5752,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
         <v>44</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -5769,8 +5766,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="8">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
         <v>53</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -5783,8 +5780,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -5797,8 +5794,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="8">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
         <v>34</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -5811,8 +5808,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="7">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
         <v>329</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -5825,8 +5822,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="8">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
         <v>2</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -5839,8 +5836,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="7">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
         <v>22</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -5853,8 +5850,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="8">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -5867,8 +5864,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="7">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
         <v>387</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -5881,8 +5878,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="8">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="7">
         <v>372</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -5895,8 +5892,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5909,8 +5906,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="8">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="7">
         <v>29</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -5923,8 +5920,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="7">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
         <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5937,8 +5934,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="8">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
         <v>136</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -5951,8 +5948,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="7">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
         <v>68</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -5965,8 +5962,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="8">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
         <v>17</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -5979,8 +5976,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="7">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
         <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -5993,8 +5990,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="8">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="7">
         <v>1</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -6007,8 +6004,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="7">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
         <v>2</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -6021,8 +6018,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="8">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="7">
         <v>5669</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -6035,8 +6032,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="7">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
         <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -6049,8 +6046,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="8">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="7">
         <v>22910</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -6063,8 +6060,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
         <v>19</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -6077,8 +6074,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="8">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="7">
         <v>1</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -6091,8 +6088,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="7">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="6">
         <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -6105,8 +6102,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="8">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="7">
         <v>103</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -6119,8 +6116,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="6">
         <v>2</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -6133,8 +6130,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="8">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="7">
         <v>396</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -6147,8 +6144,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="7">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
         <v>2</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -6161,8 +6158,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="8">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="7">
         <v>6</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -6175,8 +6172,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -6189,8 +6186,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="8">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="7">
         <v>2</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -6203,8 +6200,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
         <v>6</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -6217,8 +6214,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="8">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="7">
         <v>8</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -6231,8 +6228,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
         <v>15</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -6245,8 +6242,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="8">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="7">
         <v>164</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -6259,8 +6256,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="7">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
         <v>39</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -6273,8 +6270,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="8">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="7">
         <v>134</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -6287,8 +6284,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="7">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
         <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -6301,8 +6298,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="8">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="7">
         <v>115</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -6315,8 +6312,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="7">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
         <v>50</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -6329,8 +6326,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="8">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="7">
         <v>8</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -6343,8 +6340,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="7">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
         <v>4</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -6357,8 +6354,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="8">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="7">
         <v>577</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -6371,8 +6368,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="7">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
         <v>6</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -6385,8 +6382,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="8">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="7">
         <v>208</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -6399,8 +6396,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="7">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
         <v>255</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -6413,8 +6410,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="8">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="7">
         <v>660</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -6427,8 +6424,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="7">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
         <v>6</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -6441,8 +6438,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="8">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="7">
         <v>30</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -6455,8 +6452,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="7">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
         <v>16</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -6469,8 +6466,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="8">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="7">
         <v>1</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -6483,8 +6480,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="7">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
         <v>11</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -6497,8 +6494,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="8">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="7">
         <v>18</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -6511,8 +6508,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="7">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
         <v>6</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -6525,8 +6522,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A171" s="8">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="7">
         <v>33</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -6539,8 +6536,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="7">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
         <v>107</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -6553,8 +6550,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="8">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="7">
         <v>23</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -6567,8 +6564,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="7">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
         <v>29</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -6581,8 +6578,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="8">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="7">
         <v>14</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -6595,8 +6592,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="7">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="6">
         <v>64</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -6609,8 +6606,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="8">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="7">
         <v>198</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -6623,8 +6620,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="7">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="6">
         <v>425</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -6637,8 +6634,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="8">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="7">
         <v>25</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -6651,8 +6648,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="7">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="6">
         <v>9</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -6665,8 +6662,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="8">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="7">
         <v>34</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -6679,8 +6676,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="7">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
         <v>1</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -6693,8 +6690,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A183" s="8">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="7">
         <v>12</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -6707,8 +6704,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="7">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="6">
         <v>14</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -6721,8 +6718,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="8">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="7">
         <v>17</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -6735,8 +6732,8 @@
         <v>419</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="7">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="6">
         <v>98</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -6749,8 +6746,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="8">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="7">
         <v>21</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -6763,8 +6760,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="7">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="6">
         <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -6777,8 +6774,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="8">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="7">
         <v>2</v>
       </c>
       <c r="B189" s="3" t="s">
@@ -6791,8 +6788,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="7">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
         <v>19</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -6805,8 +6802,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="8">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="7">
         <v>35</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -6819,8 +6816,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="7">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
         <v>1</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -6833,8 +6830,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="8">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="7">
         <v>17</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -6847,8 +6844,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="7">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="6">
         <v>114</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -6861,8 +6858,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="8">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="7">
         <v>1</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -6875,8 +6872,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="7">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="6">
         <v>166</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -6889,8 +6886,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="8">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="7">
         <v>31</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -6903,8 +6900,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="7">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="6">
         <v>4</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -6917,8 +6914,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="8">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="7">
         <v>17</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -6931,8 +6928,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="7">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
         <v>58</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -6945,8 +6942,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="8">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="7">
         <v>8</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -6959,8 +6956,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="7">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
         <v>29</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -6973,8 +6970,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="8">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="7">
         <v>1</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -6987,8 +6984,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="7">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="6">
         <v>19</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -7001,8 +6998,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="8">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="7">
         <v>3</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -7015,8 +7012,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="7">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="6">
         <v>115</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -7029,8 +7026,8 @@
         <v>460</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="8">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="7">
         <v>4</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -7043,8 +7040,8 @@
         <v>462</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="7">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="6">
         <v>49</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7057,8 +7054,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="8">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="7">
         <v>28</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -7071,8 +7068,8 @@
         <v>466</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="7">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="6">
         <v>7</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -7085,8 +7082,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="8">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="7">
         <v>17</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -7099,8 +7096,8 @@
         <v>469</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="7">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="6">
         <v>24</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -7113,8 +7110,8 @@
         <v>472</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="8">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="7">
         <v>42</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -7127,8 +7124,8 @@
         <v>474</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="7">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="6">
         <v>35</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -7141,8 +7138,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="8">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="7">
         <v>46</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -7155,8 +7152,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="7">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="6">
         <v>34</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -7169,8 +7166,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="8">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="7">
         <v>13</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -7183,8 +7180,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="7">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="6">
         <v>2</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -7197,8 +7194,8 @@
         <v>486</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="8">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="7">
         <v>1</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -7211,8 +7208,8 @@
         <v>486</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="7">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="6">
         <v>17</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -7225,8 +7222,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A221" s="8">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="7">
         <v>10</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -7239,8 +7236,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="7">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="6">
         <v>12</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -7253,8 +7250,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="8">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="7">
         <v>8</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -7267,8 +7264,8 @@
         <v>495</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="7">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="6">
         <v>15</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -7281,8 +7278,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="8">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="7">
         <v>1536</v>
       </c>
       <c r="B225" s="3" t="s">
@@ -7295,8 +7292,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A226" s="7">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="6">
         <v>21</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -7309,8 +7306,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="8">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="7">
         <v>26</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -7323,8 +7320,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="7">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
         <v>37</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -7337,8 +7334,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="8">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="7">
         <v>6</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -7351,8 +7348,8 @@
         <v>507</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A230" s="7">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="6">
         <v>11</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -7365,8 +7362,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="8">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="7">
         <v>3</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -7379,8 +7376,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="7">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="6">
         <v>2</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -7393,8 +7390,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="8">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="7">
         <v>3</v>
       </c>
       <c r="B233" s="3" t="s">
@@ -7407,8 +7404,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A234" s="7">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="6">
         <v>2</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -7421,8 +7418,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="8">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="7">
         <v>3</v>
       </c>
       <c r="B235" s="3" t="s">
@@ -7435,8 +7432,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="7">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="6">
         <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -7449,8 +7446,8 @@
         <v>521</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="8">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="7">
         <v>90</v>
       </c>
       <c r="B237" s="3" t="s">
@@ -7463,8 +7460,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A238" s="7">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="6">
         <v>420</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -7477,8 +7474,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A239" s="8">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="7">
         <v>242</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -7491,8 +7488,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="7">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="6">
         <v>1</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -7505,8 +7502,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="8">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="7">
         <v>21</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -7519,8 +7516,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="7">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="6">
         <v>36</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -7533,8 +7530,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="8">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="7">
         <v>18</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -7547,8 +7544,8 @@
         <v>533</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="7">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="6">
         <v>9</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -7561,8 +7558,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A245" s="8">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="7">
         <v>4</v>
       </c>
       <c r="B245" s="3" t="s">
@@ -7575,8 +7572,8 @@
         <v>539</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="7">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="6">
         <v>10</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -7589,8 +7586,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="8">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="7">
         <v>36</v>
       </c>
       <c r="B247" s="3" t="s">
@@ -7603,8 +7600,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="7">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="6">
         <v>37</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -7617,8 +7614,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A249" s="8">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="7">
         <v>47</v>
       </c>
       <c r="B249" s="3" t="s">
@@ -7631,8 +7628,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="7">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="6">
         <v>1</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -7645,8 +7642,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="8">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="7">
         <v>49</v>
       </c>
       <c r="B251" s="3" t="s">
@@ -7659,8 +7656,8 @@
         <v>551</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="7">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="6">
         <v>3</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -7673,8 +7670,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="8">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="7">
         <v>2</v>
       </c>
       <c r="B253" s="3" t="s">
@@ -7687,8 +7684,8 @@
         <v>554</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A254" s="7">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="6">
         <v>19</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -7701,8 +7698,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A255" s="8">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="7">
         <v>5</v>
       </c>
       <c r="B255" s="3" t="s">
@@ -7715,8 +7712,8 @@
         <v>559</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="7">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="6">
         <v>15</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -7729,8 +7726,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="8">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="7">
         <v>2</v>
       </c>
       <c r="B257" s="3" t="s">
@@ -7743,8 +7740,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A258" s="7">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="6">
         <v>559</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -7757,8 +7754,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A259" s="8">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="7">
         <v>578</v>
       </c>
       <c r="B259" s="3" t="s">
@@ -7771,8 +7768,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A260" s="7">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="6">
         <v>6</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -7785,8 +7782,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A261" s="8">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="7">
         <v>4</v>
       </c>
       <c r="B261" s="3" t="s">
@@ -7799,8 +7796,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="7">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="6">
         <v>6</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -7813,8 +7810,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A263" s="8">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="7">
         <v>3</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -7827,8 +7824,8 @@
         <v>572</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="7">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="6">
         <v>29</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -7841,8 +7838,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A265" s="8">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="7">
         <v>3</v>
       </c>
       <c r="B265" s="3" t="s">
@@ -7855,8 +7852,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A266" s="7">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="6">
         <v>14</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -7869,8 +7866,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A267" s="8">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="7">
         <v>21</v>
       </c>
       <c r="B267" s="3" t="s">
@@ -7883,8 +7880,8 @@
         <v>583</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A268" s="7">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="6">
         <v>4</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -7897,8 +7894,8 @@
         <v>586</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A269" s="8">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="7">
         <v>24</v>
       </c>
       <c r="B269" s="3" t="s">
@@ -7911,8 +7908,8 @@
         <v>588</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="7">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="6">
         <v>1</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -7925,8 +7922,8 @@
         <v>590</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A271" s="8">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="7">
         <v>19</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -7939,8 +7936,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A272" s="7">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="6">
         <v>3</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -7953,8 +7950,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A273" s="8">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="7">
         <v>1</v>
       </c>
       <c r="B273" s="3" t="s">
@@ -7967,8 +7964,8 @@
         <v>593</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A274" s="7">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="6">
         <v>44</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -7981,8 +7978,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A275" s="8">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="7">
         <v>2</v>
       </c>
       <c r="B275" s="3" t="s">
@@ -7995,8 +7992,8 @@
         <v>598</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="7">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
         <v>6</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -8009,8 +8006,8 @@
         <v>601</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A277" s="8">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="7">
         <v>37</v>
       </c>
       <c r="B277" s="3" t="s">
@@ -8023,8 +8020,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A278" s="7">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="6">
         <v>4</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -8037,8 +8034,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A279" s="8">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="7">
         <v>2</v>
       </c>
       <c r="B279" s="3" t="s">
@@ -8051,8 +8048,8 @@
         <v>607</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A280" s="7">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="6">
         <v>1</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -8065,8 +8062,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A281" s="8">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="7">
         <v>10</v>
       </c>
       <c r="B281" s="3" t="s">
@@ -8079,8 +8076,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A282" s="7">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="6">
         <v>36</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -8093,8 +8090,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A283" s="8">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="7">
         <v>19</v>
       </c>
       <c r="B283" s="3" t="s">
@@ -8107,8 +8104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A284" s="7">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="6">
         <v>207</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -8121,8 +8118,8 @@
         <v>615</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A285" s="8">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="7">
         <v>213</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -8135,8 +8132,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A286" s="7">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="6">
         <v>117</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -8149,8 +8146,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="8">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="7">
         <v>523</v>
       </c>
       <c r="B287" s="3" t="s">
@@ -8163,8 +8160,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A288" s="7">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="6">
         <v>1</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -8177,8 +8174,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A289" s="8">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="7">
         <v>5</v>
       </c>
       <c r="B289" s="3" t="s">
@@ -8191,8 +8188,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A290" s="7">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
         <v>16</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -8205,8 +8202,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A291" s="8">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="7">
         <v>19</v>
       </c>
       <c r="B291" s="3" t="s">
@@ -8219,8 +8216,8 @@
         <v>625</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A292" s="7">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="6">
         <v>11</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -8233,8 +8230,8 @@
         <v>627</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A293" s="8">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="7">
         <v>24</v>
       </c>
       <c r="B293" s="3" t="s">
@@ -8247,8 +8244,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A294" s="7">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="6">
         <v>4</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -8261,8 +8258,8 @@
         <v>631</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A295" s="8">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="7">
         <v>15</v>
       </c>
       <c r="B295" s="3" t="s">
@@ -8275,8 +8272,8 @@
         <v>633</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A296" s="7">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="6">
         <v>5</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -8289,8 +8286,8 @@
         <v>635</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A297" s="8">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="7">
         <v>1</v>
       </c>
       <c r="B297" s="3" t="s">
@@ -8303,8 +8300,8 @@
         <v>635</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A298" s="7">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="6">
         <v>2</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -8317,8 +8314,8 @@
         <v>590</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A299" s="8">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="7">
         <v>46</v>
       </c>
       <c r="B299" s="3" t="s">
@@ -8331,8 +8328,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A300" s="7">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="6">
         <v>7</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -8345,8 +8342,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A301" s="8">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="7">
         <v>7</v>
       </c>
       <c r="B301" s="3" t="s">
@@ -8359,8 +8356,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A302" s="7">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="6">
         <v>40</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -8373,8 +8370,8 @@
         <v>645</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A303" s="8">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="7">
         <v>7</v>
       </c>
       <c r="B303" s="3" t="s">
@@ -8387,8 +8384,8 @@
         <v>648</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A304" s="7">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="6">
         <v>27</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -8401,8 +8398,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A305" s="8">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="7">
         <v>132</v>
       </c>
       <c r="B305" s="3" t="s">
@@ -8415,8 +8412,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A306" s="7">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="6">
         <v>395</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -8429,8 +8426,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A307" s="8">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="7">
         <v>501</v>
       </c>
       <c r="B307" s="3" t="s">
@@ -8443,8 +8440,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A308" s="7">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="6">
         <v>22</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -8457,8 +8454,8 @@
         <v>657</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A309" s="8">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="7">
         <v>9</v>
       </c>
       <c r="B309" s="3" t="s">
@@ -8471,8 +8468,8 @@
         <v>660</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A310" s="7">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="6">
         <v>15</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -8485,8 +8482,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A311" s="8">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="7">
         <v>39</v>
       </c>
       <c r="B311" s="3" t="s">
@@ -8499,8 +8496,8 @@
         <v>665</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A312" s="7">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="6">
         <v>2</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -8513,8 +8510,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A313" s="8">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="7">
         <v>12</v>
       </c>
       <c r="B313" s="3" t="s">
@@ -8527,8 +8524,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A314" s="7">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="6">
         <v>19</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -8541,8 +8538,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A315" s="8">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="7">
         <v>3</v>
       </c>
       <c r="B315" s="3" t="s">
@@ -8555,8 +8552,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A316" s="7">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="6">
         <v>18</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -8569,8 +8566,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A317" s="8">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="7">
         <v>27</v>
       </c>
       <c r="B317" s="3" t="s">
@@ -8583,8 +8580,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A318" s="7">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="6">
         <v>10</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -8597,8 +8594,8 @@
         <v>677</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A319" s="8">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="7">
         <v>1</v>
       </c>
       <c r="B319" s="3" t="s">
@@ -8611,8 +8608,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A320" s="7">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="6">
         <v>1</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -8625,8 +8622,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A321" s="8">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="7">
         <v>20</v>
       </c>
       <c r="B321" s="3" t="s">
@@ -8639,8 +8636,8 @@
         <v>607</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A322" s="7">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="6">
         <v>-92</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -8653,8 +8650,8 @@
         <v>685</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A323" s="8">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="7">
         <v>5</v>
       </c>
       <c r="B323" s="3" t="s">
@@ -8667,8 +8664,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A324" s="7">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="6">
         <v>118</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -8681,8 +8678,8 @@
         <v>685</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A325" s="8">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="7">
         <v>13</v>
       </c>
       <c r="B325" s="3" t="s">
@@ -8695,8 +8692,8 @@
         <v>689</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A326" s="7">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="6">
         <v>4</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -8709,8 +8706,8 @@
         <v>692</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A327" s="8">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="7">
         <v>20</v>
       </c>
       <c r="B327" s="3" t="s">
@@ -8723,8 +8720,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A328" s="7">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="6">
         <v>102</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -8737,8 +8734,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A329" s="8">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="7">
         <v>1</v>
       </c>
       <c r="B329" s="3" t="s">
@@ -8751,8 +8748,8 @@
         <v>699</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A330" s="7">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="6">
         <v>44</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -8765,8 +8762,8 @@
         <v>702</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A331" s="8">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="7">
         <v>36</v>
       </c>
       <c r="B331" s="3" t="s">
@@ -8779,8 +8776,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A332" s="7">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="6">
         <v>47</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -8793,8 +8790,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A333" s="8">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="7">
         <v>48</v>
       </c>
       <c r="B333" s="3" t="s">
@@ -8807,8 +8804,8 @@
         <v>709</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A334" s="7">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="6">
         <v>20</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -8821,8 +8818,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A335" s="8">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="7">
         <v>800</v>
       </c>
       <c r="B335" s="3" t="s">
@@ -8835,8 +8832,8 @@
         <v>713</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A336" s="7">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="6">
         <v>5</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -8849,8 +8846,8 @@
         <v>715</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A337" s="8">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="7">
         <v>37</v>
       </c>
       <c r="B337" s="3" t="s">
@@ -8863,8 +8860,8 @@
         <v>718</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A338" s="7">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="6">
         <v>10</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -8877,8 +8874,8 @@
         <v>721</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A339" s="8">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="7">
         <v>76</v>
       </c>
       <c r="B339" s="3" t="s">
@@ -8891,8 +8888,8 @@
         <v>724</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A340" s="7">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="6">
         <v>7</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -8905,8 +8902,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A341" s="8">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="7">
         <v>4</v>
       </c>
       <c r="B341" s="3" t="s">
@@ -8919,8 +8916,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A342" s="7">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="6">
         <v>51</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -8933,8 +8930,8 @@
         <v>731</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A343" s="8">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="7">
         <v>7</v>
       </c>
       <c r="B343" s="3" t="s">
@@ -8947,8 +8944,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A344" s="7">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="6">
         <v>21</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -8961,8 +8958,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A345" s="8">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="7">
         <v>1</v>
       </c>
       <c r="B345" s="3" t="s">
@@ -8975,8 +8972,8 @@
         <v>739</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A346" s="7">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="6">
         <v>16</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -8989,8 +8986,8 @@
         <v>739</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A347" s="8">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="7">
         <v>45</v>
       </c>
       <c r="B347" s="3" t="s">
@@ -9003,8 +9000,8 @@
         <v>742</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A348" s="7">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="6">
         <v>4</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -9017,8 +9014,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A349" s="8">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="7">
         <v>6</v>
       </c>
       <c r="B349" s="3" t="s">
@@ -9031,8 +9028,8 @@
         <v>747</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A350" s="7">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="6">
         <v>3</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -9045,8 +9042,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A351" s="8">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="7">
         <v>141</v>
       </c>
       <c r="B351" s="3" t="s">
@@ -9059,8 +9056,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A352" s="7">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="6">
         <v>19</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -9073,8 +9070,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A353" s="8">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="7">
         <v>2</v>
       </c>
       <c r="B353" s="3" t="s">
@@ -9087,8 +9084,8 @@
         <v>755</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A354" s="7">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="6">
         <v>158</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -9101,8 +9098,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A355" s="8">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="7">
         <v>1</v>
       </c>
       <c r="B355" s="3" t="s">
@@ -9115,8 +9112,8 @@
         <v>758</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A356" s="7">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="6">
         <v>13</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -9129,8 +9126,8 @@
         <v>761</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A357" s="8">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="7">
         <v>68</v>
       </c>
       <c r="B357" s="3" t="s">
@@ -9143,8 +9140,8 @@
         <v>764</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A358" s="7">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="6">
         <v>1</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -9157,8 +9154,8 @@
         <v>715</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A359" s="8">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="7">
         <v>223</v>
       </c>
       <c r="B359" s="3" t="s">
@@ -9171,8 +9168,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A360" s="7">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="6">
         <v>221</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -9185,8 +9182,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A361" s="8">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="7">
         <v>108</v>
       </c>
       <c r="B361" s="3" t="s">
@@ -9199,8 +9196,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A362" s="7">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="6">
         <v>18</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -9213,8 +9210,8 @@
         <v>774</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A363" s="8">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="7">
         <v>19</v>
       </c>
       <c r="B363" s="3" t="s">
@@ -9227,8 +9224,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A364" s="7">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="6">
         <v>4</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -9241,8 +9238,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A365" s="8">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="7">
         <v>24</v>
       </c>
       <c r="B365" s="3" t="s">
@@ -9255,8 +9252,8 @@
         <v>781</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A366" s="7">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="6">
         <v>206</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -9269,8 +9266,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A367" s="8">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="7">
         <v>117</v>
       </c>
       <c r="B367" s="3" t="s">
@@ -9283,8 +9280,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A368" s="7">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="6">
         <v>2</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -9297,8 +9294,8 @@
         <v>788</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A369" s="8">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="7">
         <v>47</v>
       </c>
       <c r="B369" s="3" t="s">
@@ -9311,8 +9308,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A370" s="7">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="6">
         <v>1</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -9325,8 +9322,8 @@
         <v>793</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A371" s="8">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="7">
         <v>13</v>
       </c>
       <c r="B371" s="3" t="s">
@@ -9339,8 +9336,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A372" s="7">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="6">
         <v>4</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -9353,8 +9350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A373" s="8">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="7">
         <v>42</v>
       </c>
       <c r="B373" s="3" t="s">
@@ -9367,8 +9364,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A374" s="7">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="6">
         <v>1</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -9381,8 +9378,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A375" s="8">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="7">
         <v>6</v>
       </c>
       <c r="B375" s="3" t="s">
@@ -9395,8 +9392,8 @@
         <v>800</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A376" s="7">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="6">
         <v>2</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -9409,8 +9406,8 @@
         <v>803</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A377" s="8">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="7">
         <v>57</v>
       </c>
       <c r="B377" s="3" t="s">
@@ -9423,8 +9420,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A378" s="7">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="6">
         <v>490</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -9437,8 +9434,8 @@
         <v>808</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A379" s="8">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="7">
         <v>58</v>
       </c>
       <c r="B379" s="3" t="s">
@@ -9451,8 +9448,8 @@
         <v>811</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A380" s="7">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="6">
         <v>40</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -9465,8 +9462,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A381" s="8">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="7">
         <v>5</v>
       </c>
       <c r="B381" s="3" t="s">
@@ -9479,8 +9476,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A382" s="7">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="6">
         <v>7</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -9493,8 +9490,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A383" s="8">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="7">
         <v>18</v>
       </c>
       <c r="B383" s="3" t="s">
@@ -9507,8 +9504,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A384" s="7">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="6">
         <v>58</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -9521,8 +9518,8 @@
         <v>820</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A385" s="8">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="7">
         <v>1</v>
       </c>
       <c r="B385" s="3" t="s">
@@ -9535,8 +9532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A386" s="7">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="6">
         <v>50</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -9549,8 +9546,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A387" s="8">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="7">
         <v>7</v>
       </c>
       <c r="B387" s="3" t="s">
@@ -9563,8 +9560,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A388" s="7">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="6">
         <v>2</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -9577,8 +9574,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A389" s="8">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="7">
         <v>9</v>
       </c>
       <c r="B389" s="3" t="s">
@@ -9591,8 +9588,8 @@
         <v>559</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A390" s="7">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="6">
         <v>90</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -9605,8 +9602,8 @@
         <v>635</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A391" s="8">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="7">
         <v>2</v>
       </c>
       <c r="B391" s="3" t="s">
@@ -9619,8 +9616,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A392" s="7">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="6">
         <v>168</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -9633,8 +9630,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A393" s="8">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="7">
         <v>1</v>
       </c>
       <c r="B393" s="3" t="s">
@@ -9647,8 +9644,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A394" s="7">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="6">
         <v>1</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -9661,8 +9658,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A395" s="8">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="7">
         <v>34</v>
       </c>
       <c r="B395" s="3" t="s">
@@ -9675,8 +9672,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A396" s="7">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="6">
         <v>6</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -9689,8 +9686,8 @@
         <v>803</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A397" s="8">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="7">
         <v>5</v>
       </c>
       <c r="B397" s="3" t="s">
@@ -9703,8 +9700,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A398" s="7">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="6">
         <v>5</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -9717,8 +9714,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A399" s="8">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="7">
         <v>5</v>
       </c>
       <c r="B399" s="3" t="s">
@@ -9731,8 +9728,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A400" s="7">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="6">
         <v>5</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -9745,8 +9742,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A401" s="8">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="7">
         <v>5</v>
       </c>
       <c r="B401" s="3" t="s">
@@ -9759,8 +9756,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A402" s="7">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="6">
         <v>5</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -9773,8 +9770,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A403" s="8">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="7">
         <v>5</v>
       </c>
       <c r="B403" s="3" t="s">
@@ -9787,8 +9784,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A404" s="7">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="6">
         <v>5</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -9801,8 +9798,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A405" s="8">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="7">
         <v>5</v>
       </c>
       <c r="B405" s="3" t="s">
@@ -9815,8 +9812,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A406" s="7">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="6">
         <v>5</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -9829,8 +9826,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A407" s="8">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="7">
         <v>5</v>
       </c>
       <c r="B407" s="3" t="s">
@@ -9843,8 +9840,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A408" s="7">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="6">
         <v>5</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -9857,8 +9854,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A409" s="8">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="7">
         <v>5</v>
       </c>
       <c r="B409" s="3" t="s">
@@ -9871,8 +9868,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A410" s="7">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="6">
         <v>5</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -9885,8 +9882,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A411" s="8">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="7">
         <v>5</v>
       </c>
       <c r="B411" s="3" t="s">
@@ -9899,8 +9896,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A412" s="7">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="6">
         <v>5</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -9913,8 +9910,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A413" s="8">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="7">
         <v>5</v>
       </c>
       <c r="B413" s="3" t="s">
@@ -9927,8 +9924,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A414" s="7">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="6">
         <v>5</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -9941,8 +9938,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A415" s="8">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="7">
         <v>5</v>
       </c>
       <c r="B415" s="3" t="s">
@@ -9955,8 +9952,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A416" s="7">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="6">
         <v>5</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -9969,8 +9966,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A417" s="8">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="7">
         <v>5</v>
       </c>
       <c r="B417" s="3" t="s">
@@ -9983,8 +9980,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A418" s="7">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="6">
         <v>5</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -9997,8 +9994,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A419" s="8">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="7">
         <v>5</v>
       </c>
       <c r="B419" s="3" t="s">
@@ -10011,8 +10008,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A420" s="7">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="6">
         <v>5</v>
       </c>
       <c r="B420" s="2" t="s">
@@ -10025,8 +10022,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A421" s="8">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="7">
         <v>5</v>
       </c>
       <c r="B421" s="3" t="s">
@@ -10039,8 +10036,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A422" s="7">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="6">
         <v>5</v>
       </c>
       <c r="B422" s="2" t="s">
@@ -10053,8 +10050,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A423" s="8">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="7">
         <v>5</v>
       </c>
       <c r="B423" s="3" t="s">
@@ -10067,8 +10064,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A424" s="7">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="6">
         <v>5</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -10081,8 +10078,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A425" s="8">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="7">
         <v>5</v>
       </c>
       <c r="B425" s="3" t="s">
@@ -10095,8 +10092,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A426" s="7">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="6">
         <v>11</v>
       </c>
       <c r="B426" s="2" t="s">
@@ -10109,8 +10106,8 @@
         <v>902</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A427" s="8">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="7">
         <v>13</v>
       </c>
       <c r="B427" s="3" t="s">
@@ -10123,8 +10120,8 @@
         <v>764</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A428" s="7">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="6">
         <v>85</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -10137,8 +10134,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A429" s="8">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="7">
         <v>25</v>
       </c>
       <c r="B429" s="3" t="s">
@@ -10151,8 +10148,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A430" s="7">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="6">
         <v>5</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -10165,8 +10162,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A431" s="8">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="7">
         <v>35</v>
       </c>
       <c r="B431" s="3" t="s">
@@ -10179,8 +10176,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A432" s="7">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="6">
         <v>37</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -10193,8 +10190,8 @@
         <v>915</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A433" s="8">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="7">
         <v>31</v>
       </c>
       <c r="B433" s="3" t="s">
@@ -10207,8 +10204,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A434" s="7">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="6">
         <v>27</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -10221,8 +10218,8 @@
         <v>920</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A435" s="8">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="7">
         <v>5</v>
       </c>
       <c r="B435" s="3" t="s">
@@ -10235,8 +10232,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A436" s="7">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="6">
         <v>24</v>
       </c>
       <c r="B436" s="2" t="s">
@@ -10249,8 +10246,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A437" s="8">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="7">
         <v>32</v>
       </c>
       <c r="B437" s="3" t="s">
@@ -10263,8 +10260,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A438" s="7">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="6">
         <v>20</v>
       </c>
       <c r="B438" s="2" t="s">
@@ -10277,8 +10274,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A439" s="8">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="7">
         <v>8</v>
       </c>
       <c r="B439" s="3" t="s">
@@ -10291,8 +10288,8 @@
         <v>930</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A440" s="7">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="6">
         <v>22</v>
       </c>
       <c r="B440" s="2" t="s">
@@ -10305,8 +10302,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A441" s="8">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="7">
         <v>50</v>
       </c>
       <c r="B441" s="3" t="s">
@@ -10319,8 +10316,8 @@
         <v>935</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A442" s="7">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="6">
         <v>51</v>
       </c>
       <c r="B442" s="2" t="s">
@@ -10333,8 +10330,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A443" s="8">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="7">
         <v>59</v>
       </c>
       <c r="B443" s="3" t="s">
@@ -10347,8 +10344,8 @@
         <v>941</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A444" s="7">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="6">
         <v>59</v>
       </c>
       <c r="B444" s="2" t="s">
@@ -10361,8 +10358,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A445" s="8">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="7">
         <v>33</v>
       </c>
       <c r="B445" s="3" t="s">
@@ -10375,8 +10372,8 @@
         <v>946</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A446" s="7">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="6">
         <v>5</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -10389,8 +10386,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A447" s="8">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="7">
         <v>229</v>
       </c>
       <c r="B447" s="3" t="s">
@@ -10403,8 +10400,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A448" s="7">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="6">
         <v>236</v>
       </c>
       <c r="B448" s="2" t="s">
@@ -10417,8 +10414,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A449" s="8">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="7">
         <v>47</v>
       </c>
       <c r="B449" s="3" t="s">
@@ -10431,8 +10428,8 @@
         <v>955</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A450" s="7">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="6">
         <v>23</v>
       </c>
       <c r="B450" s="2" t="s">
@@ -10445,8 +10442,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A451" s="8">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="7">
         <v>26</v>
       </c>
       <c r="B451" s="3" t="s">
@@ -10459,8 +10456,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A452" s="7">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="6">
         <v>5</v>
       </c>
       <c r="B452" s="2" t="s">
@@ -10473,8 +10470,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A453" s="8">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="7">
         <v>1123</v>
       </c>
       <c r="B453" s="3" t="s">
@@ -10487,8 +10484,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A454" s="7">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="6">
         <v>5</v>
       </c>
       <c r="B454" s="2" t="s">
@@ -10501,8 +10498,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A455" s="8">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="7">
         <v>5</v>
       </c>
       <c r="B455" s="3" t="s">
@@ -10515,8 +10512,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A456" s="7">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="6">
         <v>5</v>
       </c>
       <c r="B456" s="2" t="s">
@@ -10529,8 +10526,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A457" s="8">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="7">
         <v>6</v>
       </c>
       <c r="B457" s="3" t="s">
@@ -10543,8 +10540,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A458" s="7">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="6">
         <v>6</v>
       </c>
       <c r="B458" s="2" t="s">
@@ -10557,8 +10554,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A459" s="8">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="7">
         <v>5</v>
       </c>
       <c r="B459" s="3" t="s">
@@ -10571,8 +10568,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A460" s="7">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="6">
         <v>6</v>
       </c>
       <c r="B460" s="2" t="s">
@@ -10585,8 +10582,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A461" s="8">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="7">
         <v>6</v>
       </c>
       <c r="B461" s="3" t="s">
@@ -10599,8 +10596,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A462" s="7">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="6">
         <v>6</v>
       </c>
       <c r="B462" s="2" t="s">
@@ -10613,8 +10610,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A463" s="8">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="7">
         <v>5</v>
       </c>
       <c r="B463" s="3" t="s">
@@ -10627,8 +10624,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A464" s="7">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="6">
         <v>5</v>
       </c>
       <c r="B464" s="2" t="s">
@@ -10641,8 +10638,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A465" s="8">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="7">
         <v>8</v>
       </c>
       <c r="B465" s="3" t="s">
@@ -10655,8 +10652,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A466" s="7">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="6">
         <v>7</v>
       </c>
       <c r="B466" s="2" t="s">
@@ -10669,8 +10666,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A467" s="8">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="7">
         <v>8</v>
       </c>
       <c r="B467" s="3" t="s">
@@ -10683,8 +10680,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A468" s="7">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="6">
         <v>9</v>
       </c>
       <c r="B468" s="2" t="s">
@@ -10697,8 +10694,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A469" s="8">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="7">
         <v>3</v>
       </c>
       <c r="B469" s="3" t="s">
@@ -10711,8 +10708,8 @@
         <v>981</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A470" s="7">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="6">
         <v>5</v>
       </c>
       <c r="B470" s="2" t="s">
@@ -10725,8 +10722,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A471" s="8">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="7">
         <v>5</v>
       </c>
       <c r="B471" s="3" t="s">
@@ -10739,8 +10736,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A472" s="7">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="6">
         <v>5</v>
       </c>
       <c r="B472" s="2" t="s">
@@ -10753,8 +10750,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A473" s="8">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="7">
         <v>5</v>
       </c>
       <c r="B473" s="3" t="s">
@@ -10767,8 +10764,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A474" s="7">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="6">
         <v>3</v>
       </c>
       <c r="B474" s="2" t="s">
@@ -10781,8 +10778,8 @@
         <v>981</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A475" s="8">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="7">
         <v>5</v>
       </c>
       <c r="B475" s="3" t="s">
@@ -10795,8 +10792,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A476" s="7">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="6">
         <v>8</v>
       </c>
       <c r="B476" s="2" t="s">
@@ -10809,8 +10806,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A477" s="8">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="7">
         <v>8</v>
       </c>
       <c r="B477" s="3" t="s">
@@ -10823,8 +10820,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A478" s="7">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="6">
         <v>16</v>
       </c>
       <c r="B478" s="2" t="s">
@@ -10837,8 +10834,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A479" s="8">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="7">
         <v>16</v>
       </c>
       <c r="B479" s="3" t="s">
@@ -10851,8 +10848,8 @@
         <v>915</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A480" s="7">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="6">
         <v>6</v>
       </c>
       <c r="B480" s="2" t="s">
@@ -10865,8 +10862,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A481" s="8">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="7">
         <v>6</v>
       </c>
       <c r="B481" s="3" t="s">
@@ -10879,8 +10876,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A482" s="7">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="6">
         <v>3</v>
       </c>
       <c r="B482" s="2" t="s">
@@ -10893,8 +10890,8 @@
         <v>981</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A483" s="8">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="7">
         <v>5</v>
       </c>
       <c r="B483" s="3" t="s">
@@ -10907,8 +10904,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A484" s="7">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="6">
         <v>5</v>
       </c>
       <c r="B484" s="2" t="s">
@@ -10921,8 +10918,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A485" s="8">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="7">
         <v>1</v>
       </c>
       <c r="B485" s="3" t="s">
@@ -10935,8 +10932,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A486" s="7">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="6">
         <v>1</v>
       </c>
       <c r="B486" s="2" t="s">
@@ -10949,8 +10946,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A487" s="8">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="7">
         <v>10</v>
       </c>
       <c r="B487" s="3" t="s">
@@ -10963,8 +10960,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A488" s="7">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="6">
         <v>5</v>
       </c>
       <c r="B488" s="2" t="s">
@@ -10977,8 +10974,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A489" s="8">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="7">
         <v>3</v>
       </c>
       <c r="B489" s="3" t="s">
@@ -10991,8 +10988,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A490" s="7">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="6">
         <v>5</v>
       </c>
       <c r="B490" s="2" t="s">
@@ -11005,8 +11002,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A491" s="8">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="7">
         <v>8</v>
       </c>
       <c r="B491" s="3" t="s">
@@ -11019,8 +11016,8 @@
         <v>920</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A492" s="7">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="6">
         <v>5</v>
       </c>
       <c r="B492" s="2" t="s">
@@ -11033,8 +11030,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A493" s="8">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="7">
         <v>3</v>
       </c>
       <c r="B493" s="3" t="s">
@@ -11047,8 +11044,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A494" s="7">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="6">
         <v>7</v>
       </c>
       <c r="B494" s="2" t="s">
@@ -11061,8 +11058,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A495" s="8">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="7">
         <v>16</v>
       </c>
       <c r="B495" s="3" t="s">
@@ -11075,8 +11072,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A496" s="7">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="6">
         <v>2</v>
       </c>
       <c r="B496" s="2" t="s">
@@ -11089,8 +11086,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A497" s="8">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="7">
         <v>2</v>
       </c>
       <c r="B497" s="3" t="s">
@@ -11103,8 +11100,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A498" s="7">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="6">
         <v>3</v>
       </c>
       <c r="B498" s="2" t="s">
@@ -11117,8 +11114,8 @@
         <v>930</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A499" s="8">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="7">
         <v>3</v>
       </c>
       <c r="B499" s="3" t="s">
@@ -11131,8 +11128,8 @@
         <v>930</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A500" s="7">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="6">
         <v>3</v>
       </c>
       <c r="B500" s="2" t="s">
@@ -11145,8 +11142,8 @@
         <v>930</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A501" s="8">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="7">
         <v>12</v>
       </c>
       <c r="B501" s="3" t="s">
@@ -11159,8 +11156,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A502" s="7">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" s="6">
         <v>2</v>
       </c>
       <c r="B502" s="2" t="s">
@@ -11173,8 +11170,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A503" s="8">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="7">
         <v>2</v>
       </c>
       <c r="B503" s="3" t="s">
@@ -11187,8 +11184,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A504" s="7">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="6">
         <v>10</v>
       </c>
       <c r="B504" s="2" t="s">
@@ -11201,8 +11198,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A505" s="8">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="7">
         <v>5</v>
       </c>
       <c r="B505" s="3" t="s">
@@ -11215,8 +11212,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A506" s="7">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="6">
         <v>5</v>
       </c>
       <c r="B506" s="2" t="s">
@@ -11229,8 +11226,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A507" s="8">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="7">
         <v>5</v>
       </c>
       <c r="B507" s="3" t="s">
@@ -11243,8 +11240,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A508" s="7">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="6">
         <v>5</v>
       </c>
       <c r="B508" s="2" t="s">
@@ -11257,8 +11254,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A509" s="8">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="7">
         <v>5</v>
       </c>
       <c r="B509" s="3" t="s">
@@ -11271,8 +11268,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A510" s="7">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="6">
         <v>22</v>
       </c>
       <c r="B510" s="2" t="s">
@@ -11285,8 +11282,8 @@
         <v>935</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A511" s="8">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="7">
         <v>21</v>
       </c>
       <c r="B511" s="3" t="s">
@@ -11299,8 +11296,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A512" s="7">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" s="6">
         <v>27</v>
       </c>
       <c r="B512" s="2" t="s">
@@ -11313,8 +11310,8 @@
         <v>941</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A513" s="8">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" s="7">
         <v>5</v>
       </c>
       <c r="B513" s="3" t="s">
@@ -11327,8 +11324,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A514" s="7">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="6">
         <v>5</v>
       </c>
       <c r="B514" s="2" t="s">
@@ -11341,8 +11338,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A515" s="8">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="7">
         <v>5</v>
       </c>
       <c r="B515" s="3" t="s">
@@ -11355,8 +11352,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A516" s="7">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="6">
         <v>16</v>
       </c>
       <c r="B516" s="2" t="s">
@@ -11369,8 +11366,8 @@
         <v>946</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A517" s="8">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="7">
         <v>3</v>
       </c>
       <c r="B517" s="3" t="s">
@@ -11383,8 +11380,8 @@
         <v>946</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A518" s="7">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="6">
         <v>3</v>
       </c>
       <c r="B518" s="2" t="s">
@@ -11397,8 +11394,8 @@
         <v>946</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A519" s="8">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="7">
         <v>27</v>
       </c>
       <c r="B519" s="3" t="s">
@@ -11411,8 +11408,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A520" s="7">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="6">
         <v>4</v>
       </c>
       <c r="B520" s="2" t="s">
@@ -11425,8 +11422,8 @@
         <v>635</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A521" s="8">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="7">
         <v>1</v>
       </c>
       <c r="B521" s="3" t="s">
@@ -11439,8 +11436,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A522" s="7">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="6">
         <v>1</v>
       </c>
       <c r="B522" s="2" t="s">
@@ -11453,8 +11450,8 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A523" s="8">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" s="7">
         <v>94</v>
       </c>
       <c r="B523" s="3" t="s">
@@ -11467,8 +11464,8 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A524" s="7">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="6">
         <v>39</v>
       </c>
       <c r="B524" s="2" t="s">
@@ -11481,8 +11478,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A525" s="8">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="7">
         <v>9</v>
       </c>
       <c r="B525" s="3" t="s">
@@ -11495,8 +11492,8 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A526" s="7">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="6">
         <v>3</v>
       </c>
       <c r="B526" s="2" t="s">
@@ -11509,8 +11506,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A527" s="8">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" s="7">
         <v>3</v>
       </c>
       <c r="B527" s="3" t="s">
@@ -11523,8 +11520,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A528" s="7">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" s="6">
         <v>55</v>
       </c>
       <c r="B528" s="2" t="s">
@@ -11537,8 +11534,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A529" s="8">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" s="7">
         <v>5</v>
       </c>
       <c r="B529" s="3" t="s">
@@ -11551,8 +11548,8 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A530" s="7">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" s="6">
         <v>14</v>
       </c>
       <c r="B530" s="2" t="s">
@@ -11565,8 +11562,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A531" s="8">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531" s="7">
         <v>22</v>
       </c>
       <c r="B531" s="3" t="s">
@@ -11579,8 +11576,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A532" s="7">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532" s="6">
         <v>5</v>
       </c>
       <c r="B532" s="2" t="s">
@@ -11593,8 +11590,8 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A533" s="8">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" s="7">
         <v>5</v>
       </c>
       <c r="B533" s="3" t="s">
@@ -11607,8 +11604,8 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A534" s="7">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" s="6">
         <v>5</v>
       </c>
       <c r="B534" s="2" t="s">
@@ -11621,8 +11618,8 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A535" s="8">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" s="7">
         <v>5</v>
       </c>
       <c r="B535" s="3" t="s">
@@ -11635,8 +11632,8 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A536" s="7">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" s="6">
         <v>5</v>
       </c>
       <c r="B536" s="2" t="s">
@@ -11649,8 +11646,8 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A537" s="8">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537" s="7">
         <v>4</v>
       </c>
       <c r="B537" s="3" t="s">
@@ -11663,8 +11660,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A538" s="7">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" s="6">
         <v>4</v>
       </c>
       <c r="B538" s="2" t="s">
@@ -11677,8 +11674,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A539" s="8">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" s="7">
         <v>3</v>
       </c>
       <c r="B539" s="3" t="s">
@@ -11691,8 +11688,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A540" s="7">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" s="6">
         <v>3</v>
       </c>
       <c r="B540" s="2" t="s">
@@ -11705,8 +11702,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A541" s="8">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541" s="7">
         <v>5</v>
       </c>
       <c r="B541" s="3" t="s">
@@ -11719,8 +11716,8 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A542" s="7">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542" s="6">
         <v>5</v>
       </c>
       <c r="B542" s="2" t="s">
@@ -11733,8 +11730,8 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A543" s="8">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543" s="7">
         <v>5</v>
       </c>
       <c r="B543" s="3" t="s">
@@ -11747,8 +11744,8 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A544" s="7">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544" s="6">
         <v>5</v>
       </c>
       <c r="B544" s="2" t="s">
@@ -11761,8 +11758,8 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A545" s="8">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" s="7">
         <v>4</v>
       </c>
       <c r="B545" s="3" t="s">
@@ -11775,8 +11772,8 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A546" s="7">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" s="6">
         <v>4</v>
       </c>
       <c r="B546" s="2" t="s">
@@ -11789,8 +11786,8 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A547" s="8">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" s="7">
         <v>3</v>
       </c>
       <c r="B547" s="3" t="s">
@@ -11803,8 +11800,8 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A548" s="7">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" s="6">
         <v>3</v>
       </c>
       <c r="B548" s="2" t="s">
@@ -11817,8 +11814,8 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A549" s="8">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" s="7">
         <v>5</v>
       </c>
       <c r="B549" s="3" t="s">
@@ -11831,8 +11828,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A550" s="7">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" s="6">
         <v>5</v>
       </c>
       <c r="B550" s="2" t="s">
@@ -11845,8 +11842,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A551" s="8">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" s="7">
         <v>5</v>
       </c>
       <c r="B551" s="3" t="s">
@@ -11859,8 +11856,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A552" s="7">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" s="6">
         <v>5</v>
       </c>
       <c r="B552" s="2" t="s">
@@ -11873,8 +11870,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A553" s="8">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" s="7">
         <v>5</v>
       </c>
       <c r="B553" s="3" t="s">
@@ -11887,8 +11884,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A554" s="7">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" s="6">
         <v>5</v>
       </c>
       <c r="B554" s="2" t="s">
@@ -11901,8 +11898,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A555" s="8">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" s="7">
         <v>5</v>
       </c>
       <c r="B555" s="3" t="s">
@@ -11915,8 +11912,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A556" s="7">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" s="6">
         <v>5</v>
       </c>
       <c r="B556" s="2" t="s">
@@ -11929,8 +11926,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A557" s="8">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" s="7">
         <v>5</v>
       </c>
       <c r="B557" s="3" t="s">
@@ -11943,8 +11940,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A558" s="7">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" s="6">
         <v>5</v>
       </c>
       <c r="B558" s="2" t="s">
@@ -11957,8 +11954,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A559" s="8">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" s="7">
         <v>5</v>
       </c>
       <c r="B559" s="3" t="s">
@@ -11971,8 +11968,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A560" s="7">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" s="6">
         <v>22</v>
       </c>
       <c r="B560" s="2" t="s">
@@ -11985,8 +11982,8 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A561" s="8">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" s="7">
         <v>9</v>
       </c>
       <c r="B561" s="3" t="s">
@@ -11999,8 +11996,8 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A562" s="7">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" s="6">
         <v>7</v>
       </c>
       <c r="B562" s="2" t="s">
@@ -12013,8 +12010,8 @@
         <v>788</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A563" s="8">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" s="7">
         <v>8</v>
       </c>
       <c r="B563" s="3" t="s">
@@ -12027,8 +12024,8 @@
         <v>788</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A564" s="7">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" s="6">
         <v>5</v>
       </c>
       <c r="B564" s="2" t="s">
@@ -12041,8 +12038,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A565" s="8">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" s="7">
         <v>2</v>
       </c>
       <c r="B565" s="3" t="s">
@@ -12055,8 +12052,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A566" s="7">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" s="6">
         <v>2</v>
       </c>
       <c r="B566" s="2" t="s">
@@ -12069,8 +12066,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A567" s="8">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" s="7">
         <v>171</v>
       </c>
       <c r="B567" s="3" t="s">
@@ -12083,8 +12080,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A568" s="7">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" s="6">
         <v>50</v>
       </c>
       <c r="B568" s="2" t="s">
@@ -12097,8 +12094,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A569" s="8">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" s="7">
         <v>5</v>
       </c>
       <c r="B569" s="3" t="s">
@@ -12111,8 +12108,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A570" s="7">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" s="6">
         <v>12</v>
       </c>
       <c r="B570" s="2" t="s">
@@ -12125,8 +12122,8 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A571" s="8">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" s="7">
         <v>95</v>
       </c>
       <c r="B571" s="3" t="s">
@@ -12139,8 +12136,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A572" s="7">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" s="6">
         <v>6</v>
       </c>
       <c r="B572" s="2" t="s">
@@ -12153,8 +12150,8 @@
         <v>648</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A573" s="8">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" s="7">
         <v>6</v>
       </c>
       <c r="B573" s="3" t="s">
@@ -12167,8 +12164,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A574" s="7">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" s="6">
         <v>11</v>
       </c>
       <c r="B574" s="2" t="s">
@@ -12181,8 +12178,8 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A575" s="8">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" s="7">
         <v>6</v>
       </c>
       <c r="B575" s="3" t="s">
@@ -12195,8 +12192,8 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A576" s="7">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576" s="6">
         <v>5</v>
       </c>
       <c r="B576" s="2" t="s">
@@ -12209,8 +12206,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A577" s="8">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577" s="7">
         <v>8</v>
       </c>
       <c r="B577" s="3" t="s">
@@ -12223,8 +12220,8 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A578" s="7">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" s="6">
         <v>23</v>
       </c>
       <c r="B578" s="2" t="s">
@@ -12237,8 +12234,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A579" s="8">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579" s="7">
         <v>23</v>
       </c>
       <c r="B579" s="3" t="s">
@@ -12251,8 +12248,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A580" s="7">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" s="6">
         <v>23</v>
       </c>
       <c r="B580" s="2" t="s">
@@ -12265,8 +12262,8 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A581" s="8">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" s="7">
         <v>1</v>
       </c>
       <c r="B581" s="3" t="s">
@@ -12279,8 +12276,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A582" s="7">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" s="6">
         <v>1</v>
       </c>
       <c r="B582" s="2" t="s">
@@ -12293,8 +12290,8 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A583" s="8">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583" s="7">
         <v>1</v>
       </c>
       <c r="B583" s="3" t="s">
@@ -12307,8 +12304,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A584" s="7">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584" s="6">
         <v>1</v>
       </c>
       <c r="B584" s="2" t="s">
@@ -12321,8 +12318,8 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A585" s="8">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585" s="7">
         <v>16</v>
       </c>
       <c r="B585" s="3" t="s">
@@ -12335,8 +12332,8 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A586" s="7">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586" s="6">
         <v>243</v>
       </c>
       <c r="B586" s="2" t="s">
@@ -12349,8 +12346,8 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A587" s="8">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587" s="7">
         <v>1</v>
       </c>
       <c r="B587" s="3" t="s">
@@ -12363,8 +12360,8 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A588" s="7">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588" s="6">
         <v>1</v>
       </c>
       <c r="B588" s="2" t="s">
@@ -12377,8 +12374,8 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A589" s="8">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589" s="7">
         <v>6</v>
       </c>
       <c r="B589" s="3" t="s">
@@ -12391,8 +12388,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A590" s="7">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590" s="6">
         <v>1</v>
       </c>
       <c r="B590" s="2" t="s">
@@ -12405,8 +12402,8 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A591" s="8">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591" s="7">
         <v>2</v>
       </c>
       <c r="B591" s="3" t="s">
@@ -12419,8 +12416,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A592" s="7">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592" s="6">
         <v>2</v>
       </c>
       <c r="B592" s="2" t="s">
@@ -12433,8 +12430,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A593" s="8">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593" s="7">
         <v>2</v>
       </c>
       <c r="B593" s="3" t="s">
@@ -12447,8 +12444,8 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A594" s="7">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594" s="6">
         <v>2</v>
       </c>
       <c r="B594" s="2" t="s">
@@ -12461,8 +12458,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A595" s="8">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" s="7">
         <v>2</v>
       </c>
       <c r="B595" s="3" t="s">
@@ -12475,8 +12472,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A596" s="7">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" s="6">
         <v>2</v>
       </c>
       <c r="B596" s="2" t="s">
@@ -12489,8 +12486,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A597" s="8">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597" s="7">
         <v>2</v>
       </c>
       <c r="B597" s="3" t="s">
@@ -12503,8 +12500,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A598" s="7">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598" s="6">
         <v>2</v>
       </c>
       <c r="B598" s="2" t="s">
@@ -12517,8 +12514,8 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A599" s="8">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599" s="7">
         <v>2</v>
       </c>
       <c r="B599" s="3" t="s">
@@ -12531,8 +12528,8 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A600" s="7">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600" s="6">
         <v>2</v>
       </c>
       <c r="B600" s="2" t="s">
@@ -12545,8 +12542,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A601" s="8">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601" s="7">
         <v>2</v>
       </c>
       <c r="B601" s="3" t="s">
@@ -12559,8 +12556,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A602" s="7">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602" s="6">
         <v>2</v>
       </c>
       <c r="B602" s="2" t="s">
@@ -12573,8 +12570,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A603" s="8">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603" s="7">
         <v>2</v>
       </c>
       <c r="B603" s="3" t="s">
@@ -12587,8 +12584,8 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A604" s="7">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604" s="6">
         <v>2</v>
       </c>
       <c r="B604" s="2" t="s">
@@ -12601,8 +12598,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A605" s="8">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605" s="7">
         <v>2</v>
       </c>
       <c r="B605" s="3" t="s">
@@ -12615,8 +12612,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A606" s="7">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606" s="6">
         <v>2</v>
       </c>
       <c r="B606" s="2" t="s">
@@ -12629,8 +12626,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A607" s="8">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607" s="7">
         <v>6</v>
       </c>
       <c r="B607" s="3" t="s">
@@ -12643,8 +12640,8 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A608" s="7">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608" s="6">
         <v>2</v>
       </c>
       <c r="B608" s="2" t="s">
@@ -12657,8 +12654,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A609" s="8">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609" s="7">
         <v>2</v>
       </c>
       <c r="B609" s="3" t="s">
@@ -12671,8 +12668,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A610" s="7">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610" s="6">
         <v>2</v>
       </c>
       <c r="B610" s="2" t="s">
@@ -12685,8 +12682,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A611" s="8">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611" s="7">
         <v>2</v>
       </c>
       <c r="B611" s="3" t="s">
@@ -12699,8 +12696,8 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A612" s="7">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612" s="6">
         <v>2</v>
       </c>
       <c r="B612" s="2" t="s">
@@ -12713,8 +12710,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A613" s="8">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613" s="7">
         <v>2</v>
       </c>
       <c r="B613" s="3" t="s">
@@ -12727,8 +12724,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A614" s="7">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614" s="6">
         <v>2</v>
       </c>
       <c r="B614" s="2" t="s">
@@ -12741,8 +12738,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A615" s="8">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615" s="7">
         <v>2</v>
       </c>
       <c r="B615" s="3" t="s">
@@ -12755,8 +12752,8 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A616" s="7">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616" s="6">
         <v>2</v>
       </c>
       <c r="B616" s="2" t="s">
@@ -12769,8 +12766,8 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A617" s="8">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A617" s="7">
         <v>2</v>
       </c>
       <c r="B617" s="3" t="s">
@@ -12783,8 +12780,8 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A618" s="7">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A618" s="6">
         <v>2</v>
       </c>
       <c r="B618" s="2" t="s">
@@ -12797,8 +12794,8 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A619" s="8">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619" s="7">
         <v>2</v>
       </c>
       <c r="B619" s="3" t="s">
@@ -12811,8 +12808,8 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A620" s="7">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620" s="6">
         <v>6</v>
       </c>
       <c r="B620" s="2" t="s">
@@ -12825,8 +12822,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A621" s="8">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621" s="7">
         <v>2</v>
       </c>
       <c r="B621" s="3" t="s">
@@ -12839,8 +12836,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A622" s="7">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622" s="6">
         <v>2</v>
       </c>
       <c r="B622" s="2" t="s">
@@ -12853,8 +12850,8 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A623" s="8">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623" s="7">
         <v>2</v>
       </c>
       <c r="B623" s="3" t="s">
@@ -12867,8 +12864,8 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A624" s="7">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624" s="6">
         <v>2</v>
       </c>
       <c r="B624" s="2" t="s">
@@ -12881,8 +12878,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A625" s="8">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A625" s="7">
         <v>3</v>
       </c>
       <c r="B625" s="3" t="s">
@@ -12895,8 +12892,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A626" s="7">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626" s="6">
         <v>18</v>
       </c>
       <c r="B626" s="2" t="s">
@@ -12909,8 +12906,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A627" s="8">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627" s="7">
         <v>18</v>
       </c>
       <c r="B627" s="3" t="s">
@@ -12923,8 +12920,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A628" s="7">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628" s="6">
         <v>18</v>
       </c>
       <c r="B628" s="2" t="s">
@@ -12937,8 +12934,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A629" s="8">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629" s="7">
         <v>2</v>
       </c>
       <c r="B629" s="3" t="s">
@@ -12951,8 +12948,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A630" s="7">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630" s="6">
         <v>2</v>
       </c>
       <c r="B630" s="2" t="s">
@@ -12965,8 +12962,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A631" s="8">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631" s="7">
         <v>3</v>
       </c>
       <c r="B631" s="3" t="s">
@@ -12979,8 +12976,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A632" s="7">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632" s="6">
         <v>3</v>
       </c>
       <c r="B632" s="2" t="s">
@@ -12993,8 +12990,6 @@
         <v>193</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="634" spans="1:4" ht="13.8" x14ac:dyDescent="0.3"/>
     <row r="635" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -4155,7 +4155,7 @@
   <dimension ref="A1:C645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A643" sqref="A643:E643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1268">
   <si>
     <t/>
   </si>
@@ -789,9 +789,6 @@
     <t>M-30 Diluent Reagent 3-part 20L Hematology Mindray</t>
   </si>
   <si>
-    <t>2025022555</t>
-  </si>
-  <si>
     <t>2025030253</t>
   </si>
   <si>
@@ -1104,6 +1101,9 @@
     <t>24/08/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>جهاز سنترفيوج صيني</t>
+  </si>
+  <si>
     <t>Aqappe 30ml Nano Detergent</t>
   </si>
   <si>
@@ -1197,6 +1197,9 @@
     <t>12/01/2028 12:00:00 ص</t>
   </si>
   <si>
+    <t>مايكرو سنترفيوج</t>
+  </si>
+  <si>
     <t>حديدة فيتامين دي</t>
   </si>
   <si>
@@ -2079,9 +2082,6 @@
     <t>32411271</t>
   </si>
   <si>
-    <t>32412053</t>
-  </si>
-  <si>
     <t>Iron kit 100T Agappe</t>
   </si>
   <si>
@@ -2154,12 +2154,6 @@
     <t>32503303</t>
   </si>
   <si>
-    <t>Ferritin Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>32411307</t>
-  </si>
-  <si>
     <t>HbA1c Kit 30T Mispa i3</t>
   </si>
   <si>
@@ -3057,12 +3051,6 @@
     <t>Bos d 5 beta lactoglobulin, Milk(F77) BioCLIA Allergy kit 50 T HOB</t>
   </si>
   <si>
-    <t>20240403</t>
-  </si>
-  <si>
-    <t>03/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
     <t>Sm IgG Calibrator Set BioCLIA HOB</t>
   </si>
   <si>
@@ -3826,21 +3814,6 @@
   </si>
   <si>
     <t>Kappa/Lambda Free Light Chain Level 2(1 ml ) Mispa i3</t>
-  </si>
-  <si>
-    <t>Kappa Free light Chain Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32506437</t>
-  </si>
-  <si>
-    <t>31/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Lambda Free Light Chain Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32506436</t>
   </si>
   <si>
     <t>Hemochroma PLUS Calibrator</t>
@@ -4203,16 +4176,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C658"/>
+  <dimension ref="A1:C652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A656" sqref="A656:E656"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="3" width="30" customWidth="1"/>
+    <col min="1" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5543,40 +5515,40 @@
         <v>256</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5584,32 +5556,32 @@
         <v>264</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C127" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5617,32 +5589,32 @@
         <v>270</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5650,21 +5622,21 @@
         <v>276</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>279</v>
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5694,109 +5666,109 @@
         <v>282</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>0</v>
+        <v>283</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>297</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>144</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>307</v>
+        <v>0</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5804,65 +5776,65 @@
         <v>308</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>316</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>149</v>
+        <v>319</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5870,109 +5842,109 @@
         <v>321</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>0</v>
+        <v>322</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>336</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>345</v>
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6013,18 +5985,18 @@
         <v>349</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>154</v>
@@ -6035,10 +6007,10 @@
         <v>352</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6046,21 +6018,21 @@
         <v>353</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>0</v>
+        <v>354</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>356</v>
+        <v>0</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6068,21 +6040,21 @@
         <v>357</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>0</v>
+        <v>358</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>360</v>
+        <v>0</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6126,7 +6098,7 @@
         <v>367</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6200,10 +6172,10 @@
         <v>376</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6225,7 +6197,7 @@
         <v>380</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6236,7 +6208,7 @@
         <v>382</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6288,117 +6260,117 @@
         <v>393</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>395</v>
+        <v>0</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="C192" s="4" t="s">
-        <v>275</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="C193" s="5" t="s">
-        <v>404</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="C195" s="5" t="s">
-        <v>409</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="C198" s="4" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>53</v>
@@ -6406,332 +6378,332 @@
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="C200" s="4" t="s">
-        <v>418</v>
+        <v>53</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>360</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>438</v>
+        <v>359</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C211" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>297</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>456</v>
+        <v>296</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="C222" s="4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C225" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6739,54 +6711,54 @@
         <v>473</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>475</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C231" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C233" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="C234" s="4" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6794,65 +6766,65 @@
         <v>482</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6860,10 +6832,10 @@
         <v>494</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>471</v>
+        <v>344</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6871,40 +6843,40 @@
         <v>495</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C244" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>502</v>
@@ -6912,10 +6884,10 @@
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>503</v>
@@ -6923,35 +6895,35 @@
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C247" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C249" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6959,10 +6931,10 @@
         <v>511</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6970,65 +6942,65 @@
         <v>512</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>513</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>10</v>
+        <v>514</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>515</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>517</v>
+        <v>332</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7036,54 +7008,54 @@
         <v>519</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>520</v>
+        <v>409</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>521</v>
+        <v>197</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C259" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7091,65 +7063,65 @@
         <v>529</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>532</v>
-      </c>
       <c r="C263" s="5" t="s">
-        <v>533</v>
+        <v>167</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C264" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B265" s="3" t="s">
-        <v>536</v>
-      </c>
       <c r="C265" s="5" t="s">
-        <v>537</v>
+        <v>69</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>536</v>
-      </c>
       <c r="C267" s="5" t="s">
-        <v>537</v>
+        <v>303</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7157,21 +7129,21 @@
         <v>540</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7179,43 +7151,43 @@
         <v>543</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>544</v>
+        <v>35</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="C272" s="4" t="s">
-        <v>548</v>
+        <v>433</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C273" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7223,32 +7195,32 @@
         <v>550</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7256,43 +7228,43 @@
         <v>557</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C278" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C279" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7300,32 +7272,32 @@
         <v>565</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>566</v>
+        <v>451</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>567</v>
+        <v>468</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C282" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C283" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7333,21 +7305,21 @@
         <v>571</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>413</v>
+        <v>547</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>572</v>
+        <v>457</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C285" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7355,70 +7327,70 @@
         <v>574</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>575</v>
+        <v>414</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C287" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C288" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>581</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>582</v>
+        <v>268</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B291" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="C291" s="5" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>586</v>
@@ -7429,145 +7401,145 @@
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>587</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>588</v>
+        <v>217</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C295" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="C298" s="4" t="s">
-        <v>601</v>
+        <v>398</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C299" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="C300" s="4" t="s">
-        <v>604</v>
+        <v>398</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C302" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C303" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="C304" s="4" t="s">
-        <v>613</v>
+        <v>69</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C305" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7575,18 +7547,18 @@
         <v>615</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>616</v>
+        <v>177</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>612</v>
+        <v>424</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>617</v>
@@ -7594,57 +7566,57 @@
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C309" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>413</v>
+        <v>622</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>623</v>
+        <v>414</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="C312" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7652,10 +7624,10 @@
         <v>625</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>0</v>
+        <v>624</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7663,98 +7635,98 @@
         <v>626</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>628</v>
+        <v>0</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C315" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C316" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B317" s="3" t="s">
-        <v>635</v>
-      </c>
       <c r="C317" s="5" t="s">
-        <v>636</v>
+        <v>154</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C318" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C319" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>621</v>
+        <v>424</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>469</v>
+        <v>644</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>434</v>
+        <v>622</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>552</v>
+        <v>470</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7762,70 +7734,70 @@
         <v>645</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C324" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C325" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="C326" s="4" t="s">
-        <v>654</v>
+        <v>154</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C327" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C328" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>659</v>
@@ -7836,13 +7808,13 @@
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>0</v>
+      <c r="C330" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7850,65 +7822,65 @@
         <v>661</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>663</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>664</v>
+        <v>82</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C333" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="C334" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>332</v>
+        <v>668</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>333</v>
+        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7916,32 +7888,32 @@
         <v>670</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>671</v>
+        <v>312</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C338" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C339" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7949,18 +7921,18 @@
         <v>675</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>676</v>
+        <v>226</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>677</v>
@@ -7968,35 +7940,35 @@
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C342" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C342" s="4" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C343" s="5" t="s">
         <v>680</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C344" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8004,10 +7976,10 @@
         <v>683</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8015,15 +7987,15 @@
         <v>684</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>685</v>
+        <v>475</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>174</v>
+        <v>644</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>686</v>
@@ -8051,7 +8023,7 @@
         <v>690</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8073,7 +8045,7 @@
         <v>695</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8150,7 +8122,7 @@
         <v>710</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8161,29 +8133,29 @@
         <v>712</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>558</v>
+        <v>713</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>714</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>715</v>
+        <v>130</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>716</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8194,29 +8166,29 @@
         <v>718</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>340</v>
+        <v>51</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B363" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="C363" s="5" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>721</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>217</v>
+        <v>568</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8227,7 +8199,7 @@
         <v>723</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>567</v>
+        <v>167</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8235,7 +8207,7 @@
         <v>724</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>167</v>
@@ -8243,13 +8215,13 @@
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B367" s="3" t="s">
-        <v>725</v>
-      </c>
       <c r="C367" s="5" t="s">
-        <v>167</v>
+        <v>657</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8260,73 +8232,73 @@
         <v>728</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>656</v>
+        <v>729</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>730</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>731</v>
+        <v>359</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C370" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>741</v>
+        <v>174</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8337,62 +8309,62 @@
         <v>743</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>174</v>
+        <v>744</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>758</v>
+        <v>174</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8403,23 +8375,23 @@
         <v>760</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>174</v>
+        <v>761</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>765</v>
@@ -8430,29 +8402,29 @@
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>773</v>
@@ -8463,7 +8435,7 @@
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>775</v>
@@ -8474,35 +8446,35 @@
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>784</v>
+        <v>559</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8513,56 +8485,56 @@
         <v>786</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>558</v>
+        <v>787</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>789</v>
+        <v>559</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B393" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="C393" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="C393" s="5" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>798</v>
@@ -8573,13 +8545,13 @@
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8590,18 +8562,18 @@
         <v>803</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>806</v>
+        <v>239</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8612,73 +8584,73 @@
         <v>808</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B401" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B401" s="3" t="s">
-        <v>810</v>
-      </c>
       <c r="C401" s="5" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>811</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B403" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="B403" s="3" t="s">
-        <v>813</v>
-      </c>
       <c r="C403" s="5" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>814</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>106</v>
+        <v>815</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>820</v>
+        <v>534</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8689,7 +8661,7 @@
         <v>822</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8700,7 +8672,7 @@
         <v>824</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8711,18 +8683,18 @@
         <v>826</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>533</v>
+        <v>827</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>829</v>
+        <v>28</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8733,7 +8705,7 @@
         <v>831</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8744,7 +8716,7 @@
         <v>833</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>55</v>
+        <v>518</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8755,7 +8727,7 @@
         <v>835</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8766,7 +8738,7 @@
         <v>837</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8777,7 +8749,7 @@
         <v>839</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>533</v>
+        <v>274</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8788,7 +8760,7 @@
         <v>841</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>275</v>
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8799,23 +8771,23 @@
         <v>843</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>471</v>
+        <v>844</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>846</v>
+        <v>0</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>0</v>
@@ -8826,7 +8798,7 @@
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>0</v>
@@ -8837,13 +8809,13 @@
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B421" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="B421" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>0</v>
+      <c r="C421" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8854,62 +8826,62 @@
         <v>851</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>10</v>
+        <v>852</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>860</v>
+        <v>545</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B426" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>862</v>
-      </c>
       <c r="C426" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>863</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>544</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8920,7 +8892,7 @@
         <v>865</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8928,15 +8900,15 @@
         <v>866</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="C429" s="5" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>0</v>
@@ -8947,7 +8919,7 @@
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>0</v>
@@ -8958,13 +8930,13 @@
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B432" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>0</v>
+      <c r="C432" s="4" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8975,7 +8947,7 @@
         <v>872</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8986,18 +8958,18 @@
         <v>874</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>668</v>
+        <v>875</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>877</v>
+        <v>556</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9008,7 +8980,7 @@
         <v>879</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9019,18 +8991,18 @@
         <v>881</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>555</v>
+        <v>882</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>884</v>
+        <v>852</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9041,7 +9013,7 @@
         <v>886</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>854</v>
+        <v>486</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9052,7 +9024,7 @@
         <v>888</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9063,7 +9035,7 @@
         <v>890</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9074,7 +9046,7 @@
         <v>892</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9085,7 +9057,7 @@
         <v>894</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9096,7 +9068,7 @@
         <v>896</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9107,7 +9079,7 @@
         <v>898</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9118,7 +9090,7 @@
         <v>900</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9129,7 +9101,7 @@
         <v>902</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9140,7 +9112,7 @@
         <v>904</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9151,7 +9123,7 @@
         <v>906</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9162,7 +9134,7 @@
         <v>908</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9173,7 +9145,7 @@
         <v>910</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9184,7 +9156,7 @@
         <v>912</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9195,7 +9167,7 @@
         <v>914</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9206,7 +9178,7 @@
         <v>916</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9217,7 +9189,7 @@
         <v>918</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9228,7 +9200,7 @@
         <v>920</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9239,7 +9211,7 @@
         <v>922</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9250,7 +9222,7 @@
         <v>924</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9261,7 +9233,7 @@
         <v>926</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9272,7 +9244,7 @@
         <v>928</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9283,7 +9255,7 @@
         <v>930</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9294,7 +9266,7 @@
         <v>932</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9305,7 +9277,7 @@
         <v>934</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9316,7 +9288,7 @@
         <v>936</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9327,7 +9299,7 @@
         <v>938</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9338,7 +9310,7 @@
         <v>940</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9349,7 +9321,7 @@
         <v>942</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9360,18 +9332,18 @@
         <v>944</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>485</v>
+        <v>945</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>947</v>
+        <v>818</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9382,18 +9354,18 @@
         <v>949</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>820</v>
+        <v>950</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>952</v>
+        <v>559</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9404,7 +9376,7 @@
         <v>954</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>558</v>
+        <v>332</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9415,7 +9387,7 @@
         <v>956</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>333</v>
+        <v>629</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9426,18 +9398,18 @@
         <v>958</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>628</v>
+        <v>959</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>961</v>
+        <v>559</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9445,21 +9417,21 @@
         <v>962</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B477" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="B477" s="3" t="s">
-        <v>963</v>
-      </c>
       <c r="C477" s="5" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9470,40 +9442,40 @@
         <v>966</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>606</v>
+        <v>967</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>975</v>
+        <v>235</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9514,18 +9486,18 @@
         <v>977</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>235</v>
+        <v>978</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>980</v>
+        <v>556</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9536,7 +9508,7 @@
         <v>982</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>555</v>
+        <v>235</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9547,23 +9519,23 @@
         <v>984</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>235</v>
+        <v>985</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="C486" s="4" t="s">
-        <v>987</v>
+        <v>0</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>0</v>
@@ -9574,7 +9546,7 @@
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>0</v>
@@ -9585,7 +9557,7 @@
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>0</v>
@@ -9596,189 +9568,189 @@
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>0</v>
+      <c r="C490" s="4" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C491" s="5" t="s">
         <v>992</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="C491" s="5" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B492" s="1" t="s">
-        <v>993</v>
-      </c>
       <c r="C492" s="4" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>993</v>
+        <v>952</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>994</v>
+        <v>559</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>954</v>
+        <v>995</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>558</v>
+        <v>996</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1012</v>
+        <v>954</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1013</v>
+        <v>332</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9786,98 +9758,98 @@
         <v>1011</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>997</v>
+        <v>954</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>998</v>
+        <v>332</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>956</v>
+        <v>995</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>333</v>
+        <v>996</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>956</v>
+        <v>991</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>333</v>
+        <v>992</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B514" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B514" s="1" t="s">
-        <v>993</v>
-      </c>
       <c r="C514" s="4" t="s">
-        <v>994</v>
+        <v>454</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9885,10 +9857,10 @@
         <v>1020</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>997</v>
+        <v>956</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>998</v>
+        <v>629</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9896,10 +9868,10 @@
         <v>1021</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9907,21 +9879,21 @@
         <v>1022</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>453</v>
+        <v>996</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9932,7 +9904,7 @@
         <v>958</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>628</v>
+        <v>959</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9940,10 +9912,10 @@
         <v>1025</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9951,10 +9923,10 @@
         <v>1026</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9962,10 +9934,10 @@
         <v>1027</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>998</v>
+        <v>607</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9973,10 +9945,10 @@
         <v>1028</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>961</v>
+        <v>607</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9984,10 +9956,10 @@
         <v>1029</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="C525" s="5" t="s">
-        <v>998</v>
+        <v>607</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9995,10 +9967,10 @@
         <v>1030</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>997</v>
+        <v>961</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>998</v>
+        <v>559</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10006,10 +9978,10 @@
         <v>1031</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10017,10 +9989,10 @@
         <v>1032</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10028,10 +10000,10 @@
         <v>1033</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10039,10 +10011,10 @@
         <v>1034</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10050,10 +10022,10 @@
         <v>1035</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C531" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10061,10 +10033,10 @@
         <v>1036</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>558</v>
+        <v>967</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10072,10 +10044,10 @@
         <v>1037</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>558</v>
+        <v>970</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10083,10 +10055,10 @@
         <v>1038</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>558</v>
+        <v>973</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10094,10 +10066,10 @@
         <v>1039</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>558</v>
+        <v>978</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10105,439 +10077,439 @@
         <v>1040</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>968</v>
+        <v>1041</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B537" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="B537" s="3" t="s">
-        <v>971</v>
-      </c>
       <c r="C537" s="5" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>975</v>
+        <v>235</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>979</v>
+        <v>1045</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>980</v>
+        <v>682</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C540" s="4" t="s">
-        <v>980</v>
+        <v>0</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C541" s="5" t="s">
-        <v>980</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>977</v>
+        <v>1051</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>235</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1049</v>
+        <v>499</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>0</v>
+        <v>424</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1052</v>
+        <v>418</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1055</v>
+        <v>418</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>498</v>
+        <v>1060</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>631</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>423</v>
+        <v>1062</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>1059</v>
+        <v>231</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C549" s="5" t="s">
-        <v>1061</v>
+        <v>0</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1064</v>
+        <v>506</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>1065</v>
+        <v>177</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>0</v>
+        <v>1070</v>
+      </c>
+      <c r="C553" s="5" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>417</v>
+        <v>1072</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>505</v>
+        <v>1075</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>177</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>456</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>705</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B558" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="C558" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="C558" s="4" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>1080</v>
+        <v>875</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B560" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B560" s="1" t="s">
-        <v>1079</v>
-      </c>
       <c r="C560" s="4" t="s">
-        <v>1080</v>
+        <v>875</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="C561" s="5" t="s">
-        <v>1080</v>
+        <v>875</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1080</v>
+        <v>875</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>877</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>877</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B565" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="B565" s="3" t="s">
+      <c r="C565" s="5" t="s">
         <v>1088</v>
-      </c>
-      <c r="C565" s="5" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B566" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C566" s="4" t="s">
         <v>1088</v>
-      </c>
-      <c r="C566" s="4" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B568" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B568" s="1" t="s">
-        <v>1091</v>
-      </c>
       <c r="C568" s="4" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C569" s="5" t="s">
         <v>1094</v>
-      </c>
-      <c r="B569" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C569" s="5" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>1098</v>
+        <v>405</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1098</v>
+        <v>405</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B573" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="B573" s="3" t="s">
-        <v>1101</v>
-      </c>
       <c r="C573" s="5" t="s">
-        <v>1098</v>
+        <v>405</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1098</v>
+        <v>405</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10545,10 +10517,10 @@
         <v>1105</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10556,10 +10528,10 @@
         <v>1106</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10567,10 +10539,10 @@
         <v>1107</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1104</v>
+        <v>547</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>404</v>
+        <v>736</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10578,109 +10550,109 @@
         <v>1108</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1104</v>
+        <v>499</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>404</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>404</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>404</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>546</v>
+        <v>424</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>738</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>498</v>
+        <v>1100</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>1113</v>
+        <v>405</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>1116</v>
+        <v>167</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>1119</v>
+        <v>444</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C586" s="4" t="s">
-        <v>1119</v>
+        <v>0</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C587" s="5" t="s">
-        <v>404</v>
+        <v>0</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>167</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10688,653 +10660,653 @@
         <v>1124</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C590" s="1" t="s">
-        <v>0</v>
+        <v>1129</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C591" s="3" t="s">
-        <v>0</v>
+        <v>1130</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>438</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>475</v>
+        <v>208</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1138</v>
+        <v>312</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>208</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>1146</v>
+        <v>66</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>313</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>1149</v>
+        <v>1156</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1150</v>
+        <v>435</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1153</v>
+        <v>435</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>66</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>434</v>
+        <v>1167</v>
       </c>
       <c r="C605" s="5" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>434</v>
+        <v>1170</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1163</v>
+        <v>791</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="C607" s="5" t="s">
-        <v>1166</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1169</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C610" s="4" t="s">
         <v>1173</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C610" s="4" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1177</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>1177</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1198</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="C627" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="C629" s="5" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="C631" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="C633" s="5" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>1177</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="C635" s="5" t="s">
-        <v>1177</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1177</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
       <c r="C637" s="5" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
-        <v>1238</v>
+        <v>1245</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>1240</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="C639" s="5" t="s">
-        <v>1210</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="C641" s="5" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="C643" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>1240</v>
+        <v>167</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C645" s="5" t="s">
-        <v>1257</v>
+        <v>167</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>1259</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>1177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C647" s="5" t="s">
-        <v>1177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>1263</v>
@@ -11345,84 +11317,18 @@
     </row>
     <row r="649" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C649" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A650" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C650" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A651" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B651" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="C651" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A652" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C652" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A653" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B653" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C653" s="5" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A654" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C654" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A655" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B655" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C655" s="5" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="650" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="651" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="652" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1257">
   <si>
     <t/>
   </si>
@@ -192,9 +192,6 @@
     <t>LH Kit 24T Afias Boditech</t>
   </si>
   <si>
-    <t>LHULA17X</t>
-  </si>
-  <si>
     <t>EVA LHUKA16X</t>
   </si>
   <si>
@@ -330,78 +327,75 @@
     <t>ASO Kit 25T iChroma Boditech</t>
   </si>
   <si>
-    <t>ASUKA09EX</t>
+    <t>EVA ASVAA11EX</t>
+  </si>
+  <si>
+    <t>22/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cystatin C Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>CCUKA10EX</t>
+  </si>
+  <si>
+    <t>Anti-CCP Plus Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>ACUKD06E</t>
+  </si>
+  <si>
+    <t>21/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA ACUKD06E</t>
+  </si>
+  <si>
+    <t>Anti-HBS Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>AVUFB07</t>
+  </si>
+  <si>
+    <t>04/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-HCV Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>CVUDB05</t>
+  </si>
+  <si>
+    <t>24/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CRP Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA CRULE12</t>
+  </si>
+  <si>
+    <t>03/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cortisol Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>DCOUYB06</t>
+  </si>
+  <si>
+    <t>27/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>FSH Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>DFSUKD04</t>
   </si>
   <si>
     <t>14/07/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>EVA ASVAA11EX</t>
-  </si>
-  <si>
-    <t>22/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cystatin C Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>CCUKA10EX</t>
-  </si>
-  <si>
-    <t>Anti-CCP Plus Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>ACUKD06E</t>
-  </si>
-  <si>
-    <t>21/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA ACUKD06E</t>
-  </si>
-  <si>
-    <t>Anti-HBS Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>AVUFB07</t>
-  </si>
-  <si>
-    <t>04/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HCV Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>CVUDB05</t>
-  </si>
-  <si>
-    <t>24/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CRP Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA CRULE12</t>
-  </si>
-  <si>
-    <t>03/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cortisol Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>DCOUYB06</t>
-  </si>
-  <si>
-    <t>27/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>FSH Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>DFSUKD04</t>
-  </si>
-  <si>
     <t>EVA DFSUKD04</t>
   </si>
   <si>
@@ -705,9 +699,6 @@
     <t>32410246</t>
   </si>
   <si>
-    <t>32501142</t>
-  </si>
-  <si>
     <t>Glucose kit 500T Agappe</t>
   </si>
   <si>
@@ -831,405 +822,384 @@
     <t>Cuvette BS200 Chemistry Mindray</t>
   </si>
   <si>
-    <t>C3 kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>143924003</t>
-  </si>
-  <si>
-    <t>C4 kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>144024008</t>
+    <t>فحوصات ESR فشن</t>
+  </si>
+  <si>
+    <t>محلول M-68 Probe Cleanser 50mL 5 Part Diff مايندري</t>
+  </si>
+  <si>
+    <t>2024112751</t>
+  </si>
+  <si>
+    <t>26/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>BC-30s-3part Instrument Auto Hematology Mindray</t>
+  </si>
+  <si>
+    <t>BA-88A Instrument Semi-Auto chemistry Mindray</t>
+  </si>
+  <si>
+    <t>I-Chroma 2 Instrument Boditech</t>
+  </si>
+  <si>
+    <t>Fe (Re +Calibrator)  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>145325002</t>
+  </si>
+  <si>
+    <t>14/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>GGT kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>140425009</t>
+  </si>
+  <si>
+    <t>08/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>GLU kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>141525002</t>
+  </si>
+  <si>
+    <t>21/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HDL kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>142125006</t>
+  </si>
+  <si>
+    <t>18/03/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>IgG kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>144324002</t>
+  </si>
+  <si>
+    <t>23/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>RF II  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>147025004</t>
+  </si>
+  <si>
+    <t>TC  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>141625002</t>
+  </si>
+  <si>
+    <t>10/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>141625005</t>
+  </si>
+  <si>
+    <t>23/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>TG kit Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>141725003</t>
+  </si>
+  <si>
+    <t>16/02/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Hemochroma Plus (Hb+Pcv) Instrument Boditech</t>
+  </si>
+  <si>
+    <t>كيوفيت Microcuvettes -Hemo هيمو كروما</t>
+  </si>
+  <si>
+    <t>EVA HBPVG68</t>
+  </si>
+  <si>
+    <t>15/07/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HBPUA24</t>
+  </si>
+  <si>
+    <t>10/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Urea kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>141325001</t>
+  </si>
+  <si>
+    <t>12/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Amylase kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>142824010</t>
+  </si>
+  <si>
+    <t>142825001</t>
+  </si>
+  <si>
+    <t>06/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>I-Chroma 2-Instrument used Boditech</t>
+  </si>
+  <si>
+    <t>cleanser  CD-80 محلول تنظيف</t>
+  </si>
+  <si>
+    <t>196124220</t>
+  </si>
+  <si>
+    <t>21/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Multi Sera Calibrator Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>150125004</t>
+  </si>
+  <si>
+    <t>05/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CC. M Control Chemistry Mindray level 1</t>
+  </si>
+  <si>
+    <t>059325005</t>
+  </si>
+  <si>
+    <t>14/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>G6PD Control H  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>57524005</t>
+  </si>
+  <si>
+    <t>24/10/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HbA1c Calibrator  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>155124012</t>
+  </si>
+  <si>
+    <t>03/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>155125001</t>
+  </si>
+  <si>
+    <t>HBA1c (R) kit Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>044624016</t>
+  </si>
+  <si>
+    <t>05/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>044624018</t>
+  </si>
+  <si>
+    <t>13/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Specific Protein Calibrator Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>150725004</t>
+  </si>
+  <si>
+    <t>23/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Semi-cuvettes (steel ball included)/350 كيوفيت</t>
+  </si>
+  <si>
+    <t>ماصة Pipette 10-100</t>
+  </si>
+  <si>
+    <t>ماصة Pipette 100-1000</t>
+  </si>
+  <si>
+    <t>ماصةPipette 20-200</t>
+  </si>
+  <si>
+    <t>CYBOW 3</t>
+  </si>
+  <si>
+    <t>241118</t>
+  </si>
+  <si>
+    <t>CYBOW 10</t>
+  </si>
+  <si>
+    <t>ichamber</t>
+  </si>
+  <si>
+    <t>Roller Mixer عادي</t>
+  </si>
+  <si>
+    <t>Lipids Calibrator Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>150425004</t>
+  </si>
+  <si>
+    <t>24/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>جهاز سنترفيوج صيني</t>
+  </si>
+  <si>
+    <t>Aqappe 30ml Nano Detergent</t>
+  </si>
+  <si>
+    <t>32410142</t>
+  </si>
+  <si>
+    <t>31/08/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>كرسي سحب دم</t>
+  </si>
+  <si>
+    <t>Afias-6 paper + i chroma 11</t>
+  </si>
+  <si>
+    <t>IgA kit Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>148824004</t>
+  </si>
+  <si>
+    <t>RF II cal - Mindray</t>
+  </si>
+  <si>
+    <t>158925001</t>
+  </si>
+  <si>
+    <t>20/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>مجهر صيني</t>
+  </si>
+  <si>
+    <t>Capillary tube 15ul  25/tube</t>
+  </si>
+  <si>
+    <t>جهاز pcv عراقي</t>
+  </si>
+  <si>
+    <t>BC-10-3part Instrument Auto Hematology Mindray</t>
+  </si>
+  <si>
+    <t>i-chamber -used</t>
+  </si>
+  <si>
+    <t>Cuvette BS230 Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>Creatinine kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>141125008</t>
+  </si>
+  <si>
+    <t>M-62 FD Dye Reagent 7-part 12mL Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025011351</t>
+  </si>
+  <si>
+    <t>M-62 LD Lyse Reagent 7-part 1L Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025050651</t>
+  </si>
+  <si>
+    <t>M-62 LH Lyse Reagent 7-part 1L Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025050951</t>
+  </si>
+  <si>
+    <t>08/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 DS Diluent Reagent 7-part 20L Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025051651</t>
+  </si>
+  <si>
+    <t>15/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HbA1c 5ul micro capillary tube</t>
+  </si>
+  <si>
+    <t>CP05TAA01</t>
+  </si>
+  <si>
+    <t>12/01/2028 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>مايكرو سنترفيوج</t>
+  </si>
+  <si>
+    <t>حديدة فيتامين دي</t>
+  </si>
+  <si>
+    <t>FT4 kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024070141</t>
+  </si>
+  <si>
+    <t>14/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2025020113</t>
+  </si>
+  <si>
+    <t>18/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>T3 kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024100113</t>
+  </si>
+  <si>
+    <t>T4 kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024070121</t>
   </si>
   <si>
     <t>06/03/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>فحوصات ESR فشن</t>
-  </si>
-  <si>
-    <t>محلول M-68 Probe Cleanser 50mL 5 Part Diff مايندري</t>
-  </si>
-  <si>
-    <t>2024112751</t>
-  </si>
-  <si>
-    <t>26/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>BC-30s-3part Instrument Auto Hematology Mindray</t>
-  </si>
-  <si>
-    <t>BA-88A Instrument Semi-Auto chemistry Mindray</t>
-  </si>
-  <si>
-    <t>I-Chroma 2 Instrument Boditech</t>
-  </si>
-  <si>
-    <t>Fe (Re +Calibrator)  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>145325002</t>
-  </si>
-  <si>
-    <t>14/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>GGT kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>140425009</t>
-  </si>
-  <si>
-    <t>08/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>GLU kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>141525002</t>
-  </si>
-  <si>
-    <t>21/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HDL kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>142125006</t>
-  </si>
-  <si>
-    <t>18/03/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>IgG kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>144324002</t>
-  </si>
-  <si>
-    <t>23/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>RF II  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>147025004</t>
-  </si>
-  <si>
-    <t>TC  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>141625002</t>
-  </si>
-  <si>
-    <t>10/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>141625005</t>
-  </si>
-  <si>
-    <t>23/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TG kit Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>141725003</t>
-  </si>
-  <si>
-    <t>16/02/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Hemochroma Plus (Hb+Pcv) Instrument Boditech</t>
-  </si>
-  <si>
-    <t>كيوفيت Microcuvettes -Hemo هيمو كروما</t>
-  </si>
-  <si>
-    <t>EVA HBPVG68</t>
-  </si>
-  <si>
-    <t>15/07/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HBPUA24</t>
-  </si>
-  <si>
-    <t>10/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Urea kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>141325001</t>
-  </si>
-  <si>
-    <t>12/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Amylase kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>142824010</t>
-  </si>
-  <si>
-    <t>142825001</t>
-  </si>
-  <si>
-    <t>06/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>I-Chroma 2-Instrument used Boditech</t>
-  </si>
-  <si>
-    <t>cleanser  CD-80 محلول تنظيف</t>
-  </si>
-  <si>
-    <t>196124220</t>
-  </si>
-  <si>
-    <t>21/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Multi Sera Calibrator Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>150125004</t>
-  </si>
-  <si>
-    <t>05/05/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CC. M Control Chemistry Mindray level 1</t>
-  </si>
-  <si>
-    <t>059325005</t>
-  </si>
-  <si>
-    <t>14/05/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>G6PD Control H  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>57524005</t>
-  </si>
-  <si>
-    <t>24/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HbA1c Calibrator  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>155124012</t>
-  </si>
-  <si>
-    <t>03/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>155125001</t>
-  </si>
-  <si>
-    <t>HBA1c (R) kit Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>044624016</t>
-  </si>
-  <si>
-    <t>05/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>044624018</t>
-  </si>
-  <si>
-    <t>13/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Specific Protein Calibrator Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>150725004</t>
-  </si>
-  <si>
-    <t>23/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Semi-cuvettes (steel ball included)/350 كيوفيت</t>
-  </si>
-  <si>
-    <t>ماصة Pipette 10-100</t>
-  </si>
-  <si>
-    <t>ماصة Pipette 100-1000</t>
-  </si>
-  <si>
-    <t>ماصةPipette 20-200</t>
-  </si>
-  <si>
-    <t>CYBOW 3</t>
-  </si>
-  <si>
-    <t>241118</t>
-  </si>
-  <si>
-    <t>CYBOW 10</t>
-  </si>
-  <si>
-    <t>ichamber</t>
-  </si>
-  <si>
-    <t>IgM kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>144223009</t>
-  </si>
-  <si>
-    <t>20/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Roller Mixer عادي</t>
-  </si>
-  <si>
-    <t>Lipids Calibrator Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>150425004</t>
-  </si>
-  <si>
-    <t>24/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>جهاز سنترفيوج صيني</t>
-  </si>
-  <si>
-    <t>Aqappe 30ml Nano Detergent</t>
-  </si>
-  <si>
-    <t>32410142</t>
-  </si>
-  <si>
-    <t>31/08/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>كرسي سحب دم</t>
-  </si>
-  <si>
-    <t>Afias-6 paper + i chroma 11</t>
-  </si>
-  <si>
-    <t>IgA kit Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>148824004</t>
-  </si>
-  <si>
-    <t>RF II cal - Mindray</t>
-  </si>
-  <si>
-    <t>158925001</t>
-  </si>
-  <si>
-    <t>20/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>مجهر صيني</t>
-  </si>
-  <si>
-    <t>Capillary tube 15ul  25/tube</t>
-  </si>
-  <si>
-    <t>جهاز pcv عراقي</t>
-  </si>
-  <si>
-    <t>BC-10-3part Instrument Auto Hematology Mindray</t>
-  </si>
-  <si>
-    <t>i-chamber -used</t>
-  </si>
-  <si>
-    <t>Cuvette BS230 Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>Creatinine kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>141125008</t>
-  </si>
-  <si>
-    <t>M-62 FD Dye Reagent 7-part 12mL Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025011351</t>
-  </si>
-  <si>
-    <t>M-62 LD Lyse Reagent 7-part 1L Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025050651</t>
-  </si>
-  <si>
-    <t>M-62 LH Lyse Reagent 7-part 1L Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025050951</t>
-  </si>
-  <si>
-    <t>08/05/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>M-62 DS Diluent Reagent 7-part 20L Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025051651</t>
-  </si>
-  <si>
-    <t>15/05/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HbA1c 5ul micro capillary tube</t>
-  </si>
-  <si>
-    <t>CP05TAA01</t>
-  </si>
-  <si>
-    <t>12/01/2028 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>مايكرو سنترفيوج</t>
-  </si>
-  <si>
-    <t>حديدة فيتامين دي</t>
-  </si>
-  <si>
-    <t>FT4 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024070141</t>
-  </si>
-  <si>
-    <t>14/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2025020113</t>
-  </si>
-  <si>
-    <t>18/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>T3 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024100113</t>
-  </si>
-  <si>
-    <t>T4 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024070121</t>
-  </si>
-  <si>
     <t>TSH  kit 2×50T CL900i Mindray</t>
   </si>
   <si>
@@ -2116,9 +2086,6 @@
   </si>
   <si>
     <t>Vitamin D  Neo Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>VEUKV06E</t>
   </si>
   <si>
     <t>VEUKV07E</t>
@@ -4176,10 +4143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C652"/>
+  <dimension ref="A1:C644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A642" sqref="A642:E642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4448,337 +4415,337 @@
         <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4786,7 +4753,7 @@
         <v>122</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>124</v>
@@ -4794,65 +4761,65 @@
     </row>
     <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>138</v>
@@ -4860,222 +4827,222 @@
     </row>
     <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5083,54 +5050,54 @@
         <v>181</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5138,54 +5105,54 @@
         <v>190</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5193,54 +5160,54 @@
         <v>200</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5248,29 +5215,29 @@
         <v>210</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>51</v>
@@ -5278,189 +5245,189 @@
     </row>
     <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5468,488 +5435,488 @@
         <v>247</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>268</v>
+        <v>0</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="C130" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>281</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>0</v>
+        <v>284</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>0</v>
+        <v>287</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>296</v>
+        <v>0</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>144</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>306</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>310</v>
+        <v>0</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>149</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>0</v>
+        <v>326</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>335</v>
+        <v>0</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>339</v>
+        <v>0</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>341</v>
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="C159" s="5" t="s">
-        <v>344</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>0</v>
+        <v>342</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>0</v>
@@ -5960,7 +5927,7 @@
     </row>
     <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>0</v>
@@ -5971,13 +5938,13 @@
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5985,26 +5952,26 @@
         <v>349</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="C165" s="5" t="s">
-        <v>154</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
@@ -6015,24 +5982,24 @@
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>355</v>
+        <v>0</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>0</v>
+      <c r="C168" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6062,15 +6029,15 @@
         <v>361</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>363</v>
+        <v>0</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>0</v>
@@ -6081,7 +6048,7 @@
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>0</v>
@@ -6092,68 +6059,68 @@
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>323</v>
+        <v>0</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>0</v>
+        <v>369</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>0</v>
+        <v>371</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6161,54 +6128,54 @@
         <v>375</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>0</v>
+        <v>376</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>268</v>
+        <v>380</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>174</v>
+        <v>0</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>315</v>
+        <v>0</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6216,285 +6183,285 @@
         <v>383</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>388</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>405</v>
+        <v>53</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>74</v>
+        <v>409</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>53</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>359</v>
+        <v>440</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6502,186 +6469,186 @@
         <v>443</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>454</v>
+        <v>130</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>296</v>
+        <v>112</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>457</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>451</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6689,7 +6656,7 @@
         <v>469</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>470</v>
@@ -6697,13 +6664,13 @@
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6711,18 +6678,18 @@
         <v>473</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>315</v>
+        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>476</v>
@@ -6730,10 +6697,10 @@
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>478</v>
@@ -6744,84 +6711,84 @@
         <v>479</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>470</v>
+        <v>336</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>493</v>
@@ -6829,13 +6796,13 @@
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C241" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6843,65 +6810,65 @@
         <v>495</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>421</v>
+        <v>496</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>500</v>
+        <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>502</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>504</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6909,43 +6876,43 @@
         <v>505</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C249" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C251" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6953,7 +6920,7 @@
         <v>513</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>514</v>
@@ -6961,98 +6928,98 @@
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>10</v>
+        <v>516</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>332</v>
+        <v>103</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>518</v>
+        <v>165</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>409</v>
+        <v>523</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>197</v>
+        <v>524</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>522</v>
+        <v>68</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>526</v>
+        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>528</v>
@@ -7060,211 +7027,211 @@
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>106</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>531</v>
+        <v>397</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>533</v>
+        <v>451</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>69</v>
+        <v>423</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>539</v>
+        <v>446</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>303</v>
+        <v>476</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>35</v>
+        <v>546</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>547</v>
+        <v>414</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>433</v>
+        <v>551</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>506</v>
+        <v>553</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>556</v>
+        <v>447</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>547</v>
+        <v>404</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7272,65 +7239,65 @@
         <v>565</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>451</v>
+        <v>568</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>468</v>
+        <v>569</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>568</v>
+        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>457</v>
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>414</v>
+        <v>576</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>573</v>
+        <v>215</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>414</v>
+        <v>577</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>573</v>
+        <v>215</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7338,208 +7305,208 @@
         <v>575</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>268</v>
+        <v>585</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>217</v>
+        <v>592</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>588</v>
+        <v>451</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>591</v>
+        <v>414</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>594</v>
+        <v>399</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>597</v>
+        <v>68</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>398</v>
+        <v>604</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>601</v>
+        <v>441</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>602</v>
+        <v>175</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>603</v>
+        <v>414</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>398</v>
+        <v>607</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>461</v>
+        <v>603</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>409</v>
+        <v>612</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>611</v>
+        <v>404</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>614</v>
+        <v>462</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7547,10 +7514,10 @@
         <v>615</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>451</v>
+        <v>614</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>177</v>
+        <v>462</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7558,153 +7525,153 @@
         <v>616</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>617</v>
+        <v>0</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>506</v>
+        <v>621</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>559</v>
+        <v>152</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>414</v>
+        <v>626</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>526</v>
+        <v>627</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>472</v>
+        <v>630</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>472</v>
+        <v>632</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>0</v>
+        <v>414</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>629</v>
+        <v>460</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>631</v>
+        <v>425</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>632</v>
+        <v>543</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>634</v>
+        <v>428</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>154</v>
+        <v>637</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>640</v>
+        <v>152</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7712,73 +7679,73 @@
         <v>643</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>424</v>
+        <v>646</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>470</v>
+        <v>55</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>435</v>
+        <v>650</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>553</v>
+        <v>55</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>647</v>
+        <v>0</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>650</v>
+        <v>81</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>154</v>
+        <v>655</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>655</v>
@@ -7786,35 +7753,35 @@
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>659</v>
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>660</v>
+        <v>408</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7822,84 +7789,84 @@
         <v>661</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>0</v>
+        <v>408</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>663</v>
+        <v>408</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>82</v>
+        <v>664</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>664</v>
+        <v>408</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>665</v>
+        <v>224</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>666</v>
+        <v>408</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B335" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C335" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>332</v>
+        <v>670</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>312</v>
+        <v>672</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>672</v>
@@ -7907,13 +7874,13 @@
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7921,2317 +7888,2317 @@
         <v>675</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>418</v>
+        <v>676</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>418</v>
+        <v>678</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>677</v>
+        <v>51</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>409</v>
+        <v>680</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>678</v>
+        <v>254</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>418</v>
+        <v>682</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>424</v>
+        <v>685</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>682</v>
+        <v>494</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>424</v>
+        <v>687</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>682</v>
+        <v>206</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>475</v>
+        <v>689</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>51</v>
+        <v>694</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>257</v>
+        <v>697</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>693</v>
+        <v>429</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>504</v>
+        <v>702</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>701</v>
+        <v>51</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>705</v>
+        <v>558</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>708</v>
+        <v>165</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>439</v>
+        <v>165</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>713</v>
+        <v>647</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>130</v>
+        <v>718</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="C362" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>217</v>
+        <v>722</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>568</v>
+        <v>725</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>167</v>
+        <v>728</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>359</v>
+        <v>739</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>736</v>
+        <v>172</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>174</v>
+        <v>753</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>174</v>
+        <v>768</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>764</v>
+        <v>549</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>769</v>
+        <v>549</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>559</v>
+        <v>793</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>787</v>
+        <v>236</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>559</v>
+        <v>88</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>791</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>794</v>
+        <v>55</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>797</v>
+        <v>103</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>804</v>
+        <v>524</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>239</v>
+        <v>524</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>89</v>
+        <v>524</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>101</v>
+        <v>816</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>815</v>
+        <v>508</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>818</v>
+        <v>524</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>534</v>
+        <v>392</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>534</v>
+        <v>462</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="C411" s="5" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>518</v>
+        <v>0</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>534</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>534</v>
+        <v>841</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>274</v>
+        <v>844</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>472</v>
+        <v>847</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>844</v>
+        <v>535</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>0</v>
+        <v>850</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>0</v>
+        <v>852</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>0</v>
+        <v>854</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="C421" s="5" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="C422" s="4" t="s">
-        <v>852</v>
+        <v>0</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="C423" s="5" t="s">
-        <v>855</v>
+        <v>0</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>858</v>
+        <v>672</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>545</v>
+        <v>659</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>545</v>
+        <v>864</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>12</v>
+        <v>546</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>66</v>
+        <v>546</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>0</v>
+        <v>870</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>0</v>
+        <v>873</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>0</v>
+        <v>875</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>682</v>
+        <v>476</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>669</v>
+        <v>476</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>875</v>
+        <v>476</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>556</v>
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>556</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>882</v>
+        <v>476</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>852</v>
+        <v>476</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>486</v>
+        <v>934</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>486</v>
+        <v>807</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>486</v>
+        <v>939</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>486</v>
+        <v>324</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>486</v>
+        <v>619</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>486</v>
+        <v>948</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>945</v>
+        <v>549</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>818</v>
+        <v>597</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>559</v>
+        <v>959</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>332</v>
+        <v>962</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>629</v>
+        <v>232</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>559</v>
+        <v>232</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>607</v>
+        <v>974</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>967</v>
+        <v>0</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>970</v>
+        <v>0</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>973</v>
+        <v>0</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>235</v>
+        <v>0</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>980</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>556</v>
+        <v>981</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>235</v>
+        <v>985</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>0</v>
+        <v>980</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>0</v>
+        <v>980</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>0</v>
+        <v>980</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>0</v>
+        <v>980</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>991</v>
+        <v>941</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>992</v>
+        <v>549</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>991</v>
+        <v>943</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>992</v>
+        <v>324</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>991</v>
+        <v>943</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>992</v>
+        <v>324</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>991</v>
+        <v>943</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>992</v>
+        <v>324</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>952</v>
+        <v>984</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>559</v>
+        <v>985</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>954</v>
+        <v>1008</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>332</v>
+        <v>444</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>954</v>
+        <v>980</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>332</v>
+        <v>981</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>332</v>
+        <v>619</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>995</v>
+        <v>947</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>996</v>
+        <v>948</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1019</v>
+        <v>984</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>454</v>
+        <v>985</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>991</v>
+        <v>953</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>992</v>
+        <v>597</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>995</v>
+        <v>953</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>996</v>
+        <v>597</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>995</v>
+        <v>950</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>996</v>
+        <v>549</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>995</v>
+        <v>950</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>996</v>
+        <v>549</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>959</v>
+        <v>549</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>995</v>
+        <v>950</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>996</v>
+        <v>549</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>995</v>
+        <v>950</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>996</v>
+        <v>549</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>607</v>
+        <v>549</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>607</v>
+        <v>956</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C525" s="5" t="s">
-        <v>607</v>
+        <v>959</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>961</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>559</v>
+        <v>962</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>559</v>
+        <v>967</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>961</v>
+        <v>1030</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>559</v>
+        <v>967</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>961</v>
+        <v>1030</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>559</v>
+        <v>967</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>559</v>
+        <v>232</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>961</v>
+        <v>1034</v>
       </c>
       <c r="C531" s="5" t="s">
-        <v>559</v>
+        <v>672</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C532" s="4" t="s">
-        <v>967</v>
+        <v>0</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B533" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="B533" s="3" t="s">
-        <v>969</v>
-      </c>
       <c r="C533" s="5" t="s">
-        <v>970</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>972</v>
+        <v>1040</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>973</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>977</v>
+        <v>489</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>978</v>
+        <v>622</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1041</v>
+        <v>414</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>978</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1041</v>
+        <v>408</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>978</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>975</v>
+        <v>408</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>235</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>682</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>0</v>
+        <v>1051</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C541" s="5" t="s">
-        <v>1049</v>
+        <v>0</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1051</v>
+        <v>408</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>632</v>
+        <v>175</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>424</v>
+        <v>1057</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1055</v>
+        <v>447</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>418</v>
+        <v>1059</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>1057</v>
+        <v>694</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>418</v>
+        <v>1061</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>231</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C549" s="3" t="s">
-        <v>0</v>
+        <v>1064</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B550" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="C550" s="4" t="s">
         <v>1065</v>
@@ -10239,244 +10206,244 @@
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>506</v>
+        <v>1070</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>177</v>
+        <v>864</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>457</v>
+        <v>864</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>705</v>
+        <v>864</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1073</v>
+        <v>864</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C556" s="4" t="s">
         <v>1077</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C556" s="4" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>875</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B560" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B560" s="1" t="s">
-        <v>1081</v>
-      </c>
       <c r="C560" s="4" t="s">
-        <v>875</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C561" s="5" t="s">
         <v>1083</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C561" s="5" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>875</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>1088</v>
+        <v>395</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B564" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B564" s="1" t="s">
-        <v>1087</v>
-      </c>
       <c r="C564" s="4" t="s">
-        <v>1088</v>
+        <v>395</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>1088</v>
+        <v>395</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>1088</v>
+        <v>395</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>1094</v>
+        <v>395</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>1094</v>
+        <v>395</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>1094</v>
+        <v>395</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1097</v>
+        <v>537</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>1094</v>
+        <v>725</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1100</v>
+        <v>489</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>405</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>405</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10484,87 +10451,87 @@
         <v>1102</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>405</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1100</v>
+        <v>414</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>405</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>405</v>
+        <v>165</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>736</v>
+        <v>0</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C579" s="5" t="s">
-        <v>1109</v>
+        <v>0</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10572,21 +10539,21 @@
         <v>1113</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>1115</v>
+        <v>429</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>424</v>
+        <v>1118</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1115</v>
+        <v>466</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10594,741 +10561,653 @@
         <v>1117</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>405</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>167</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>444</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C586" s="1" t="s">
-        <v>0</v>
+        <v>1128</v>
+      </c>
+      <c r="C586" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C587" s="3" t="s">
-        <v>0</v>
+        <v>1130</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>1126</v>
+        <v>304</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>439</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>476</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>1131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1136</v>
+        <v>425</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1139</v>
+        <v>425</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>208</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>1142</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>312</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1150</v>
+        <v>780</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>66</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>435</v>
+        <v>1167</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>435</v>
+        <v>1169</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>1166</v>
+        <v>1175</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1167</v>
+        <v>1176</v>
       </c>
       <c r="C605" s="5" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>791</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="C607" s="5" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>1173</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>1190</v>
+        <v>1198</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1194</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1203</v>
+        <v>1210</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>1204</v>
+        <v>1211</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1205</v>
+        <v>1212</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1208</v>
+        <v>1215</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
-        <v>1211</v>
+        <v>1218</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>1213</v>
+        <v>1220</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1214</v>
+        <v>1221</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1173</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>1218</v>
+        <v>1226</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="C627" s="5" t="s">
-        <v>1173</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1173</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
-        <v>1222</v>
+        <v>1231</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="C629" s="5" t="s">
-        <v>1224</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1226</v>
+        <v>1235</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1228</v>
+        <v>1237</v>
       </c>
       <c r="C631" s="5" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
-        <v>1229</v>
+        <v>1238</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>1173</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
-        <v>1231</v>
+        <v>1240</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="C633" s="5" t="s">
-        <v>1233</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>1236</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="C635" s="5" t="s">
-        <v>1206</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
-        <v>1242</v>
+        <v>1249</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="C637" s="5" t="s">
-        <v>1244</v>
+        <v>165</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>1173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="C639" s="5" t="s">
-        <v>1173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>1236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="C641" s="5" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A642" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C642" s="4" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A643" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="B643" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C643" s="5" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A644" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C644" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A645" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B645" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C645" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A646" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C646" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A647" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B647" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C647" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A648" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C648" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A649" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B649" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C649" s="5" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="651" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="652" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="642" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="643" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="644" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1233">
   <si>
     <t/>
   </si>
@@ -1359,1797 +1359,1749 @@
     <t>Insulin kit 2×50T Cl900 Mindray</t>
   </si>
   <si>
+    <t>C-Peptide kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>26/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>DHEA-S kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024120111</t>
+  </si>
+  <si>
+    <t>Cortisol kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025050111</t>
+  </si>
+  <si>
+    <t>14/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>TnI kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>07/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CK-MB kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>14/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PTH kit 2×50T Cl900i  Mindray</t>
+  </si>
+  <si>
+    <t>19/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Folate kit 50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>HBs Ag kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024050111</t>
+  </si>
+  <si>
+    <t>18/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2024090141</t>
+  </si>
+  <si>
+    <t>13/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-HCV  kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>18/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2024120113</t>
+  </si>
+  <si>
+    <t>HIV kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Free T3 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>28/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Free T4 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>01/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total T3 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>15/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total T4 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024030112</t>
+  </si>
+  <si>
+    <t>17/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Tg Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>09/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-Tg Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Anti-TPO Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>02/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CA125 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
     <t>2024070111</t>
   </si>
   <si>
+    <t>25/10/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total PSA Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>15/10/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>13/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>17/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>AFP Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025030111</t>
+  </si>
+  <si>
+    <t>01/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Ferritin Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024040112</t>
+  </si>
+  <si>
+    <t>27/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total BHCG Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>LH Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>FSH Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>23/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Prolactin Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>16/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Progesterone Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>13/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Testosterone Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Estradiol Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024100111.</t>
+  </si>
+  <si>
+    <t>24/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Insulin Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>06/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>C-peptide Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>25/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>DHEA-S Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>12/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cortisol Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>ACTH Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024040101</t>
+  </si>
+  <si>
+    <t>TnI Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025010101</t>
+  </si>
+  <si>
+    <t>CK-MB Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024060101</t>
+  </si>
+  <si>
+    <t>06/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2025020101</t>
+  </si>
+  <si>
+    <t>BNP Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>PTH Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>05/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>VB12 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>HBsAg Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024090111</t>
+  </si>
+  <si>
+    <t>Anti-HCV Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>11/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HIV Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Substrate Solution Consumables Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024080121</t>
+  </si>
+  <si>
+    <t>12/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Thyroid Function Multi Control L 1*5ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024090211</t>
+  </si>
+  <si>
+    <t>05/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Thyroid Function Multi Control H 1*5ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Rd Multi Control H 1*5ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>03/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cardiac Marker Multi Control L 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>14/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cardiac Marker Multi Control H 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025030101</t>
+  </si>
+  <si>
+    <t>10/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Immunoassay Multi Control L 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>ACTH Control H 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024100101</t>
+  </si>
+  <si>
+    <t>21/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Metabolic Multi Control H 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>26/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HBsAg Positive Control 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
     <t>10/04/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>C-Peptide kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>26/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>DHEA-S kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024120111</t>
-  </si>
-  <si>
-    <t>Cortisol kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025050111</t>
-  </si>
-  <si>
-    <t>14/12/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TnI kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>07/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CK-MB kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>14/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PTH kit 2×50T Cl900i  Mindray</t>
-  </si>
-  <si>
-    <t>19/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>VB12 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>02/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Folate kit 50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>HBs Ag kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024050111</t>
-  </si>
-  <si>
-    <t>18/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2024090141</t>
-  </si>
-  <si>
-    <t>13/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HCV  kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>18/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2024120113</t>
-  </si>
-  <si>
-    <t>HIV kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Free T3 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>28/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Free T4 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>01/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total T3 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>15/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total T4 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024030112</t>
-  </si>
-  <si>
-    <t>17/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Tg Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>09/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-Tg Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Anti-TPO Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>CA125 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>25/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CA19-9 Calibrator 2ml Cl900i Mindray</t>
+    <t>Anti-HCV Positive Control 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>10/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-HCV Negative Control 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Wash Buffer Consumables 1X10L Cl-900i Mindray</t>
+  </si>
+  <si>
+    <t>2025030451</t>
+  </si>
+  <si>
+    <t>03/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2025052151</t>
+  </si>
+  <si>
+    <t>20/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Immunoassay Cuvette Consumables 2*88 Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>561161523</t>
+  </si>
+  <si>
+    <t>01/01/2031 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>mderp.</t>
+  </si>
+  <si>
+    <t>Amylase kit 40T Agappe</t>
+  </si>
+  <si>
+    <t>32412013</t>
+  </si>
+  <si>
+    <t>32501120</t>
+  </si>
+  <si>
+    <t>32503003</t>
+  </si>
+  <si>
+    <t>02/03/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>NT-proBNP Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA NBUYE11E</t>
+  </si>
+  <si>
+    <t>20/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Calprotectin Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>CPTYB10Z</t>
+  </si>
+  <si>
+    <t>24/06/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA CPVBC11Z</t>
+  </si>
+  <si>
+    <t>09/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>H. Pylori SA Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA HSVCH02</t>
+  </si>
+  <si>
+    <t>AMH Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA MHUKA23G</t>
+  </si>
+  <si>
+    <t>20/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA MHVCA24G</t>
+  </si>
+  <si>
+    <t>Anti-TP kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>02/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-HBc kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>25/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-TP Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>16/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total Ige Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA TEVAE08EX</t>
+  </si>
+  <si>
+    <t>ALD kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025060111</t>
+  </si>
+  <si>
+    <t>29/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>ALD Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Renin Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>15/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>04/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Renin kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>16/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>VD-T kit 2×50T Cl900i  Mindray</t>
+  </si>
+  <si>
+    <t>2024090121</t>
+  </si>
+  <si>
+    <t>ASO/CRP/RF II Triple Control L 1mL Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>059224011</t>
+  </si>
+  <si>
+    <t>ASO/CRP/RF II Triple Control H 1mL Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>Epithod 616- HBA1C Standard Cartridge  DX-Gen</t>
+  </si>
+  <si>
+    <t>Immunity igg igm kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>WHUBB20G</t>
+  </si>
+  <si>
+    <t>13/10/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>St2 Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>STUBB05EX</t>
+  </si>
+  <si>
+    <t>19/10/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>IL-6 Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA ILVCA16G</t>
+  </si>
+  <si>
+    <t>AMH Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA MHVBC06E</t>
+  </si>
+  <si>
+    <t>05/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 DR Diluent Reagent 7-part 1L Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025021851</t>
+  </si>
+  <si>
+    <t>17/02/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2025052051</t>
+  </si>
+  <si>
+    <t>19/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>AMH kit 2×50T with cal. CL900i Mindray</t>
+  </si>
+  <si>
+    <t>16/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>AMH (H) control cl900i Mindray</t>
+  </si>
+  <si>
+    <t>AMH (L) control cl900i Mindray</t>
+  </si>
+  <si>
+    <t>19/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-CCP plus Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA ACVAA31G</t>
+  </si>
+  <si>
+    <t>01/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total Ige Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA TEVCA13X</t>
+  </si>
+  <si>
+    <t>MXA/CRP Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA MRUKA15X</t>
+  </si>
+  <si>
+    <t>28/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA MRVAA16X</t>
+  </si>
+  <si>
+    <t>20/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Progesterone Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PGVAA10X</t>
+  </si>
+  <si>
+    <t>EVA PGVAA10X</t>
+  </si>
+  <si>
+    <t>Clover A1C plus Analyzer</t>
+  </si>
+  <si>
+    <t>Vitamin D  NeO Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA VEVAB67X</t>
+  </si>
+  <si>
+    <t>EVA VEVAB68X</t>
+  </si>
+  <si>
+    <t>14/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA VEVAB69X</t>
+  </si>
+  <si>
+    <t>G6PD Control L Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>057524006</t>
+  </si>
+  <si>
+    <t>12/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Rubella Virus IgG kit 2×50T  with cal.Cl900i  Mindray</t>
+  </si>
+  <si>
+    <t>Rubella Virus IgM kit 2×50T  with cal.Cl900i  Mindray</t>
+  </si>
+  <si>
+    <t>11/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>TOXO IgG kit 2×50T with cal.Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>28/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>TOXO IgM kit 2×50T with cal.Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>CMV IgM kit 2×50T with cal.Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>11/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>14/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CMV IgG kit  2×50T with cal.Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>16/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>TORCH IgG positive  control</t>
+  </si>
+  <si>
+    <t>04/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>TORCH IgM positive  control</t>
+  </si>
+  <si>
+    <t>rT3  Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>ZINC kit 20T Agappe</t>
+  </si>
+  <si>
+    <t>32411271</t>
+  </si>
+  <si>
+    <t>Iron kit 100T Agappe</t>
+  </si>
+  <si>
+    <t>32411254</t>
+  </si>
+  <si>
+    <t>IGRA -TB  Kit 8T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA TBVGA25G</t>
+  </si>
+  <si>
+    <t>free T4  Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA F4VEA34G</t>
+  </si>
+  <si>
+    <t>18/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Free T4 Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>F4UYC10</t>
+  </si>
+  <si>
+    <t>CA19-9 Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>CXUGA09EX</t>
+  </si>
+  <si>
+    <t>Vitamin D  Neo Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>VEUKV07E</t>
+  </si>
+  <si>
+    <t>26/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA VEVAW10E</t>
+  </si>
+  <si>
+    <t>C3 Kit 10T Mispa i3</t>
+  </si>
+  <si>
+    <t>EVA 32506425</t>
+  </si>
+  <si>
+    <t>15/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CRP Kit 60T Mispa i3</t>
+  </si>
+  <si>
+    <t>32502179</t>
+  </si>
+  <si>
+    <t>29/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>D-Dimer Kit 30T Mispa i3</t>
+  </si>
+  <si>
+    <t>32503303</t>
+  </si>
+  <si>
+    <t>HbA1c Kit 30T Mispa i3</t>
+  </si>
+  <si>
+    <t>32501307</t>
+  </si>
+  <si>
+    <t>23/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA 32505422</t>
+  </si>
+  <si>
+    <t>C4 Kit 10T Mispa i3</t>
+  </si>
+  <si>
+    <t>EVA 32506032</t>
+  </si>
+  <si>
+    <t>Washing solution 1*50 ml  Mispa i3</t>
+  </si>
+  <si>
+    <t>32411023</t>
+  </si>
+  <si>
+    <t>32502033</t>
+  </si>
+  <si>
+    <t>probe cleanser Mispa i3</t>
+  </si>
+  <si>
+    <t>EVA 32504296</t>
+  </si>
+  <si>
+    <t>Protein  Control Level 1 (1 ml ) Mispa i3</t>
+  </si>
+  <si>
+    <t>32312202</t>
+  </si>
+  <si>
+    <t>Protein  Control Level 2 (1 ml ) Mispa i3</t>
+  </si>
+  <si>
+    <t>( ALB Kit Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>148325005</t>
+  </si>
+  <si>
+    <t>( ALP kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>140325004</t>
+  </si>
+  <si>
+    <t>12/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>140325002</t>
+  </si>
+  <si>
+    <t>( ALT  (GPT) kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>140124030</t>
+  </si>
+  <si>
+    <t>27/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( AST (GOT) kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>140224020</t>
+  </si>
+  <si>
+    <t>21/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( CK kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>142525002</t>
+  </si>
+  <si>
+    <t>07/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( CRP kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>148925006</t>
+  </si>
+  <si>
+    <t>( D- Bill (vox) kit Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>140724025</t>
+  </si>
+  <si>
+    <t>01/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( LDH kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>142724016</t>
+  </si>
+  <si>
+    <t>23/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( LDL-C kit  Chemistry Mindray  ( Large</t>
+  </si>
+  <si>
+    <t>142025004</t>
+  </si>
+  <si>
+    <t>04/03/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( MG kit Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>148225001</t>
+  </si>
+  <si>
+    <t>19/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( T-Bill vox kit Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>140625003</t>
+  </si>
+  <si>
+    <t>06/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( TP kit Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>140825002</t>
+  </si>
+  <si>
+    <t>( UA  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>141225005</t>
+  </si>
+  <si>
+    <t>11/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HBA1C Kit 10T Clover كلوفر</t>
+  </si>
+  <si>
+    <t>EVA B25C20D08EL</t>
+  </si>
+  <si>
+    <t>07/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Ferritin Cal Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>152724011</t>
+  </si>
+  <si>
+    <t>06/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Urilyzer® Cell Cuvettes (600 PCS/BOX) analyticon</t>
+  </si>
+  <si>
+    <t>2410C700</t>
+  </si>
+  <si>
+    <t>30/10/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2410C800</t>
+  </si>
+  <si>
+    <t>30/09/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2411C300</t>
+  </si>
+  <si>
+    <t>31/10/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CombiScreen® 11SYS PLUS 150 strips per vial analyticon</t>
+  </si>
+  <si>
+    <t>2786/2010</t>
+  </si>
+  <si>
+    <t>28/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>IGRA-TB Tube 8T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA TBTVFA46</t>
+  </si>
+  <si>
+    <t>22/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Microalbumin Kit 30T Mispa i3</t>
+  </si>
+  <si>
+    <t>32411182</t>
+  </si>
+  <si>
+    <t>IgE Kit 10T Mispa i3</t>
+  </si>
+  <si>
+    <t>32503334</t>
+  </si>
+  <si>
+    <t>07/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Ceruloplasmin  Kit 10 T Mispa i3</t>
+  </si>
+  <si>
+    <t>32411265</t>
+  </si>
+  <si>
+    <t>32501322</t>
+  </si>
+  <si>
+    <t>08/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>IgM Kit 10T Mispa i3</t>
+  </si>
+  <si>
+    <t>32503014</t>
+  </si>
+  <si>
+    <t>17/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>IgA Kit 10T  Mispa i3</t>
+  </si>
+  <si>
+    <t>32501181</t>
+  </si>
+  <si>
+    <t>03/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>IgG Kit 10T Mispa i3</t>
+  </si>
+  <si>
+    <t>32503353</t>
+  </si>
+  <si>
+    <t>PCT Kit 10T Mispa i3</t>
+  </si>
+  <si>
+    <t>EVA 32506493</t>
+  </si>
+  <si>
+    <t>09/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>IFOB Neo Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA FOVBD12Z</t>
+  </si>
+  <si>
+    <t>D-DIMER NeO Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA KDUKD04EX</t>
+  </si>
+  <si>
+    <t>EVA KDULD06EX</t>
+  </si>
+  <si>
+    <t>D-DIMER NeO Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA KDVAA35X</t>
+  </si>
+  <si>
+    <t>EVA KDVAA37X</t>
+  </si>
+  <si>
+    <t>CC. M Control Chemistry Mindray level 2</t>
+  </si>
+  <si>
+    <t>059425004</t>
+  </si>
+  <si>
+    <t>31/03/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Rubella Igm Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>RMULA08EX</t>
+  </si>
+  <si>
+    <t>09/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Rubella Igg Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>RGUDA06EX</t>
+  </si>
+  <si>
+    <t>02/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CMV Igm Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>VMUDA06EX</t>
+  </si>
+  <si>
+    <t>CMV Igg Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>VGUDA06EX</t>
+  </si>
+  <si>
+    <t>HIV 1/2 Ab Kit 24T afias Boditech</t>
+  </si>
+  <si>
+    <t>HHUDA04G</t>
+  </si>
+  <si>
+    <t>18/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>AFP Neo Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA AFVBA11EX</t>
+  </si>
+  <si>
+    <t>CEA Neo Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA CEVAA09EX</t>
+  </si>
+  <si>
+    <t>CK-MB Neo Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>KCUFA09EX</t>
+  </si>
+  <si>
+    <t>Toxo igm Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>XMUDA04EX</t>
+  </si>
+  <si>
+    <t>Toxo igg Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>XGUDA04EX</t>
+  </si>
+  <si>
+    <t>ASO Kit 30T Mispa i3</t>
+  </si>
+  <si>
+    <t>32503259</t>
+  </si>
+  <si>
+    <t>RF Kit 30T Mispa i3</t>
+  </si>
+  <si>
+    <t>EVA 32506408</t>
+  </si>
+  <si>
+    <t>Myoglobin NeO Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>KMUHB03EX</t>
+  </si>
+  <si>
+    <t>12/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>UPS 1500 VA OFFLINE (NEW)</t>
+  </si>
+  <si>
+    <t>UPS 1500 VA OFFLINE (USED)</t>
+  </si>
+  <si>
+    <t>HEMATOLOGY PRINTER (NEW)</t>
+  </si>
+  <si>
+    <t>Penkid Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PEUYA05G</t>
+  </si>
+  <si>
+    <t>Ca19-9 Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>CXULA05G</t>
+  </si>
+  <si>
+    <t>08/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Daily check  (Clover A1c Plus)</t>
+  </si>
+  <si>
+    <t>PK24F27</t>
+  </si>
+  <si>
+    <t>26/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CD-80 Detergent 2L</t>
+  </si>
+  <si>
+    <t>196125093</t>
+  </si>
+  <si>
+    <t>09/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PSA NeO Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>PSUKA12EX</t>
+  </si>
+  <si>
+    <t>03/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA PSUKA12EX</t>
+  </si>
+  <si>
+    <t>CK-MB NeO Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA KCUKA07X</t>
+  </si>
+  <si>
+    <t>PSA NeO Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PSVAA17X</t>
+  </si>
+  <si>
+    <t>Mini-pipette (100 ul) pipette I-Chroma</t>
+  </si>
+  <si>
+    <t>RACK BLOCK IGRA for Afias 10</t>
+  </si>
+  <si>
+    <t>SE1-Electrolyte instrument Seamaty</t>
+  </si>
+  <si>
+    <t>PTH Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>PHUDA02EX</t>
+  </si>
+  <si>
+    <t>CA125 Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>C1UFA07EX</t>
+  </si>
+  <si>
+    <t>PTH Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PHUCA03G</t>
+  </si>
+  <si>
+    <t>13/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Free Anti-Infliximab Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>FIUCA09G</t>
+  </si>
+  <si>
+    <t>Free Anti-Adalimumab Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>FDUCA09G</t>
+  </si>
+  <si>
+    <t>Calprotectin Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>CPVCA07X</t>
+  </si>
+  <si>
+    <t>11/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CA125 Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA C1ULA05G</t>
+  </si>
+  <si>
+    <t>H.P Ab Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I02124040010</t>
+  </si>
+  <si>
+    <t>H.P Ag Cassette 25T hindering (feces)</t>
+  </si>
+  <si>
+    <t>I02124040011</t>
+  </si>
+  <si>
+    <t>syphilis Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I04424040004</t>
+  </si>
+  <si>
+    <t>Tuberculosis  (Tb) Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I06024040003</t>
+  </si>
+  <si>
+    <t>Toxo igG/IgM Cassette  25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I11424040002</t>
+  </si>
+  <si>
+    <t>CMV igG/IgM Cassette  25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I11324040003</t>
+  </si>
+  <si>
+    <t>Rubella igG/IgM Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I11024040003</t>
+  </si>
+  <si>
+    <t>HSV 1/2  igG/IgM Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I06224040003</t>
+  </si>
+  <si>
+    <t>Torch  igG/IgM combo  Cassette 25T hindering</t>
+  </si>
+  <si>
+    <t>I11724040002</t>
+  </si>
+  <si>
+    <t>Typhoid  igG/IgM Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I03524040002</t>
+  </si>
+  <si>
+    <t>HBsAg Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I09124040003</t>
+  </si>
+  <si>
+    <t>HCV  Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I09724040008</t>
+  </si>
+  <si>
+    <t>HIV 1.2 Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I09924040004</t>
+  </si>
+  <si>
+    <t>HBsAg/HCV/HIV combo Cassette 25T hindering</t>
+  </si>
+  <si>
+    <t>I10724040003</t>
+  </si>
+  <si>
+    <t>HAV IgG/IgM combo Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>I08324040001</t>
+  </si>
+  <si>
+    <t>HBV combo Cassette 25T hindering (S/P)</t>
+  </si>
+  <si>
+    <t>I09624040002</t>
+  </si>
+  <si>
+    <t>HPV  Cassette 25T hindering (Cervical swab)</t>
+  </si>
+  <si>
+    <t>T01824040002</t>
+  </si>
+  <si>
+    <t>HEV IgG/IgM  Cassette 25T hindering (S/P)</t>
+  </si>
+  <si>
+    <t>I04324040001</t>
+  </si>
+  <si>
+    <t>Rotavirus Cassette 25T hindering (feces)</t>
+  </si>
+  <si>
+    <t>I00624040002</t>
+  </si>
+  <si>
+    <t>Cardiac Troponin I (cTnI) cassette 25T  Hindering</t>
+  </si>
+  <si>
+    <t>C00124040003</t>
+  </si>
+  <si>
+    <t>Myoglobin /ck-MB/Troponin I combo Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>C00724040003</t>
+  </si>
+  <si>
+    <t>FOB Cassette 25T hindering (feces)</t>
+  </si>
+  <si>
+    <t>T00624040005</t>
+  </si>
+  <si>
+    <t>PSA  Cassette 25T hindering (WB/S/P)</t>
+  </si>
+  <si>
+    <t>T01024040002</t>
+  </si>
+  <si>
+    <t>Vitamin D  Cassette 25T hindering (WB)</t>
+  </si>
+  <si>
+    <t>O00424040002</t>
+  </si>
+  <si>
+    <t>Pregnancy (HCG)  rapid test Dipstick 50T hindering (S/P/U)</t>
+  </si>
+  <si>
+    <t>F00124040005</t>
+  </si>
+  <si>
+    <t>(Urine) Ovulation (LH )  Cassette 25T hindering</t>
+  </si>
+  <si>
+    <t>F00224040004</t>
+  </si>
+  <si>
+    <t>Calprotectin  Cassette 25T hindering (feces)</t>
+  </si>
+  <si>
+    <t>O00824040003</t>
+  </si>
+  <si>
+    <t>ABO and RhD Blood Grouping  Cassette 25T hindering (WB)</t>
+  </si>
+  <si>
+    <t>O02024040003</t>
+  </si>
+  <si>
+    <t>Pregnancy (HCG) Cassette 25T hindering (S/P.U)</t>
+  </si>
+  <si>
+    <t>F00124040006</t>
+  </si>
+  <si>
+    <t>PCT Plus G Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>PPUHB11EX</t>
+  </si>
+  <si>
+    <t>08/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PCT Plus G Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA PPULB39X</t>
+  </si>
+  <si>
+    <t>Tni NeO Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA KTVDB12EX</t>
+  </si>
+  <si>
+    <t>01/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CTD ANA Screen KIT BioCLIA 50 T</t>
+  </si>
+  <si>
+    <t>EVA  20241104</t>
+  </si>
+  <si>
+    <t>Sm IgG KIT BioCLIA 50 T HOB</t>
+  </si>
+  <si>
+    <t>20241025</t>
+  </si>
+  <si>
+    <t>Cardiolipin IgM KIT BioCLIA 50 T</t>
+  </si>
+  <si>
+    <t>EVA  20241014</t>
+  </si>
+  <si>
+    <t>ICA KIT BioCLIA 50 T HOB</t>
+  </si>
+  <si>
+    <t>20241104</t>
+  </si>
+  <si>
+    <t>IA2 KIT BioCLIA 50 T HOB</t>
+  </si>
+  <si>
+    <t>GAD KIT BioCLIA 50 T HOB</t>
+  </si>
+  <si>
+    <t>20241126</t>
+  </si>
+  <si>
+    <t>human tTG IgA KIT BioCLIA 50 T</t>
+  </si>
+  <si>
+    <t>20241028</t>
+  </si>
+  <si>
+    <t>27/10/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>human tTG IgG KIT BioCLIA 50 T</t>
+  </si>
+  <si>
+    <t>20241031</t>
+  </si>
+  <si>
+    <t>30/10/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>DGP IgA KIT BioCLIA 50 T HOB</t>
+  </si>
+  <si>
+    <t>20241105</t>
+  </si>
+  <si>
+    <t>04/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>DGP IgG kit  BioCLIA  50T HOB</t>
+  </si>
+  <si>
+    <t>20241101</t>
+  </si>
+  <si>
+    <t>AMA-M2 IgG KIT BioCLIA 50 T HOB</t>
+  </si>
+  <si>
+    <t>EVA  20241109</t>
+  </si>
+  <si>
+    <t>08/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>System wash buffer BioCLOA 1*1L</t>
+  </si>
+  <si>
+    <t>EVA  20241106</t>
+  </si>
+  <si>
+    <t>System Substrate  BioCLOA 1*600 t</t>
+  </si>
+  <si>
+    <t>EVA  20241101</t>
+  </si>
+  <si>
+    <t>BioCLIA Silicone gasket (small)</t>
+  </si>
+  <si>
+    <t>BioCLIA Silicone gasket (Large)</t>
+  </si>
+  <si>
+    <t>BioCLIA  6500 cuvettes</t>
+  </si>
+  <si>
+    <t>BioCLIA 500 cuvettes</t>
+  </si>
+  <si>
+    <t>Strawberry (f44) BioCLIA Allergy kit 50 t</t>
+  </si>
+  <si>
+    <t>20240620</t>
+  </si>
+  <si>
+    <t>19/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>ALmond(f20)  BioCLIA Allergy kit 50 t</t>
+  </si>
+  <si>
+    <t>Egg white (F1)  BioCLIA Allergy kit 50 t HOB</t>
+  </si>
+  <si>
+    <t>20240726</t>
+  </si>
+  <si>
+    <t>25/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Milk (F2)  BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Fish cod (f3)  BioCLIA Allergy kit 50 t HOB</t>
+  </si>
+  <si>
+    <t>Wheat (f4)  BioCLIA Allergy kit 50 t HOB</t>
+  </si>
+  <si>
+    <t>Sesame seed (f10) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Peanut (f13)BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Soybean(f14) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Carb(f23) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Shrimp(f 24) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Beef (F27) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Whole egg (F245) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Common ragweed (w1) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>CTD ANA Screen Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>Bos d 5 beta lactoglobulin, Milk(F77) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Sm IgG Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>Sm IgG Control level 1 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>Sm IgG Control level 2 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>Bos d 4 alpha lactalbumin, Milk(F76) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Cat dander (E1) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Dog dander (E5) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Bos d 8 Casein, Milk (F78) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>Carrot (F31) BioCLIA Allergy kit 50 T HOB</t>
+  </si>
+  <si>
+    <t>IgE Specific Cal and Control Set BioCLIA Allergy 50T HOB</t>
+  </si>
+  <si>
+    <t>20240808</t>
+  </si>
+  <si>
+    <t>Cardiolipin IgM Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>Egg yolk (F75) BioCLIA Allergy 50 HOB</t>
+  </si>
+  <si>
+    <t>Egg white, Milk, Fish(cod), Wheat, Peanut,  Soybean(Fx5) BioCLIA Allergy 50 HOB</t>
+  </si>
+  <si>
+    <t>Sesame seed, Yeast, Garlic, Celery (Fx25) BioCLIA Allergy 50 HOB</t>
+  </si>
+  <si>
+    <t>Egg white, Milk, Peanut, Mustard (Fx26) BioCLIA Allergy 50 HOB</t>
+  </si>
+  <si>
+    <t>Sesame seed, Shrimp, Beef, Kiwi(Fx28) BioCLIA Allergy 50 HOB</t>
+  </si>
+  <si>
+    <t>GAD Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>GAD Control level 1 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>GAD Control level 2 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>IA2 Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>IA2 Control level 1 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>IA2 Control level 2 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>ICA Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>ICA Control level 1 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>ICA Control level 2 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>human tTG IgA Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>human tTG IgG Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>DGP IgA Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>AMA-M2 IgG Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>AMA-M2 IgG Control level 1 BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>20241109</t>
+  </si>
+  <si>
+    <t>AMA-M2 IgG Control level 2  BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>DGP IgG Calibrator Set BioCLIA HOB</t>
+  </si>
+  <si>
+    <t>BioCLIA Allergy Specific IgE  Conjugate and Microparticle Set150 T HOB</t>
+  </si>
+  <si>
+    <t>20240605</t>
+  </si>
+  <si>
+    <t>ICL-6E Chemiluminecense immunassay analyzer Render</t>
+  </si>
+  <si>
+    <t>PTH Kit 36T Render</t>
+  </si>
+  <si>
+    <t>0592506001</t>
+  </si>
+  <si>
+    <t>06/06/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Monthly check cartridge 1 box (Clover A1c Plus)</t>
+  </si>
+  <si>
+    <t>D24G14A07DL</t>
+  </si>
+  <si>
+    <t>06/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>hs-cTnI kit 2×50T CL900i Mindray</t>
   </si>
   <si>
     <t>2024020111</t>
   </si>
   <si>
-    <t>08/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total PSA Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>15/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>13/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>17/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>AFP Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025030111</t>
-  </si>
-  <si>
-    <t>01/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Ferritin Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024040112</t>
-  </si>
-  <si>
-    <t>27/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total BHCG Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>LH Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>FSH Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>23/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Prolactin Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>16/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Progesterone Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>13/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Testosterone Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Estradiol Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024100111.</t>
-  </si>
-  <si>
-    <t>24/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Insulin Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>06/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>C-peptide Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>25/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>DHEA-S Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>12/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cortisol Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>ACTH Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024040101</t>
-  </si>
-  <si>
-    <t>TnI Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024050101</t>
-  </si>
-  <si>
-    <t>02/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2025010101</t>
-  </si>
-  <si>
-    <t>CK-MB Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024060101</t>
-  </si>
-  <si>
-    <t>06/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2025020101</t>
-  </si>
-  <si>
-    <t>BNP Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>PTH Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>05/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>VB12 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Folate Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>03/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HBsAg Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024090111</t>
-  </si>
-  <si>
-    <t>Anti-HCV Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>11/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HIV Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Substrate Solution Consumables Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024080121</t>
-  </si>
-  <si>
-    <t>12/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Thyroid Function Multi Control L 1*5ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024090211</t>
-  </si>
-  <si>
-    <t>05/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Thyroid Function Multi Control H 1*5ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Rd Multi Control H 1*5ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>03/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cardiac Marker Multi Control L 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>14/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cardiac Marker Multi Control H 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025030101</t>
-  </si>
-  <si>
-    <t>10/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Immunoassay Multi Control L 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>ACTH Control H 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024100101</t>
-  </si>
-  <si>
-    <t>21/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Metabolic Multi Control H 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>26/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HBsAg Positive Control 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Anti-HCV Positive Control 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>10/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HCV Negative Control 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Wash Buffer Consumables 1X10L Cl-900i Mindray</t>
-  </si>
-  <si>
-    <t>2025030451</t>
-  </si>
-  <si>
-    <t>03/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2025052151</t>
-  </si>
-  <si>
-    <t>20/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Immunoassay Cuvette Consumables 2*88 Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>561161523</t>
-  </si>
-  <si>
-    <t>01/01/2031 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>mderp.</t>
-  </si>
-  <si>
-    <t>Amylase kit 40T Agappe</t>
-  </si>
-  <si>
-    <t>32412013</t>
-  </si>
-  <si>
-    <t>32501120</t>
-  </si>
-  <si>
-    <t>32503003</t>
-  </si>
-  <si>
-    <t>02/03/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>NT-proBNP Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA NBUYE11E</t>
-  </si>
-  <si>
-    <t>20/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Calprotectin Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>CPTYB10Z</t>
-  </si>
-  <si>
-    <t>24/06/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA CPVBC11Z</t>
-  </si>
-  <si>
-    <t>09/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>H. Pylori SA Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA HSVCH02</t>
-  </si>
-  <si>
-    <t>AMH Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA MHUKA23G</t>
-  </si>
-  <si>
-    <t>20/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA MHVCA24G</t>
-  </si>
-  <si>
-    <t>Anti-TP kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>02/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HBc kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>25/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-TP Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>16/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total Ige Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA TEVAE08EX</t>
-  </si>
-  <si>
-    <t>ALD kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025060111</t>
-  </si>
-  <si>
-    <t>29/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>ALD Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Renin Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>15/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>04/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Renin kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>16/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>VD-T kit 2×50T Cl900i  Mindray</t>
-  </si>
-  <si>
-    <t>2024090121</t>
-  </si>
-  <si>
-    <t>ASO/CRP/RF II Triple Control L 1mL Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>059224011</t>
-  </si>
-  <si>
-    <t>ASO/CRP/RF II Triple Control H 1mL Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>Epithod 616- HBA1C Standard Cartridge  DX-Gen</t>
-  </si>
-  <si>
-    <t>Immunity igg igm kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>WHUBB20G</t>
-  </si>
-  <si>
-    <t>13/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>St2 Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>STUBB05EX</t>
-  </si>
-  <si>
-    <t>19/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>IL-6 Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA ILVCA16G</t>
-  </si>
-  <si>
-    <t>AMH Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA MHVBC06E</t>
-  </si>
-  <si>
-    <t>05/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>M-62 DR Diluent Reagent 7-part 1L Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025021851</t>
-  </si>
-  <si>
-    <t>17/02/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2025052051</t>
-  </si>
-  <si>
-    <t>19/05/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>AMH kit 2×50T with cal. CL900i Mindray</t>
-  </si>
-  <si>
-    <t>16/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>AMH (H) control cl900i Mindray</t>
-  </si>
-  <si>
-    <t>AMH (L) control cl900i Mindray</t>
-  </si>
-  <si>
-    <t>19/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-CCP plus Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA ACVAA31G</t>
-  </si>
-  <si>
-    <t>01/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total Ige Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA TEVCA13X</t>
-  </si>
-  <si>
-    <t>MXA/CRP Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA MRUKA15X</t>
-  </si>
-  <si>
-    <t>28/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA MRVAA16X</t>
-  </si>
-  <si>
-    <t>20/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Progesterone Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PGVAA10X</t>
-  </si>
-  <si>
-    <t>EVA PGVAA10X</t>
-  </si>
-  <si>
-    <t>Clover A1C plus Analyzer</t>
-  </si>
-  <si>
-    <t>Vitamin D  NeO Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA VEVAB67X</t>
-  </si>
-  <si>
-    <t>EVA VEVAB68X</t>
-  </si>
-  <si>
-    <t>14/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA VEVAB69X</t>
-  </si>
-  <si>
-    <t>G6PD Control L Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>057524006</t>
-  </si>
-  <si>
-    <t>12/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Rubella Virus IgG kit 2×50T  with cal.Cl900i  Mindray</t>
-  </si>
-  <si>
-    <t>Rubella Virus IgM kit 2×50T  with cal.Cl900i  Mindray</t>
-  </si>
-  <si>
-    <t>11/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TOXO IgG kit 2×50T with cal.Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>28/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TOXO IgM kit 2×50T with cal.Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>CMV IgM kit 2×50T with cal.Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>11/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>14/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CMV IgG kit  2×50T with cal.Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>16/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TORCH IgG positive  control</t>
-  </si>
-  <si>
-    <t>04/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TORCH IgM positive  control</t>
-  </si>
-  <si>
-    <t>rT3  Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>ZINC kit 20T Agappe</t>
-  </si>
-  <si>
-    <t>32411271</t>
-  </si>
-  <si>
-    <t>Iron kit 100T Agappe</t>
-  </si>
-  <si>
-    <t>32411254</t>
-  </si>
-  <si>
-    <t>IGRA -TB  Kit 8T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA TBVGA25G</t>
-  </si>
-  <si>
-    <t>free T4  Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA F4VEA34G</t>
-  </si>
-  <si>
-    <t>18/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Free T4 Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>F4UYC10</t>
-  </si>
-  <si>
-    <t>CA19-9 Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>CXUGA09EX</t>
-  </si>
-  <si>
-    <t>Vitamin D  Neo Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>VEUKV07E</t>
-  </si>
-  <si>
-    <t>26/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA VEVAW10E</t>
-  </si>
-  <si>
-    <t>C3 Kit 10T Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32506425</t>
-  </si>
-  <si>
-    <t>15/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CRP Kit 60T Mispa i3</t>
-  </si>
-  <si>
-    <t>32502179</t>
-  </si>
-  <si>
-    <t>29/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>D-Dimer Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>32503303</t>
-  </si>
-  <si>
-    <t>HbA1c Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>32501307</t>
-  </si>
-  <si>
-    <t>23/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA 32505422</t>
-  </si>
-  <si>
-    <t>C4 Kit 10T Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32506032</t>
-  </si>
-  <si>
-    <t>Washing solution 1*50 ml  Mispa i3</t>
-  </si>
-  <si>
-    <t>32411023</t>
-  </si>
-  <si>
-    <t>32502033</t>
-  </si>
-  <si>
-    <t>probe cleanser Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32504296</t>
-  </si>
-  <si>
-    <t>Protein  Control Level 1 (1 ml ) Mispa i3</t>
-  </si>
-  <si>
-    <t>32312202</t>
-  </si>
-  <si>
-    <t>Protein  Control Level 2 (1 ml ) Mispa i3</t>
-  </si>
-  <si>
-    <t>( ALB Kit Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>148325005</t>
-  </si>
-  <si>
-    <t>( ALP kit  Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>140325004</t>
-  </si>
-  <si>
-    <t>12/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>140325002</t>
-  </si>
-  <si>
-    <t>( ALT  (GPT) kit  Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>140124030</t>
-  </si>
-  <si>
-    <t>27/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( AST (GOT) kit  Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>140224020</t>
-  </si>
-  <si>
-    <t>21/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( CK kit  Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>142525002</t>
-  </si>
-  <si>
-    <t>07/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( CRP kit  Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>148925006</t>
-  </si>
-  <si>
-    <t>( D- Bill (vox) kit Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>140724025</t>
-  </si>
-  <si>
-    <t>01/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( LDH kit  Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>142724016</t>
-  </si>
-  <si>
-    <t>23/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( LDL-C kit  Chemistry Mindray  ( Large</t>
-  </si>
-  <si>
-    <t>142025004</t>
-  </si>
-  <si>
-    <t>04/03/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( MG kit Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>148225001</t>
-  </si>
-  <si>
-    <t>19/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( T-Bill vox kit Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>140625003</t>
-  </si>
-  <si>
-    <t>06/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( TP kit Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>140825002</t>
-  </si>
-  <si>
-    <t>( UA  Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>141225005</t>
-  </si>
-  <si>
-    <t>11/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HBA1C Kit 10T Clover كلوفر</t>
-  </si>
-  <si>
-    <t>EVA B25B06B14EL</t>
-  </si>
-  <si>
-    <t>13/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA B25C20D08EL</t>
-  </si>
-  <si>
-    <t>07/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Ferritin Cal Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>152724011</t>
-  </si>
-  <si>
-    <t>06/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Urilyzer® Cell Cuvettes (600 PCS/BOX) analyticon</t>
-  </si>
-  <si>
-    <t>2410C700</t>
-  </si>
-  <si>
-    <t>30/10/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2410C800</t>
-  </si>
-  <si>
-    <t>30/09/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2411C300</t>
-  </si>
-  <si>
-    <t>31/10/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CombiScreen® 11SYS PLUS 150 strips per vial analyticon</t>
-  </si>
-  <si>
-    <t>2786/2010</t>
-  </si>
-  <si>
-    <t>28/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>IGRA-TB Tube 8T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA TBTVFA46</t>
-  </si>
-  <si>
-    <t>22/12/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Microalbumin Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>32411182</t>
-  </si>
-  <si>
-    <t>IgE Kit 10T Mispa i3</t>
-  </si>
-  <si>
-    <t>32503334</t>
-  </si>
-  <si>
-    <t>07/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Ceruloplasmin  Kit 10 T Mispa i3</t>
-  </si>
-  <si>
-    <t>32411265</t>
-  </si>
-  <si>
-    <t>32501322</t>
-  </si>
-  <si>
-    <t>08/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>IgM Kit 10T Mispa i3</t>
-  </si>
-  <si>
-    <t>32503014</t>
-  </si>
-  <si>
-    <t>17/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>IgA Kit 10T  Mispa i3</t>
-  </si>
-  <si>
-    <t>32411067</t>
-  </si>
-  <si>
-    <t>09/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>32501181</t>
-  </si>
-  <si>
-    <t>03/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>IgG Kit 10T Mispa i3</t>
-  </si>
-  <si>
-    <t>32503353</t>
-  </si>
-  <si>
-    <t>PCT Kit 10T Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32506493</t>
-  </si>
-  <si>
-    <t>09/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>IFOB Neo Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA FOVBD12Z</t>
-  </si>
-  <si>
-    <t>D-DIMER NeO Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA KDUKD04EX</t>
-  </si>
-  <si>
-    <t>EVA KDULD06EX</t>
-  </si>
-  <si>
-    <t>D-DIMER NeO Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA KDVAA35X</t>
-  </si>
-  <si>
-    <t>EVA KDVAA37X</t>
-  </si>
-  <si>
-    <t>CC. M Control Chemistry Mindray level 2</t>
-  </si>
-  <si>
-    <t>059425004</t>
-  </si>
-  <si>
-    <t>31/03/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Rubella Igm Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>RMULA08EX</t>
-  </si>
-  <si>
-    <t>09/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Rubella Igg Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>RGUDA06EX</t>
-  </si>
-  <si>
-    <t>CMV Igm Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>VMUDA06EX</t>
-  </si>
-  <si>
-    <t>CMV Igg Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>VGUDA06EX</t>
-  </si>
-  <si>
-    <t>HIV 1/2 Ab Kit 24T afias Boditech</t>
-  </si>
-  <si>
-    <t>HHUDA04G</t>
-  </si>
-  <si>
-    <t>18/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>AFP Neo Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA AFVBA11EX</t>
-  </si>
-  <si>
-    <t>CEA Neo Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA CEVAA09EX</t>
-  </si>
-  <si>
-    <t>CK-MB Neo Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>KCUFA09EX</t>
-  </si>
-  <si>
-    <t>Toxo igm Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>XMUDA04EX</t>
-  </si>
-  <si>
-    <t>Toxo igg Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>XGUDA04EX</t>
-  </si>
-  <si>
-    <t>ASO Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>32503259</t>
-  </si>
-  <si>
-    <t>RF Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>EVA 32506408</t>
-  </si>
-  <si>
-    <t>Myoglobin NeO Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>KMUHB03EX</t>
-  </si>
-  <si>
-    <t>12/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>UPS 1500 VA OFFLINE (NEW)</t>
-  </si>
-  <si>
-    <t>UPS 1500 VA OFFLINE (USED)</t>
-  </si>
-  <si>
-    <t>HEMATOLOGY PRINTER (NEW)</t>
-  </si>
-  <si>
-    <t>Penkid Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PEUYA05G</t>
-  </si>
-  <si>
-    <t>Ca19-9 Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>CXULA05G</t>
-  </si>
-  <si>
-    <t>08/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Daily check  (Clover A1c Plus)</t>
-  </si>
-  <si>
-    <t>PK24F27</t>
-  </si>
-  <si>
-    <t>26/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CD-80 Detergent 2L</t>
-  </si>
-  <si>
-    <t>196125093</t>
-  </si>
-  <si>
-    <t>09/12/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PSA NeO Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>PSUKA12EX</t>
-  </si>
-  <si>
-    <t>EVA PSUKA12EX</t>
-  </si>
-  <si>
-    <t>CK-MB NeO Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA KCUKA07X</t>
-  </si>
-  <si>
-    <t>PSA NeO Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PSVAA17X</t>
-  </si>
-  <si>
-    <t>Mini-pipette (100 ul) pipette I-Chroma</t>
-  </si>
-  <si>
-    <t>RACK BLOCK IGRA for Afias 10</t>
-  </si>
-  <si>
-    <t>SE1-Electrolyte instrument Seamaty</t>
-  </si>
-  <si>
-    <t>PTH Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>PHUDA02EX</t>
-  </si>
-  <si>
-    <t>CA125 Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>C1UFA07EX</t>
-  </si>
-  <si>
-    <t>PTH Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PHUCA03G</t>
-  </si>
-  <si>
-    <t>13/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Free Anti-Infliximab Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>FIUCA09G</t>
-  </si>
-  <si>
-    <t>Free Anti-Adalimumab Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>FDUCA09G</t>
-  </si>
-  <si>
-    <t>Calprotectin Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>CPVCA07X</t>
-  </si>
-  <si>
-    <t>11/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CA125 Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA C1ULA05G</t>
-  </si>
-  <si>
-    <t>H.P Ab Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I02124040010</t>
-  </si>
-  <si>
-    <t>H.P Ag Cassette 25T hindering (feces)</t>
-  </si>
-  <si>
-    <t>I02124040011</t>
-  </si>
-  <si>
-    <t>syphilis Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I04424040004</t>
-  </si>
-  <si>
-    <t>Tuberculosis  (Tb) Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I06024040003</t>
-  </si>
-  <si>
-    <t>Toxo igG/IgM Cassette  25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I11424040002</t>
-  </si>
-  <si>
-    <t>CMV igG/IgM Cassette  25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I11324040003</t>
-  </si>
-  <si>
-    <t>Rubella igG/IgM Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I11024040003</t>
-  </si>
-  <si>
-    <t>HSV 1/2  igG/IgM Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I06224040003</t>
-  </si>
-  <si>
-    <t>Torch  igG/IgM combo  Cassette 25T hindering</t>
-  </si>
-  <si>
-    <t>I11724040002</t>
-  </si>
-  <si>
-    <t>Typhoid  igG/IgM Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I03524040002</t>
-  </si>
-  <si>
-    <t>HBsAg Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I09124040003</t>
-  </si>
-  <si>
-    <t>HCV  Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I09724040008</t>
-  </si>
-  <si>
-    <t>HIV 1.2 Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I09924040004</t>
-  </si>
-  <si>
-    <t>HBsAg/HCV/HIV combo Cassette 25T hindering</t>
-  </si>
-  <si>
-    <t>I10724040003</t>
-  </si>
-  <si>
-    <t>HAV IgG/IgM combo Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>I08324040001</t>
-  </si>
-  <si>
-    <t>HBV combo Cassette 25T hindering (S/P)</t>
-  </si>
-  <si>
-    <t>I09624040002</t>
-  </si>
-  <si>
-    <t>HPV  Cassette 25T hindering (Cervical swab)</t>
-  </si>
-  <si>
-    <t>T01824040002</t>
-  </si>
-  <si>
-    <t>HEV IgG/IgM  Cassette 25T hindering (S/P)</t>
-  </si>
-  <si>
-    <t>I04324040001</t>
-  </si>
-  <si>
-    <t>Rotavirus Cassette 25T hindering (feces)</t>
-  </si>
-  <si>
-    <t>I00624040002</t>
-  </si>
-  <si>
-    <t>Cardiac Troponin I (cTnI) cassette 25T  Hindering</t>
-  </si>
-  <si>
-    <t>C00124040003</t>
-  </si>
-  <si>
-    <t>Myoglobin /ck-MB/Troponin I combo Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>C00724040003</t>
-  </si>
-  <si>
-    <t>FOB Cassette 25T hindering (feces)</t>
-  </si>
-  <si>
-    <t>T00624040005</t>
-  </si>
-  <si>
-    <t>PSA  Cassette 25T hindering (WB/S/P)</t>
-  </si>
-  <si>
-    <t>T01024040002</t>
-  </si>
-  <si>
-    <t>Vitamin D  Cassette 25T hindering (WB)</t>
-  </si>
-  <si>
-    <t>O00424040002</t>
-  </si>
-  <si>
-    <t>Pregnancy (HCG)  rapid test Dipstick 50T hindering (S/P/U)</t>
-  </si>
-  <si>
-    <t>F00124040005</t>
-  </si>
-  <si>
-    <t>(Urine) Ovulation (LH )  Cassette 25T hindering</t>
-  </si>
-  <si>
-    <t>F00224040004</t>
-  </si>
-  <si>
-    <t>Calprotectin  Cassette 25T hindering (feces)</t>
-  </si>
-  <si>
-    <t>O00824040003</t>
-  </si>
-  <si>
-    <t>ABO and RhD Blood Grouping  Cassette 25T hindering (WB)</t>
-  </si>
-  <si>
-    <t>O02024040003</t>
-  </si>
-  <si>
-    <t>Pregnancy (HCG) Cassette 25T hindering (S/P.U)</t>
-  </si>
-  <si>
-    <t>F00124040006</t>
-  </si>
-  <si>
-    <t>PCT Plus G Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>PPUHB11EX</t>
-  </si>
-  <si>
-    <t>08/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PCT Plus G Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA PPULB39X</t>
-  </si>
-  <si>
-    <t>Tni NeO Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA KTVDB12EX</t>
-  </si>
-  <si>
-    <t>01/12/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CTD ANA Screen KIT BioCLIA 50 T</t>
-  </si>
-  <si>
-    <t>EVA  20241104</t>
-  </si>
-  <si>
-    <t>Sm IgG KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>20241025</t>
-  </si>
-  <si>
-    <t>Cardiolipin IgM KIT BioCLIA 50 T</t>
-  </si>
-  <si>
-    <t>EVA  20241014</t>
-  </si>
-  <si>
-    <t>β2 Glycoprotein 1 IgG KIT BioCLIA 50 T</t>
-  </si>
-  <si>
-    <t>EVA  20241008</t>
-  </si>
-  <si>
-    <t>07/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>ICA KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>20241104</t>
-  </si>
-  <si>
-    <t>IA2 KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>GAD KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>20241126</t>
-  </si>
-  <si>
-    <t>human tTG IgA KIT BioCLIA 50 T</t>
-  </si>
-  <si>
-    <t>20241028</t>
-  </si>
-  <si>
-    <t>27/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>human tTG IgG KIT BioCLIA 50 T</t>
-  </si>
-  <si>
-    <t>20241031</t>
-  </si>
-  <si>
-    <t>30/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>DGP IgA KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>20241105</t>
-  </si>
-  <si>
-    <t>04/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>DGP IgG kit  BioCLIA  50T HOB</t>
-  </si>
-  <si>
-    <t>20241101</t>
-  </si>
-  <si>
-    <t>AMA-M2 IgG KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>EVA  20241109</t>
-  </si>
-  <si>
-    <t>08/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>System wash buffer BioCLOA 1*1L</t>
-  </si>
-  <si>
-    <t>EVA  20241106</t>
-  </si>
-  <si>
-    <t>System Substrate  BioCLOA 1*600 t</t>
-  </si>
-  <si>
-    <t>EVA  20241101</t>
-  </si>
-  <si>
-    <t>Sample Diluent I  BioCLOA 100 ml</t>
-  </si>
-  <si>
-    <t>EVA  20241011</t>
-  </si>
-  <si>
-    <t>10/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>BioCLIA Silicone gasket (small)</t>
-  </si>
-  <si>
-    <t>BioCLIA Silicone gasket (Large)</t>
-  </si>
-  <si>
-    <t>BioCLIA  6500 cuvettes</t>
-  </si>
-  <si>
-    <t>BioCLIA 500 cuvettes</t>
-  </si>
-  <si>
-    <t>Strawberry (f44) BioCLIA Allergy kit 50 t</t>
-  </si>
-  <si>
-    <t>20240620</t>
-  </si>
-  <si>
-    <t>19/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>ALmond(f20)  BioCLIA Allergy kit 50 t</t>
-  </si>
-  <si>
-    <t>Egg white (F1)  BioCLIA Allergy kit 50 t HOB</t>
-  </si>
-  <si>
-    <t>20240726</t>
-  </si>
-  <si>
-    <t>25/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Milk (F2)  BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Fish cod (f3)  BioCLIA Allergy kit 50 t HOB</t>
-  </si>
-  <si>
-    <t>Wheat (f4)  BioCLIA Allergy kit 50 t HOB</t>
-  </si>
-  <si>
-    <t>Sesame seed (f10) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Peanut (f13)BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Soybean(f14) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Carb(f23) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Shrimp(f 24) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Beef (F27) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Whole egg (F245) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Common ragweed (w1) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>CTD ANA Screen Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Bos d 5 beta lactoglobulin, Milk(F77) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Sm IgG Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Sm IgG Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Sm IgG Control level 2 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Bos d 4 alpha lactalbumin, Milk(F76) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Cat dander (E1) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Dog dander (E5) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Bos d 8 Casein, Milk (F78) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>Carrot (F31) BioCLIA Allergy kit 50 T HOB</t>
-  </si>
-  <si>
-    <t>IgE Specific Cal and Control Set BioCLIA Allergy 50T HOB</t>
-  </si>
-  <si>
-    <t>20240808</t>
-  </si>
-  <si>
-    <t>Cardiolipin IgM Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Egg yolk (F75) BioCLIA Allergy 50 HOB</t>
-  </si>
-  <si>
-    <t>Egg white, Milk, Fish(cod), Wheat, Peanut,  Soybean(Fx5) BioCLIA Allergy 50 HOB</t>
-  </si>
-  <si>
-    <t>Sesame seed, Yeast, Garlic, Celery (Fx25) BioCLIA Allergy 50 HOB</t>
-  </si>
-  <si>
-    <t>β2 Glycoprotein 1 IgG Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>Egg white, Milk, Peanut, Mustard (Fx26) BioCLIA Allergy 50 HOB</t>
-  </si>
-  <si>
-    <t>Sesame seed, Shrimp, Beef, Kiwi(Fx28) BioCLIA Allergy 50 HOB</t>
-  </si>
-  <si>
-    <t>GAD Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>GAD Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>GAD Control level 2 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>IA2 Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>IA2 Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>IA2 Control level 2 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>ICA Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>ICA Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>ICA Control level 2 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>human tTG IgA Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>human tTG IgG Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>DGP IgA Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>AMA-M2 IgG Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>AMA-M2 IgG Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>20241109</t>
-  </si>
-  <si>
-    <t>AMA-M2 IgG Control level 2  BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>DGP IgG Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>BioCLIA Allergy Specific IgE  Conjugate and Microparticle Set150 T HOB</t>
-  </si>
-  <si>
-    <t>20240605</t>
-  </si>
-  <si>
-    <t>ICL-6E Chemiluminecense immunassay analyzer Render</t>
-  </si>
-  <si>
-    <t>PTH Kit 36T Render</t>
-  </si>
-  <si>
-    <t>0592506001</t>
-  </si>
-  <si>
-    <t>06/06/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Monthly check cartridge 1 box (Clover A1c Plus)</t>
-  </si>
-  <si>
-    <t>D24G14A07DL</t>
-  </si>
-  <si>
-    <t>06/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>hs-cTnI kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
     <t>NT-PROBNP kit 2×50T Cl900i Mindray</t>
   </si>
   <si>
@@ -3415,30 +3367,6 @@
   </si>
   <si>
     <t>23/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Aerobic bottle (TDR Resin Aerobic)25 bottles mindray</t>
-  </si>
-  <si>
-    <t>BCBOAK-1</t>
-  </si>
-  <si>
-    <t>Anaerobic bottle (TDR Resin Aerobic)25 bottles mindray</t>
-  </si>
-  <si>
-    <t>BCBOAF-1</t>
-  </si>
-  <si>
-    <t>05/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Aerobic bottle (peds  Aerobic culture) 25 bottles mindray</t>
-  </si>
-  <si>
-    <t>BCBOAX-1</t>
-  </si>
-  <si>
-    <t>23/01/2026 12:00:00 ص</t>
   </si>
   <si>
     <t>Lysing solution 50ml mindray</t>
@@ -4143,10 +4071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C644"/>
+  <dimension ref="A1:C631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A642" sqref="A642:E642"/>
+      <selection activeCell="A629" sqref="A629:E629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6480,21 +6408,21 @@
         <v>445</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6502,21 +6430,21 @@
         <v>448</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>434</v>
+        <v>130</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6524,40 +6452,40 @@
         <v>450</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>454</v>
@@ -6590,18 +6518,18 @@
         <v>459</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>460</v>
+        <v>307</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>462</v>
@@ -6609,21 +6537,21 @@
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="C224" s="4" t="s">
-        <v>307</v>
+        <v>464</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>466</v>
@@ -6631,24 +6559,24 @@
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6656,7 +6584,7 @@
         <v>469</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>470</v>
@@ -6664,13 +6592,13 @@
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6678,7 +6606,7 @@
         <v>473</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>474</v>
@@ -6689,65 +6617,65 @@
         <v>475</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>481</v>
+        <v>336</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="C235" s="5" t="s">
-        <v>336</v>
+        <v>485</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6755,29 +6683,29 @@
         <v>486</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>492</v>
@@ -6785,35 +6713,35 @@
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>494</v>
+        <v>88</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>497</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6821,54 +6749,54 @@
         <v>498</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>441</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>37</v>
+        <v>501</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6876,54 +6804,54 @@
         <v>505</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>195</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>511</v>
+        <v>397</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>514</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6931,10 +6859,10 @@
         <v>515</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>516</v>
+        <v>165</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6942,10 +6870,10 @@
         <v>517</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>518</v>
+        <v>68</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6953,43 +6881,43 @@
         <v>519</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>103</v>
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6997,32 +6925,32 @@
         <v>526</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>527</v>
+        <v>397</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>528</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7030,87 +6958,87 @@
         <v>531</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="C263" s="5" t="s">
-        <v>35</v>
+        <v>534</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="C265" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>545</v>
+        <v>441</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7118,87 +7046,87 @@
         <v>547</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>414</v>
+        <v>528</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>553</v>
+        <v>404</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>447</v>
+        <v>265</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7206,76 +7134,76 @@
         <v>562</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>404</v>
+        <v>564</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>404</v>
+        <v>566</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>563</v>
+        <v>265</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>567</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>569</v>
+        <v>215</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>265</v>
+        <v>577</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7283,120 +7211,120 @@
         <v>575</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>215</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>215</v>
+        <v>387</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>582</v>
+        <v>387</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>584</v>
+        <v>449</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>586</v>
+        <v>414</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>589</v>
+        <v>399</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>387</v>
+        <v>591</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>592</v>
+        <v>68</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>387</v>
+        <v>596</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>595</v>
+        <v>175</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>414</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7404,175 +7332,175 @@
         <v>598</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>399</v>
+        <v>595</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>601</v>
+        <v>491</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>68</v>
+        <v>602</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>175</v>
+        <v>511</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="C300" s="4" t="s">
-        <v>607</v>
+        <v>482</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B301" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B301" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="C301" s="5" t="s">
-        <v>608</v>
+        <v>482</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>610</v>
+        <v>0</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C303" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>516</v>
+        <v>614</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>462</v>
+        <v>152</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>462</v>
+        <v>619</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>0</v>
+        <v>621</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>621</v>
+        <v>414</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>152</v>
+        <v>458</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>627</v>
+        <v>534</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7580,15 +7508,15 @@
         <v>628</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>631</v>
@@ -7602,21 +7530,21 @@
         <v>633</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>414</v>
+        <v>634</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>634</v>
+        <v>152</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>460</v>
+        <v>637</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7624,59 +7552,59 @@
         <v>635</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>425</v>
+        <v>638</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>543</v>
+        <v>639</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>428</v>
+        <v>641</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>637</v>
+        <v>55</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>640</v>
+        <v>55</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>152</v>
+        <v>0</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>645</v>
+        <v>81</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>646</v>
@@ -7687,35 +7615,35 @@
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="C322" s="4" t="s">
-        <v>55</v>
+        <v>647</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>650</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>55</v>
+        <v>651</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7723,32 +7651,32 @@
         <v>652</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>653</v>
+        <v>408</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C326" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C327" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7756,32 +7684,32 @@
         <v>657</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>658</v>
+        <v>408</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>659</v>
+        <v>224</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>324</v>
+        <v>659</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C330" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7800,7 +7728,7 @@
         <v>663</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>664</v>
@@ -7811,10 +7739,10 @@
         <v>665</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>224</v>
+        <v>664</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7822,21 +7750,21 @@
         <v>666</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>667</v>
+        <v>626</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>399</v>
+        <v>668</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>668</v>
+        <v>172</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7844,10 +7772,10 @@
         <v>669</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>408</v>
+        <v>670</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>670</v>
+        <v>51</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7855,10 +7783,10 @@
         <v>671</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>414</v>
+        <v>672</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>672</v>
+        <v>254</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7866,131 +7794,131 @@
         <v>673</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>414</v>
+        <v>674</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>465</v>
+        <v>677</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>634</v>
+        <v>489</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>51</v>
+        <v>682</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>254</v>
+        <v>65</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>494</v>
+        <v>689</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>206</v>
+        <v>429</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>694</v>
+        <v>331</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>697</v>
+        <v>51</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7998,43 +7926,43 @@
         <v>698</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>429</v>
+        <v>215</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>702</v>
+        <v>549</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B353" s="3" t="s">
-        <v>705</v>
-      </c>
       <c r="C353" s="5" t="s">
-        <v>331</v>
+        <v>165</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8045,689 +7973,689 @@
         <v>707</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>51</v>
+        <v>639</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>215</v>
+        <v>710</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>558</v>
+        <v>348</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>165</v>
+        <v>710</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="C358" s="4" t="s">
-        <v>165</v>
+        <v>714</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>348</v>
+        <v>172</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>172</v>
+        <v>737</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>733</v>
+        <v>172</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>172</v>
+        <v>753</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>758</v>
+        <v>540</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>763</v>
+        <v>540</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>549</v>
+        <v>766</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>549</v>
+        <v>236</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>780</v>
+        <v>88</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>783</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>786</v>
+        <v>55</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>788</v>
+        <v>103</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>236</v>
+        <v>798</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>88</v>
+        <v>798</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C393" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="C393" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>55</v>
+        <v>805</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>804</v>
+        <v>55</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>807</v>
+        <v>503</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>524</v>
+        <v>798</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>524</v>
+        <v>798</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>524</v>
+        <v>392</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>816</v>
+        <v>482</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>28</v>
+        <v>822</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>508</v>
+        <v>0</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>524</v>
+        <v>0</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>524</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>392</v>
+        <v>830</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>462</v>
+        <v>833</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>0</v>
+        <v>838</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>0</v>
+        <v>840</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>0</v>
+        <v>842</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>841</v>
+        <v>0</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="C415" s="5" t="s">
-        <v>844</v>
+        <v>0</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>847</v>
+        <v>0</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8738,612 +8666,612 @@
         <v>849</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>535</v>
+        <v>664</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>535</v>
+        <v>651</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>12</v>
+        <v>854</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>65</v>
+        <v>537</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>0</v>
+        <v>858</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>0</v>
+        <v>860</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>0</v>
+        <v>863</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>672</v>
+        <v>472</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>659</v>
+        <v>472</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>864</v>
+        <v>472</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>546</v>
+        <v>472</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>546</v>
+        <v>472</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>871</v>
+        <v>472</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>841</v>
+        <v>472</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>476</v>
+        <v>924</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>476</v>
+        <v>795</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>476</v>
+        <v>929</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>476</v>
+        <v>324</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>476</v>
+        <v>611</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>934</v>
+        <v>540</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>807</v>
+        <v>589</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>549</v>
+        <v>946</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>324</v>
+        <v>949</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>619</v>
+        <v>232</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>549</v>
+        <v>232</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="C469" s="5" t="s">
-        <v>597</v>
+        <v>0</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>956</v>
+        <v>0</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C471" s="5" t="s">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>962</v>
+        <v>0</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9354,29 +9282,29 @@
         <v>964</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>232</v>
+        <v>965</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C474" s="4" t="s">
         <v>965</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B475" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="C475" s="5" t="s">
         <v>969</v>
-      </c>
-      <c r="C475" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9384,549 +9312,549 @@
         <v>970</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>232</v>
+        <v>965</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>0</v>
+        <v>964</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>0</v>
+        <v>964</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>980</v>
+        <v>931</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>981</v>
+        <v>540</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>980</v>
+        <v>933</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>981</v>
+        <v>324</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>980</v>
+        <v>933</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>981</v>
+        <v>324</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>980</v>
+        <v>933</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>981</v>
+        <v>324</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>549</v>
+        <v>969</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>985</v>
+        <v>444</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>943</v>
+        <v>964</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>324</v>
+        <v>965</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>324</v>
+        <v>611</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>943</v>
+        <v>968</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>324</v>
+        <v>969</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>984</v>
+        <v>940</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>985</v>
+        <v>589</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1008</v>
+        <v>940</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>444</v>
+        <v>589</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>981</v>
+        <v>589</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>619</v>
+        <v>540</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>984</v>
+        <v>937</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>985</v>
+        <v>540</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>984</v>
+        <v>937</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>985</v>
+        <v>540</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>984</v>
+        <v>937</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>985</v>
+        <v>540</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>948</v>
+        <v>540</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>984</v>
+        <v>937</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>985</v>
+        <v>540</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>984</v>
+        <v>942</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>985</v>
+        <v>943</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>597</v>
+        <v>946</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>597</v>
+        <v>949</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>953</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>597</v>
+        <v>954</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>950</v>
+        <v>1013</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>549</v>
+        <v>954</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>950</v>
+        <v>1013</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>549</v>
+        <v>954</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>549</v>
+        <v>232</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>950</v>
+        <v>1017</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>549</v>
+        <v>664</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="C522" s="4" t="s">
-        <v>549</v>
+        <v>0</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>950</v>
+        <v>1020</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>549</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>955</v>
+        <v>1023</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>956</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B525" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B525" s="3" t="s">
-        <v>958</v>
-      </c>
       <c r="C525" s="5" t="s">
-        <v>959</v>
+        <v>614</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9934,43 +9862,43 @@
         <v>1027</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>961</v>
+        <v>414</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>962</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>966</v>
+        <v>408</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>967</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B528" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C528" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="C528" s="4" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>967</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9978,54 +9906,54 @@
         <v>1032</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>964</v>
+        <v>1035</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C531" s="5" t="s">
-        <v>672</v>
+        <v>0</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>0</v>
+        <v>408</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1037</v>
+        <v>491</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>1038</v>
+        <v>175</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>1041</v>
+        <v>553</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10033,131 +9961,131 @@
         <v>1042</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>489</v>
+        <v>1043</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>622</v>
+        <v>686</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>414</v>
+        <v>1045</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>408</v>
+        <v>1048</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>408</v>
+        <v>1048</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B539" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="B539" s="3" t="s">
+      <c r="C539" s="5" t="s">
         <v>1049</v>
-      </c>
-      <c r="C539" s="5" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B540" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B540" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="C540" s="4" t="s">
-        <v>228</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>0</v>
+        <v>1054</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>408</v>
+        <v>1054</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1054</v>
+        <v>854</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>496</v>
+        <v>1057</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>175</v>
+        <v>854</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>1057</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>447</v>
+        <v>854</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>694</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B546" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="B546" s="1" t="s">
+      <c r="C546" s="4" t="s">
         <v>1061</v>
-      </c>
-      <c r="C546" s="4" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10165,32 +10093,32 @@
         <v>1063</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C549" s="5" t="s">
         <v>1067</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C549" s="5" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10198,10 +10126,10 @@
         <v>1068</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10212,7 +10140,7 @@
         <v>1070</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>864</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10223,7 +10151,7 @@
         <v>1070</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>864</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10234,7 +10162,7 @@
         <v>1073</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>864</v>
+        <v>395</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10245,7 +10173,7 @@
         <v>1073</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>864</v>
+        <v>395</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10253,117 +10181,117 @@
         <v>1075</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>1077</v>
+        <v>395</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>1077</v>
+        <v>395</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>1077</v>
+        <v>395</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>1077</v>
+        <v>395</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>1083</v>
+        <v>395</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1082</v>
+        <v>528</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>1083</v>
+        <v>717</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1086</v>
+        <v>1026</v>
       </c>
       <c r="C561" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C563" s="5" t="s">
         <v>1088</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C563" s="5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1089</v>
+        <v>414</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>395</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>395</v>
@@ -10371,13 +10299,13 @@
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B566" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B566" s="1" t="s">
-        <v>1089</v>
-      </c>
       <c r="C566" s="4" t="s">
-        <v>395</v>
+        <v>165</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10385,43 +10313,43 @@
         <v>1093</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C568" s="4" t="s">
-        <v>395</v>
+        <v>0</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C569" s="5" t="s">
-        <v>395</v>
+        <v>0</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>537</v>
+        <v>1098</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>725</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10429,26 +10357,26 @@
         <v>1097</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>489</v>
+        <v>1100</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>1098</v>
+        <v>429</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1101</v>
+        <v>462</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>1103</v>
@@ -10462,752 +10390,609 @@
         <v>1105</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>414</v>
+        <v>1106</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1089</v>
+        <v>1109</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>395</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>434</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>0</v>
+        <v>1117</v>
+      </c>
+      <c r="C578" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C579" s="3" t="s">
-        <v>0</v>
+        <v>1119</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1114</v>
+        <v>425</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1116</v>
+        <v>425</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>429</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>466</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>1126</v>
+        <v>770</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>206</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>304</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>65</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1142</v>
+        <v>1151</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>425</v>
+        <v>1154</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>425</v>
+        <v>1156</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>1157</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>780</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>1172</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1162</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C605" s="5" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="C607" s="5" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>1186</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1162</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>1162</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1162</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1203</v>
+        <v>1211</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>1204</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>1205</v>
+        <v>1212</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1208</v>
+        <v>1215</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>1162</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1162</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>1213</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>1214</v>
+        <v>1221</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>1162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
-        <v>1218</v>
+        <v>1225</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>1162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>1222</v>
+        <v>165</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1225</v>
+        <v>165</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C627" s="5" t="s">
-        <v>1195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A629" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B629" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="C629" s="5" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A630" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C630" s="4" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A631" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B631" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C631" s="5" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A632" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C632" s="4" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A633" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B633" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C633" s="5" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A634" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C634" s="4" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A635" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B635" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C635" s="5" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A636" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C636" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A637" s="3" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B637" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C637" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A638" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C638" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A639" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C639" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A640" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C640" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A641" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B641" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C641" s="5" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="643" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="644" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="629" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="630" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="631" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1234">
   <si>
     <t/>
   </si>
@@ -306,15 +306,15 @@
     <t>PRL Kit 25T iChroma Boditech</t>
   </si>
   <si>
+    <t>DPLUKF06</t>
+  </si>
+  <si>
+    <t>17/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>DPLUKF05</t>
   </si>
   <si>
-    <t>17/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>DPLUKF06</t>
-  </si>
-  <si>
     <t>Progesterone Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -453,12 +453,6 @@
     <t>Microalbumin Kit 25T iChroma Boditech</t>
   </si>
   <si>
-    <t>EVA MAUKF09EX</t>
-  </si>
-  <si>
-    <t>18/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>EVA MAVBG05EX</t>
   </si>
   <si>
@@ -834,9 +828,6 @@
     <t>26/05/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>BC-30s-3part Instrument Auto Hematology Mindray</t>
-  </si>
-  <si>
     <t>BA-88A Instrument Semi-Auto chemistry Mindray</t>
   </si>
   <si>
@@ -999,12 +990,6 @@
     <t>HbA1c Calibrator  Chemistry Mindray</t>
   </si>
   <si>
-    <t>155124012</t>
-  </si>
-  <si>
-    <t>03/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>155125001</t>
   </si>
   <si>
@@ -1803,6 +1788,9 @@
     <t>EVA TEVAE08EX</t>
   </si>
   <si>
+    <t>BC-10-3part Instrument used Auto Hematology Mindray</t>
+  </si>
+  <si>
     <t>ALD kit 2×50T Cl900i Mindray</t>
   </si>
   <si>
@@ -1884,12 +1872,6 @@
     <t>M-62 DR Diluent Reagent 7-part 1L Hematology Mindray</t>
   </si>
   <si>
-    <t>2025021851</t>
-  </si>
-  <si>
-    <t>17/02/2027 12:00:00 ص</t>
-  </si>
-  <si>
     <t>2025052051</t>
   </si>
   <si>
@@ -2175,6 +2157,15 @@
     <t>21/03/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>( Ca kit Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>142224012</t>
+  </si>
+  <si>
+    <t>03/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>( CK kit  Chemistry Mindray ( Large</t>
   </si>
   <si>
@@ -2325,9 +2316,6 @@
     <t>Ceruloplasmin  Kit 10 T Mispa i3</t>
   </si>
   <si>
-    <t>32411265</t>
-  </si>
-  <si>
     <t>32501322</t>
   </si>
   <si>
@@ -2469,12 +2457,6 @@
     <t>XGUDA04EX</t>
   </si>
   <si>
-    <t>ASO Kit 30T Mispa i3</t>
-  </si>
-  <si>
-    <t>32503259</t>
-  </si>
-  <si>
     <t>RF Kit 30T Mispa i3</t>
   </si>
   <si>
@@ -2490,129 +2472,126 @@
     <t>12/04/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>UPS 1500 VA OFFLINE (NEW)</t>
-  </si>
-  <si>
     <t>UPS 1500 VA OFFLINE (USED)</t>
   </si>
   <si>
     <t>HEMATOLOGY PRINTER (NEW)</t>
   </si>
   <si>
+    <t>HEMATOLOGY PRINTER (USED)</t>
+  </si>
+  <si>
     <t>Penkid Kit 24T Afias Boditech</t>
   </si>
   <si>
     <t>PEUYA05G</t>
   </si>
   <si>
-    <t>Ca19-9 Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>CXULA05G</t>
+    <t>Daily check  (Clover A1c Plus)</t>
+  </si>
+  <si>
+    <t>PK24F27</t>
+  </si>
+  <si>
+    <t>26/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CD-80 Detergent 2L</t>
+  </si>
+  <si>
+    <t>196125093</t>
+  </si>
+  <si>
+    <t>09/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PSA NeO Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>PSUKA12EX</t>
+  </si>
+  <si>
+    <t>03/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA PSUKA12EX</t>
+  </si>
+  <si>
+    <t>CK-MB NeO Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA KCUKA07X</t>
+  </si>
+  <si>
+    <t>PSA NeO Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PSVAA17X</t>
+  </si>
+  <si>
+    <t>Mini-pipette (100 ul) pipette I-Chroma</t>
+  </si>
+  <si>
+    <t>RACK BLOCK IGRA for Afias 10</t>
+  </si>
+  <si>
+    <t>SE1-Electrolyte instrument Seamaty</t>
+  </si>
+  <si>
+    <t>Mispa Plus Semi Automated Clinical Chemistry Analyser</t>
+  </si>
+  <si>
+    <t>PTH Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>PHUDA02EX</t>
+  </si>
+  <si>
+    <t>CA125 Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>C1UFA07EX</t>
+  </si>
+  <si>
+    <t>PTH Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>PHUCA03G</t>
+  </si>
+  <si>
+    <t>13/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Free Anti-Infliximab Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>FIUCA09G</t>
+  </si>
+  <si>
+    <t>Free Anti-Adalimumab Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>FDUCA09G</t>
+  </si>
+  <si>
+    <t>Calprotectin Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>CPVCA07X</t>
+  </si>
+  <si>
+    <t>11/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CA125 Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA C1ULA05G</t>
   </si>
   <si>
     <t>08/08/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>Daily check  (Clover A1c Plus)</t>
-  </si>
-  <si>
-    <t>PK24F27</t>
-  </si>
-  <si>
-    <t>26/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CD-80 Detergent 2L</t>
-  </si>
-  <si>
-    <t>196125093</t>
-  </si>
-  <si>
-    <t>09/12/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PSA NeO Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>PSUKA12EX</t>
-  </si>
-  <si>
-    <t>03/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA PSUKA12EX</t>
-  </si>
-  <si>
-    <t>CK-MB NeO Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA KCUKA07X</t>
-  </si>
-  <si>
-    <t>PSA NeO Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PSVAA17X</t>
-  </si>
-  <si>
-    <t>Mini-pipette (100 ul) pipette I-Chroma</t>
-  </si>
-  <si>
-    <t>RACK BLOCK IGRA for Afias 10</t>
-  </si>
-  <si>
-    <t>SE1-Electrolyte instrument Seamaty</t>
-  </si>
-  <si>
-    <t>PTH Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>PHUDA02EX</t>
-  </si>
-  <si>
-    <t>CA125 Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>C1UFA07EX</t>
-  </si>
-  <si>
-    <t>PTH Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>PHUCA03G</t>
-  </si>
-  <si>
-    <t>13/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Free Anti-Infliximab Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>FIUCA09G</t>
-  </si>
-  <si>
-    <t>Free Anti-Adalimumab Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>FDUCA09G</t>
-  </si>
-  <si>
-    <t>Calprotectin Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>CPVCA07X</t>
-  </si>
-  <si>
-    <t>11/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CA125 Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA C1ULA05G</t>
-  </si>
-  <si>
     <t>H.P Ab Cassette 25T hindering (WB/S/P)</t>
   </si>
   <si>
@@ -3367,6 +3346,30 @@
   </si>
   <si>
     <t>23/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Aerobic bottle (TDR Resin Aerobic)25 bottles mindray</t>
+  </si>
+  <si>
+    <t>BCBOAK-1</t>
+  </si>
+  <si>
+    <t>Anaerobic bottle (TDR Resin Aerobic)25 bottles mindray</t>
+  </si>
+  <si>
+    <t>BCBOAF-1</t>
+  </si>
+  <si>
+    <t>05/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Aerobic bottle (peds  Aerobic culture) 25 bottles mindray</t>
+  </si>
+  <si>
+    <t>BCBOAX-1</t>
+  </si>
+  <si>
+    <t>23/01/2026 12:00:00 ص</t>
   </si>
   <si>
     <t>Lysing solution 50ml mindray</t>
@@ -4071,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C631"/>
+  <dimension ref="A1:C629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A629" sqref="A629:E629"/>
+      <selection activeCell="A627" sqref="A627:E627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4546,13 +4549,13 @@
     </row>
     <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4568,35 +4571,35 @@
     </row>
     <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4604,7 +4607,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>108</v>
@@ -4612,57 +4615,57 @@
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4670,7 +4673,7 @@
         <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>124</v>
@@ -4678,13 +4681,13 @@
     </row>
     <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4692,32 +4695,32 @@
         <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4725,10 +4728,10 @@
         <v>134</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4736,7 +4739,7 @@
         <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>138</v>
@@ -4744,13 +4747,13 @@
     </row>
     <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4766,189 +4769,189 @@
     </row>
     <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4956,54 +4959,54 @@
         <v>179</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5011,54 +5014,54 @@
         <v>188</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5066,54 +5069,54 @@
         <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5121,29 +5124,29 @@
         <v>208</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>51</v>
@@ -5151,167 +5154,167 @@
     </row>
     <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5319,120 +5322,120 @@
         <v>242</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5440,32 +5443,32 @@
         <v>266</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>265</v>
+        <v>0</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>270</v>
+        <v>0</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5473,318 +5476,318 @@
         <v>271</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>0</v>
+        <v>275</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>0</v>
+        <v>278</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>293</v>
+        <v>0</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>0</v>
+        <v>303</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>307</v>
+        <v>0</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>318</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>331</v>
+        <v>0</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>333</v>
+        <v>0</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>336</v>
+        <v>0</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>0</v>
+      <c r="C155" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5792,10 +5795,10 @@
         <v>338</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>0</v>
+        <v>337</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5828,34 +5831,34 @@
         <v>342</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>152</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>152</v>
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>0</v>
@@ -5866,40 +5869,40 @@
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>348</v>
+        <v>0</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>351</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
@@ -5910,7 +5913,7 @@
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>0</v>
@@ -5921,29 +5924,29 @@
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>315</v>
+        <v>0</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>359</v>
+        <v>0</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>0</v>
@@ -5954,24 +5957,24 @@
     </row>
     <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>0</v>
+        <v>262</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>0</v>
+      <c r="C172" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5979,87 +5982,87 @@
         <v>363</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>0</v>
+        <v>366</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>265</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>318</v>
+        <v>0</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>374</v>
+        <v>0</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6067,315 +6070,315 @@
         <v>378</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>0</v>
+        <v>384</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>0</v>
+        <v>386</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>387</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>20</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>395</v>
+        <v>124</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>400</v>
+        <v>53</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>124</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>53</v>
+        <v>410</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>53</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>438</v>
+        <v>285</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>442</v>
@@ -6386,10 +6389,10 @@
         <v>443</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6397,10 +6400,10 @@
         <v>443</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>288</v>
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6408,32 +6411,32 @@
         <v>445</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>438</v>
+        <v>112</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>447</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6441,10 +6444,10 @@
         <v>448</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6452,43 +6455,43 @@
         <v>450</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>112</v>
+        <v>451</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>73</v>
+        <v>453</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>452</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6496,153 +6499,153 @@
         <v>455</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>307</v>
+        <v>461</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>472</v>
+        <v>331</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>336</v>
+        <v>483</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6650,65 +6653,65 @@
         <v>481</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>488</v>
+        <v>88</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>489</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6716,21 +6719,21 @@
         <v>493</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C241" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6738,109 +6741,109 @@
         <v>497</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>37</v>
+        <v>498</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>499</v>
+        <v>193</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>404</v>
+        <v>501</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>10</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>195</v>
+        <v>508</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>507</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>509</v>
+        <v>163</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>511</v>
+        <v>68</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>397</v>
+        <v>515</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6848,219 +6851,219 @@
         <v>514</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="C253" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>68</v>
+        <v>520</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>520</v>
+        <v>392</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>521</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>295</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>397</v>
+        <v>528</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>35</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>423</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>533</v>
+        <v>409</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>537</v>
+        <v>451</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>456</v>
+        <v>550</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>548</v>
+        <v>399</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7068,32 +7071,32 @@
         <v>552</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>404</v>
+        <v>558</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>404</v>
+        <v>559</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7101,21 +7104,21 @@
         <v>557</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>559</v>
+        <v>263</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>561</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7123,10 +7126,10 @@
         <v>562</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7134,164 +7137,164 @@
         <v>562</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>265</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>215</v>
+        <v>572</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>215</v>
+        <v>574</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>571</v>
+        <v>382</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>581</v>
+        <v>409</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>387</v>
+        <v>584</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>583</v>
+        <v>394</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>387</v>
+        <v>68</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>587</v>
+        <v>0</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>414</v>
+        <v>591</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>591</v>
+        <v>173</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>593</v>
+        <v>409</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>68</v>
+        <v>595</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7299,7 +7302,7 @@
         <v>594</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>596</v>
@@ -7310,32 +7313,32 @@
         <v>597</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>175</v>
+        <v>598</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>414</v>
+        <v>600</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>599</v>
+        <v>535</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>595</v>
+        <v>399</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>600</v>
+        <v>506</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7343,10 +7346,10 @@
         <v>601</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>491</v>
+        <v>602</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>602</v>
+        <v>477</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7354,21 +7357,21 @@
         <v>603</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>511</v>
+        <v>0</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7379,103 +7382,103 @@
         <v>606</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>482</v>
+        <v>607</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>482</v>
+        <v>610</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>0</v>
+        <v>612</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>616</v>
+        <v>409</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>152</v>
+        <v>620</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>619</v>
+        <v>453</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>621</v>
+        <v>420</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>622</v>
+        <v>529</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B309" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>626</v>
@@ -7483,101 +7486,101 @@
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>458</v>
+        <v>150</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>425</v>
+        <v>630</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>534</v>
+        <v>631</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>428</v>
+        <v>632</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>632</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>637</v>
+        <v>0</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>639</v>
+        <v>81</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="C317" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>642</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>55</v>
+        <v>641</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7585,43 +7588,43 @@
         <v>643</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>0</v>
+        <v>644</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>645</v>
+        <v>320</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>81</v>
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>646</v>
+        <v>403</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>647</v>
+        <v>301</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C322" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="C322" s="4" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7629,21 +7632,21 @@
         <v>649</v>
       </c>
       <c r="B323" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C323" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>324</v>
+        <v>222</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7651,18 +7654,18 @@
         <v>652</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>304</v>
+        <v>653</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>654</v>
@@ -7673,7 +7676,7 @@
         <v>655</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>656</v>
@@ -7684,32 +7687,32 @@
         <v>657</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>224</v>
+        <v>658</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C329" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7717,10 +7720,10 @@
         <v>661</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>408</v>
+        <v>662</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>662</v>
+        <v>170</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7728,10 +7731,10 @@
         <v>663</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>414</v>
+        <v>664</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>664</v>
+        <v>51</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7739,142 +7742,142 @@
         <v>665</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>414</v>
+        <v>666</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>664</v>
+        <v>252</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>461</v>
+        <v>668</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>172</v>
+        <v>484</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>254</v>
+        <v>676</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>675</v>
+        <v>65</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>489</v>
+        <v>680</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>682</v>
+        <v>424</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>65</v>
+        <v>688</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>686</v>
+        <v>128</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>689</v>
+        <v>326</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>429</v>
+        <v>51</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7882,87 +7885,87 @@
         <v>692</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>694</v>
+        <v>213</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>128</v>
+        <v>544</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>331</v>
+        <v>163</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B349" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="C349" s="5" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>215</v>
+        <v>633</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>549</v>
+        <v>704</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C353" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7973,172 +7976,172 @@
         <v>707</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>639</v>
+        <v>708</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>348</v>
+        <v>714</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>714</v>
+        <v>170</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>172</v>
+        <v>728</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>731</v>
+        <v>170</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>172</v>
+        <v>745</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8146,1066 +8149,1066 @@
         <v>746</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>755</v>
+        <v>535</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>540</v>
+        <v>769</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>540</v>
+        <v>763</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>773</v>
+        <v>234</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>776</v>
+        <v>88</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>766</v>
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>781</v>
+        <v>55</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>88</v>
+        <v>788</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>100</v>
+        <v>791</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>55</v>
+        <v>794</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>103</v>
+        <v>794</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>798</v>
+        <v>28</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>798</v>
+        <v>55</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>798</v>
+        <v>498</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>28</v>
+        <v>794</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>55</v>
+        <v>477</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>503</v>
+        <v>816</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>798</v>
+        <v>0</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>798</v>
+        <v>0</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C400" s="4" t="s">
-        <v>392</v>
+        <v>0</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>482</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>0</v>
+        <v>826</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>0</v>
+        <v>829</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>0</v>
+        <v>831</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>830</v>
+        <v>65</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>833</v>
+        <v>0</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="C409" s="5" t="s">
-        <v>836</v>
+        <v>0</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>839</v>
+        <v>0</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="C411" s="5" t="s">
-        <v>839</v>
+        <v>0</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>842</v>
-      </c>
       <c r="C412" s="4" t="s">
-        <v>12</v>
+        <v>658</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B413" s="3" t="s">
-        <v>844</v>
-      </c>
       <c r="C413" s="5" t="s">
-        <v>65</v>
+        <v>645</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B414" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>0</v>
+      <c r="C414" s="4" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>0</v>
+        <v>848</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>0</v>
+        <v>850</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>664</v>
+        <v>853</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>651</v>
+        <v>856</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>854</v>
+        <v>467</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>861</v>
+        <v>467</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>830</v>
+        <v>467</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>472</v>
+        <v>917</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>472</v>
+        <v>791</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>472</v>
+        <v>922</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>472</v>
+        <v>321</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>924</v>
+        <v>607</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>795</v>
+        <v>535</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>929</v>
+        <v>535</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>324</v>
+        <v>936</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>611</v>
+        <v>939</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>540</v>
+        <v>942</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>540</v>
+        <v>230</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>589</v>
+        <v>947</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>943</v>
+        <v>532</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>946</v>
+        <v>230</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="C464" s="4" t="s">
-        <v>949</v>
+        <v>0</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="C465" s="5" t="s">
-        <v>232</v>
+        <v>0</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C466" s="4" t="s">
-        <v>954</v>
+        <v>0</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9213,21 +9216,21 @@
         <v>955</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="C467" s="5" t="s">
-        <v>537</v>
+        <v>0</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="C468" s="4" t="s">
         <v>958</v>
-      </c>
-      <c r="C468" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9235,10 +9238,10 @@
         <v>959</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>0</v>
+        <v>957</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9246,43 +9249,43 @@
         <v>960</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>0</v>
+        <v>961</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>0</v>
+        <v>957</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>0</v>
+        <v>957</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9290,10 +9293,10 @@
         <v>966</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9301,461 +9304,461 @@
         <v>967</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>965</v>
+        <v>535</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>964</v>
+        <v>926</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>965</v>
+        <v>321</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>964</v>
+        <v>926</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>965</v>
+        <v>321</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>964</v>
+        <v>926</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>965</v>
+        <v>321</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>931</v>
+        <v>961</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>540</v>
+        <v>962</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>324</v>
+        <v>958</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>324</v>
+        <v>962</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>324</v>
+        <v>962</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>969</v>
+        <v>439</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>964</v>
+        <v>928</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>965</v>
+        <v>607</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>992</v>
+        <v>961</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>444</v>
+        <v>962</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>935</v>
+        <v>961</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>611</v>
+        <v>962</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>968</v>
+        <v>933</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>969</v>
+        <v>584</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>968</v>
+        <v>933</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>969</v>
+        <v>584</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>968</v>
+        <v>933</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>969</v>
+        <v>584</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>968</v>
+        <v>930</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>969</v>
+        <v>535</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>968</v>
+        <v>930</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>969</v>
+        <v>535</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>589</v>
+        <v>535</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>589</v>
+        <v>535</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>589</v>
+        <v>535</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>540</v>
+        <v>936</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>540</v>
+        <v>939</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>540</v>
+        <v>942</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>540</v>
+        <v>947</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>937</v>
+        <v>1006</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>540</v>
+        <v>947</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>942</v>
+        <v>1006</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>946</v>
+        <v>230</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B516" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B516" s="1" t="s">
-        <v>948</v>
-      </c>
       <c r="C516" s="4" t="s">
-        <v>949</v>
+        <v>658</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9763,10 +9766,10 @@
         <v>1011</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="C517" s="5" t="s">
-        <v>954</v>
+        <v>0</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9777,73 +9780,73 @@
         <v>1013</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>954</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>954</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>951</v>
+        <v>1019</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>232</v>
+        <v>610</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1017</v>
+        <v>409</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>664</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>0</v>
+        <v>403</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1020</v>
+        <v>403</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9851,153 +9854,153 @@
         <v>1025</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C525" s="5" t="s">
-        <v>614</v>
+        <v>226</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C526" s="4" t="s">
-        <v>1028</v>
+        <v>0</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1030</v>
+        <v>173</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>1034</v>
+        <v>548</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>228</v>
+        <v>680</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>0</v>
+        <v>1038</v>
+      </c>
+      <c r="C531" s="5" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>408</v>
+        <v>1041</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>491</v>
+        <v>1041</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>175</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>553</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C535" s="5" t="s">
         <v>1042</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C535" s="5" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1046</v>
+        <v>846</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B537" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="B537" s="3" t="s">
-        <v>1048</v>
-      </c>
       <c r="C537" s="5" t="s">
-        <v>1049</v>
+        <v>846</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B538" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="B538" s="1" t="s">
-        <v>1048</v>
-      </c>
       <c r="C538" s="4" t="s">
-        <v>1049</v>
+        <v>846</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10005,10 +10008,10 @@
         <v>1051</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>1049</v>
+        <v>846</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10016,43 +10019,43 @@
         <v>1052</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B541" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="B541" s="3" t="s">
+      <c r="C541" s="5" t="s">
         <v>1054</v>
-      </c>
-      <c r="C541" s="5" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B542" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C542" s="4" t="s">
         <v>1054</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>854</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10060,21 +10063,21 @@
         <v>1058</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>854</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B545" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="B545" s="3" t="s">
+      <c r="C545" s="5" t="s">
         <v>1060</v>
-      </c>
-      <c r="C545" s="5" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10082,43 +10085,43 @@
         <v>1062</v>
       </c>
       <c r="B546" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C546" s="4" t="s">
         <v>1060</v>
-      </c>
-      <c r="C546" s="4" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B547" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="B547" s="3" t="s">
+      <c r="C547" s="5" t="s">
         <v>1060</v>
-      </c>
-      <c r="C547" s="5" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>1061</v>
+        <v>390</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>1066</v>
       </c>
       <c r="C549" s="5" t="s">
-        <v>1067</v>
+        <v>390</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10129,7 +10132,7 @@
         <v>1066</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1067</v>
+        <v>390</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10137,142 +10140,142 @@
         <v>1069</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>1067</v>
+        <v>390</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1067</v>
+        <v>390</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1073</v>
+        <v>523</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>395</v>
+        <v>711</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1073</v>
+        <v>1019</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>395</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B557" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="B557" s="3" t="s">
-        <v>1073</v>
-      </c>
       <c r="C557" s="5" t="s">
-        <v>395</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>395</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1073</v>
+        <v>409</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>395</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>528</v>
+        <v>1066</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>717</v>
+        <v>390</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1026</v>
+        <v>1085</v>
       </c>
       <c r="C561" s="5" t="s">
-        <v>1082</v>
+        <v>163</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1085</v>
+        <v>429</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C563" s="5" t="s">
-        <v>1088</v>
+        <v>0</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10280,10 +10283,10 @@
         <v>1089</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C564" s="4" t="s">
-        <v>1088</v>
+        <v>0</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10291,708 +10294,686 @@
         <v>1090</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>395</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>165</v>
+        <v>424</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>0</v>
+        <v>1096</v>
+      </c>
+      <c r="C568" s="4" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C569" s="3" t="s">
-        <v>0</v>
+        <v>1099</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>429</v>
+        <v>204</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>462</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>1104</v>
+        <v>301</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1117</v>
+        <v>420</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>65</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1119</v>
+        <v>420</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>425</v>
+        <v>1127</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>425</v>
+        <v>1130</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>1130</v>
+        <v>766</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>770</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C587" s="5" t="s">
         <v>1139</v>
-      </c>
-      <c r="B587" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C587" s="5" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>1138</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>1138</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1162</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1138</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1171</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1138</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="C605" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1138</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="C607" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1189</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1138</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>1138</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1198</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1171</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>1204</v>
+        <v>1211</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1205</v>
+        <v>1212</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>1206</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1209</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>1138</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1138</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>1201</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1218</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>1138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A627" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B627" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C627" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A628" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C628" s="4" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="630" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="631" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="629" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1259">
   <si>
     <t/>
   </si>
@@ -42,9 +42,6 @@
     <t>11/07/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>EVA DT3UKG09</t>
-  </si>
-  <si>
     <t>EVA DT3VFX03</t>
   </si>
   <si>
@@ -81,30 +78,24 @@
     <t>27/07/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>AFP Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA AFUKA22X</t>
+    <t>ANTI-HBS Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA AVVBA31G</t>
+  </si>
+  <si>
+    <t>19/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>ANTI-HCV Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA CVUKA32G</t>
   </si>
   <si>
     <t>08/07/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>ANTI-HBS Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA AVVBA31G</t>
-  </si>
-  <si>
-    <t>19/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>ANTI-HCV Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA CVUKA32G</t>
-  </si>
-  <si>
     <t>CEA Kit 24T Afias Boditech</t>
   </si>
   <si>
@@ -408,15 +399,12 @@
     <t>04/08/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>EVA AAVAS07</t>
+    <t>EVA AAVAS08</t>
   </si>
   <si>
     <t>06/09/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>EVA AAVAS08</t>
-  </si>
-  <si>
     <t>LH Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -441,69 +429,66 @@
     <t>RF-IgM Kit 25T iChroma Boditech</t>
   </si>
   <si>
-    <t>RFUYG05EX</t>
+    <t>EVA RFVCG09EX</t>
+  </si>
+  <si>
+    <t>Testosterone Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>DTTUKB02</t>
+  </si>
+  <si>
+    <t>B-HCG Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA HCVAY03EX</t>
+  </si>
+  <si>
+    <t>15/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>hsCRP Kit 25T iChroma Baditech</t>
+  </si>
+  <si>
+    <t>CHUED02</t>
+  </si>
+  <si>
+    <t>27/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA CHVED06</t>
+  </si>
+  <si>
+    <t>13/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>ASO kit 100T Agappe</t>
+  </si>
+  <si>
+    <t>32411214</t>
+  </si>
+  <si>
+    <t>30/11/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Albumin kit 200T Agappe</t>
+  </si>
+  <si>
+    <t>32410292</t>
+  </si>
+  <si>
+    <t>15/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Alkaline kit 100T Agappe</t>
+  </si>
+  <si>
+    <t>32410223</t>
   </si>
   <si>
     <t>30/06/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>EVA RFVCG09EX</t>
-  </si>
-  <si>
-    <t>Testosterone Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>DTTUKB02</t>
-  </si>
-  <si>
-    <t>B-HCG Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA HCVAY03EX</t>
-  </si>
-  <si>
-    <t>15/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>hsCRP Kit 25T iChroma Baditech</t>
-  </si>
-  <si>
-    <t>CHUED02</t>
-  </si>
-  <si>
-    <t>27/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA CHVED06</t>
-  </si>
-  <si>
-    <t>13/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>ASO kit 100T Agappe</t>
-  </si>
-  <si>
-    <t>32411214</t>
-  </si>
-  <si>
-    <t>30/11/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Albumin kit 200T Agappe</t>
-  </si>
-  <si>
-    <t>32410292</t>
-  </si>
-  <si>
-    <t>15/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Alkaline kit 100T Agappe</t>
-  </si>
-  <si>
-    <t>32410223</t>
-  </si>
-  <si>
     <t>32411212</t>
   </si>
   <si>
@@ -513,6 +498,12 @@
     <t>Bilirubin T kit 200T Agappe</t>
   </si>
   <si>
+    <t>32410068.</t>
+  </si>
+  <si>
+    <t>10/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>32411206</t>
   </si>
   <si>
@@ -579,12 +570,6 @@
     <t>16/09/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>32411031</t>
-  </si>
-  <si>
-    <t>31/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>Phosphorous kit 100T Agappe</t>
   </si>
   <si>
@@ -870,6 +855,12 @@
     <t>23/04/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>144325003</t>
+  </si>
+  <si>
+    <t>21/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>RF II  Chemistry Mindray</t>
   </si>
   <si>
@@ -900,6 +891,15 @@
     <t>16/02/2027 12:00:00 ص</t>
   </si>
   <si>
+    <t>UIBC Chemistry Mindray kit with cal</t>
+  </si>
+  <si>
+    <t>146725006</t>
+  </si>
+  <si>
+    <t>29/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>Hemochroma Plus (Hb+Pcv) Instrument Boditech</t>
   </si>
   <si>
@@ -1011,15 +1011,24 @@
     <t>23/08/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>150725009</t>
+  </si>
+  <si>
     <t>Semi-cuvettes (steel ball included)/350 كيوفيت</t>
   </si>
   <si>
     <t>ماصة Pipette 10-100</t>
   </si>
   <si>
+    <t>ماصة Pipette 100-1000</t>
+  </si>
+  <si>
     <t>ماصةPipette 20-200</t>
   </si>
   <si>
+    <t>Mispa i2 Instrument agappe</t>
+  </si>
+  <si>
     <t>CYBOW 3</t>
   </si>
   <si>
@@ -1032,7 +1041,13 @@
     <t>ichamber</t>
   </si>
   <si>
-    <t>Roller Mixer عادي</t>
+    <t>IgM kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>144225002</t>
+  </si>
+  <si>
+    <t>18/12/2026 12:00:00 ص</t>
   </si>
   <si>
     <t>Lipids Calibrator Chemistry Mindray</t>
@@ -1044,6 +1059,12 @@
     <t>24/08/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>150425013</t>
+  </si>
+  <si>
+    <t>23/02/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>جهاز سنترفيوج صيني</t>
   </si>
   <si>
@@ -1068,6 +1089,12 @@
     <t>148824004</t>
   </si>
   <si>
+    <t>148825001</t>
+  </si>
+  <si>
+    <t>13/02/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>RF II cal - Mindray</t>
   </si>
   <si>
@@ -1077,6 +1104,9 @@
     <t>20/02/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>مجهر صيني</t>
+  </si>
+  <si>
     <t>Capillary tube 15ul  25/tube</t>
   </si>
   <si>
@@ -1089,6 +1119,15 @@
     <t>BC-30S-3part Instrument used Auto Hematology Mindray</t>
   </si>
   <si>
+    <t>Hba1c Control Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>052425007</t>
+  </si>
+  <si>
+    <t>15/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>i-chamber -used</t>
   </si>
   <si>
@@ -1125,6 +1164,21 @@
     <t>09/07/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>2025073051</t>
+  </si>
+  <si>
+    <t>29/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 FR Dye Reagent 7-part 12mL Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025080652</t>
+  </si>
+  <si>
+    <t>05/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>M-62 LD Lyse Reagent 7-part 1L Hematology Mindray</t>
   </si>
   <si>
@@ -1158,9 +1212,6 @@
     <t>12/01/2028 12:00:00 ص</t>
   </si>
   <si>
-    <t>مايكرو سنترفيوج</t>
-  </si>
-  <si>
     <t>حديدة فيتامين دي</t>
   </si>
   <si>
@@ -1194,10 +1245,10 @@
     <t>TSH  kit 2×50T CL900i Mindray</t>
   </si>
   <si>
-    <t>2024060121</t>
-  </si>
-  <si>
-    <t>14/10/2025 12:00:00 ص</t>
+    <t>2025020112</t>
+  </si>
+  <si>
+    <t>09/05/2026 12:00:00 ص</t>
   </si>
   <si>
     <t>Tg kit 2×50T CL900i Mindray</t>
@@ -1365,12 +1416,6 @@
     <t>14/12/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>TnI kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>07/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>CK-MB kit 2×50T CL900i Mindray</t>
   </si>
   <si>
@@ -1419,9 +1464,6 @@
     <t>2024120113</t>
   </si>
   <si>
-    <t>HIV kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
     <t>Free T3 Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
@@ -1593,6 +1635,12 @@
     <t>05/06/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>OH-25 Vitamin D Total Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>20/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>VB12 Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
@@ -1656,9 +1704,6 @@
     <t>2025030101</t>
   </si>
   <si>
-    <t>10/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>Immunoassay Multi Control L 1*2ml Cl900i Mindray</t>
   </si>
   <si>
@@ -1839,15 +1884,6 @@
     <t>Epithod 616- HBA1C Standard Cartridge  DX-Gen</t>
   </si>
   <si>
-    <t>Immunity igg igm kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>WHUBB20G</t>
-  </si>
-  <si>
-    <t>13/10/2025 12:00:00 ص</t>
-  </si>
-  <si>
     <t>St2 Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -1929,6 +1965,21 @@
     <t>EVA PGVAA10X</t>
   </si>
   <si>
+    <t>HCY II kit with cal. Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>148025011</t>
+  </si>
+  <si>
+    <t>IgE kit with cal. Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>145925003</t>
+  </si>
+  <si>
+    <t>02/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>Clover A1C plus Analyzer</t>
   </si>
   <si>
@@ -2004,6 +2055,15 @@
     <t>rT3  Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
+    <t>ESR solution  Reagent 7-part 1L Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025082551</t>
+  </si>
+  <si>
+    <t>24/08/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>ZINC kit 20T Agappe</t>
   </si>
   <si>
@@ -2145,6 +2205,12 @@
     <t>148325005</t>
   </si>
   <si>
+    <t>148325012</t>
+  </si>
+  <si>
+    <t>23/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>( ALP kit  Chemistry Mindray ( Large</t>
   </si>
   <si>
@@ -2157,6 +2223,27 @@
     <t>140325002</t>
   </si>
   <si>
+    <t>( ALT  (GPT) kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>140125016</t>
+  </si>
+  <si>
+    <t>( AST (GOT) kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>140225012</t>
+  </si>
+  <si>
+    <t>( Ca kit Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>142225003</t>
+  </si>
+  <si>
+    <t>16/04/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>( CK kit  Chemistry Mindray ( Large</t>
   </si>
   <si>
@@ -2175,19 +2262,25 @@
     <t>( D- Bill (vox) kit Chemistry Mindray ( Large</t>
   </si>
   <si>
-    <t>140724025</t>
-  </si>
-  <si>
-    <t>01/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>( LDH kit  Chemistry Mindray ( Large</t>
-  </si>
-  <si>
-    <t>142724016</t>
-  </si>
-  <si>
-    <t>23/10/2026 12:00:00 ص</t>
+    <t>140725008</t>
+  </si>
+  <si>
+    <t>03/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>( G6PD kit  Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>146625005</t>
+  </si>
+  <si>
+    <t>28/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>146625006</t>
+  </si>
+  <si>
+    <t>16/01/2027 12:00:00 ص</t>
   </si>
   <si>
     <t>( LDL-C kit  Chemistry Mindray  ( Large</t>
@@ -2208,13 +2301,19 @@
     <t>19/08/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>( Phosphorus Chemistry Mindray ( Large</t>
+  </si>
+  <si>
+    <t>142425003</t>
+  </si>
+  <si>
     <t>( T-Bill vox kit Chemistry Mindray ( Large</t>
   </si>
   <si>
-    <t>140625003</t>
-  </si>
-  <si>
-    <t>06/08/2026 12:00:00 ص</t>
+    <t>140625005</t>
+  </si>
+  <si>
+    <t>140625008</t>
   </si>
   <si>
     <t>( TP kit Chemistry Mindray ( Large</t>
@@ -2238,15 +2337,12 @@
     <t>EVA B25C20D02EL</t>
   </si>
   <si>
-    <t>EVA B25C20D08EL</t>
+    <t>EVA B25C21D08DL</t>
   </si>
   <si>
     <t>07/10/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>EVA B25C21D08DL</t>
-  </si>
-  <si>
     <t>Ferritin Cal Chemistry Mindray</t>
   </si>
   <si>
@@ -2481,6 +2577,15 @@
     <t>PEUYA05G</t>
   </si>
   <si>
+    <t>Insulin Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA INVEA06G</t>
+  </si>
+  <si>
+    <t>20/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>Ca19-9 Kit 24T Afias Boditech</t>
   </si>
   <si>
@@ -2541,6 +2646,9 @@
     <t>SE1-Electrolyte instrument Seamaty</t>
   </si>
   <si>
+    <t>Mispa Plus Semi Automated Clinical Chemistry Analyser</t>
+  </si>
+  <si>
     <t>PTH Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -2592,9 +2700,6 @@
     <t>EVA C1VFA06G</t>
   </si>
   <si>
-    <t>23/02/2027 12:00:00 ص</t>
-  </si>
-  <si>
     <t>H.P Ab Cassette 25T hindering (WB/S/P)</t>
   </si>
   <si>
@@ -2805,12 +2910,6 @@
     <t>20241025</t>
   </si>
   <si>
-    <t>Cardiolipin IgM KIT BioCLIA 50 T</t>
-  </si>
-  <si>
-    <t>EVA  20241014</t>
-  </si>
-  <si>
     <t>ICA KIT BioCLIA 50 T HOB</t>
   </si>
   <si>
@@ -2982,9 +3081,6 @@
     <t>20240808</t>
   </si>
   <si>
-    <t>Cardiolipin IgM Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
     <t>Egg yolk (F75) BioCLIA Allergy 50 HOB</t>
   </si>
   <si>
@@ -3219,30 +3315,6 @@
     <t>LKM-1 Control level 2 BioCLIA HOB</t>
   </si>
   <si>
-    <t>RF IgA Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>20241015</t>
-  </si>
-  <si>
-    <t>RF IgA  Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>RF IgA  Control level 2 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>RF Screen  KIT BioCLIA 50 T HOB</t>
-  </si>
-  <si>
-    <t>RF Screen Calibrator Set BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>RF Screen Control level 1 BioCLIA HOB</t>
-  </si>
-  <si>
-    <t>RF Screen Control level 2 BioCLIA HOB</t>
-  </si>
-  <si>
     <t>hs-cTnI Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
@@ -3274,9 +3346,6 @@
   </si>
   <si>
     <t>Growth hormone control (H) cl-900i Mindray</t>
-  </si>
-  <si>
-    <t>RF IgA KIT BioCLIA 50 T HOB</t>
   </si>
   <si>
     <t>Apo A 1 Kit 10T Mispa i3</t>
@@ -4080,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C626"/>
+  <dimension ref="A1:C630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A624" sqref="A624:E624"/>
+      <selection activeCell="A628" sqref="A628:E628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4121,139 +4190,139 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4261,29 +4330,29 @@
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>44</v>
@@ -4291,57 +4360,57 @@
     </row>
     <row r="19" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4349,29 +4418,29 @@
         <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>63</v>
@@ -4379,46 +4448,46 @@
     </row>
     <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4426,32 +4495,32 @@
         <v>73</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4459,7 +4528,7 @@
         <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>83</v>
@@ -4467,24 +4536,24 @@
     </row>
     <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4500,90 +4569,90 @@
     </row>
     <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4591,7 +4660,7 @@
         <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>111</v>
@@ -4599,57 +4668,57 @@
     </row>
     <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4657,26 +4726,26 @@
         <v>123</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>129</v>
@@ -4687,7 +4756,7 @@
     </row>
     <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>131</v>
@@ -4709,1008 +4778,1008 @@
     </row>
     <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>253</v>
+        <v>0</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>257</v>
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>260</v>
+        <v>0</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>0</v>
+        <v>276</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>273</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>287</v>
+        <v>0</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>296</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>301</v>
+        <v>0</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>313</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>17</v>
+        <v>329</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>326</v>
+        <v>0</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>329</v>
+        <v>0</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>0</v>
@@ -5721,7 +5790,7 @@
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>0</v>
@@ -5732,7 +5801,7 @@
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>0</v>
@@ -5743,29 +5812,29 @@
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>0</v>
@@ -5776,62 +5845,62 @@
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>0</v>
+        <v>341</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>344</v>
+        <v>0</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>0</v>
@@ -5842,51 +5911,51 @@
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>309</v>
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>0</v>
+        <v>356</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>0</v>
+        <v>359</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>0</v>
@@ -5897,7 +5966,7 @@
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>0</v>
@@ -5908,7 +5977,7 @@
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
@@ -5919,2246 +5988,2246 @@
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>253</v>
+        <v>0</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>360</v>
+        <v>0</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>162</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>364</v>
+        <v>0</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>367</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>0</v>
+        <v>381</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>0</v>
+        <v>384</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>22</v>
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>260</v>
+        <v>396</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>392</v>
+        <v>0</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>66</v>
+        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>400</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>403</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>413</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>340</v>
+        <v>430</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>282</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>444</v>
-      </c>
       <c r="C207" s="5" t="s">
-        <v>120</v>
+        <v>456</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>447</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>456</v>
+        <v>117</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>301</v>
+        <v>464</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>464</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>474</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>329</v>
+        <v>486</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>485</v>
+        <v>329</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>401</v>
+        <v>496</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>78</v>
+        <v>501</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>39</v>
+        <v>504</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>499</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>507</v>
+        <v>182</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>93</v>
+        <v>521</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>516</v>
+        <v>411</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>61</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>519</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>519</v>
+        <v>58</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>394</v>
+        <v>534</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>525</v>
+        <v>286</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>436</v>
+        <v>532</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>421</v>
+        <v>537</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>63</v>
+        <v>539</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>534</v>
+        <v>438</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>536</v>
+        <v>413</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>537</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>412</v>
+        <v>549</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>436</v>
+        <v>552</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>451</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>548</v>
+        <v>470</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>520</v>
+        <v>429</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>455</v>
+        <v>560</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>553</v>
+        <v>160</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>401</v>
+        <v>563</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>563</v>
+        <v>418</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>253</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>206</v>
+        <v>570</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>206</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>573</v>
+        <v>201</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>576</v>
+        <v>201</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>385</v>
+        <v>588</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>444</v>
+        <v>590</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>412</v>
+        <v>592</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>396</v>
+        <v>595</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>588</v>
+        <v>402</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>61</v>
+        <v>402</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>592</v>
+        <v>461</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>165</v>
+        <v>601</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>597</v>
+        <v>58</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>489</v>
+        <v>607</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>601</v>
+        <v>453</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>540</v>
+        <v>162</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>509</v>
+        <v>611</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>480</v>
+        <v>612</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>603</v>
+        <v>503</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>480</v>
+        <v>614</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>0</v>
+        <v>616</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>607</v>
+        <v>418</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>608</v>
+        <v>523</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>611</v>
+        <v>494</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>36</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>616</v>
+        <v>0</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>412</v>
+        <v>625</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>621</v>
+        <v>33</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>453</v>
+        <v>628</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>423</v>
+        <v>630</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>534</v>
+        <v>631</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>627</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>629</v>
+        <v>440</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>36</v>
+        <v>550</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>631</v>
+        <v>443</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>51</v>
+        <v>639</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>0</v>
+        <v>643</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>639</v>
+        <v>48</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>641</v>
+        <v>48</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>644</v>
+        <v>504</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>318</v>
+        <v>651</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>319</v>
+        <v>652</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>298</v>
+        <v>0</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>406</v>
+        <v>655</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>406</v>
+        <v>657</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>406</v>
+        <v>660</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>653</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>654</v>
+        <v>298</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>621</v>
+        <v>670</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>662</v>
+        <v>413</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>162</v>
+        <v>671</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>664</v>
+        <v>423</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>203</v>
+        <v>673</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>666</v>
+        <v>429</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>243</v>
+        <v>675</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>668</v>
+        <v>429</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>671</v>
+        <v>474</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>138</v>
+        <v>633</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>487</v>
+        <v>680</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>677</v>
+        <v>198</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>679</v>
+        <v>238</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>683</v>
+        <v>134</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>686</v>
+        <v>501</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>427</v>
+        <v>191</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>118</v>
+        <v>699</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>324</v>
+        <v>703</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>203</v>
+        <v>706</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>206</v>
+        <v>444</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>549</v>
+        <v>711</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>155</v>
+        <v>714</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>632</v>
+        <v>324</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>710</v>
+        <v>198</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>340</v>
+        <v>201</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>710</v>
+        <v>564</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>714</v>
+        <v>149</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>719</v>
+        <v>644</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>728</v>
+        <v>345</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>162</v>
+        <v>608</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>736</v>
+        <v>612</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>490</v>
+        <v>740</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>740</v>
+        <v>157</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>540</v>
+        <v>271</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>760</v>
+        <v>566</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>763</v>
+        <v>77</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>766</v>
+        <v>157</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8180,29 +8249,29 @@
         <v>771</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>760</v>
+        <v>504</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="C373" s="5" t="s">
         <v>773</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="C374" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8213,7 +8282,7 @@
         <v>778</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>78</v>
+        <v>779</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8221,95 +8290,95 @@
         <v>777</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>90</v>
+        <v>781</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>90</v>
+        <v>784</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>93</v>
+        <v>787</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>785</v>
+        <v>556</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>511</v>
+        <v>795</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>792</v>
@@ -8317,227 +8386,227 @@
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>501</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>792</v>
+        <v>87</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>792</v>
+        <v>90</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>480</v>
+        <v>817</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>0</v>
+        <v>821</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>0</v>
+        <v>823</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>0</v>
+        <v>826</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>12</v>
+        <v>824</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>825</v>
+        <v>27</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>828</v>
+        <v>48</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>831</v>
+        <v>515</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>14</v>
+        <v>824</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>679</v>
+        <v>494</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>0</v>
+        <v>845</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>0</v>
@@ -8548,7 +8617,7 @@
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>0</v>
@@ -8559,2394 +8628,2438 @@
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="C407" s="5" t="s">
-        <v>658</v>
+        <v>0</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>644</v>
+        <v>11</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>644</v>
+        <v>854</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>537</v>
+        <v>860</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>537</v>
+        <v>863</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>822</v>
+        <v>866</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>857</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>470</v>
+        <v>699</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="C417" s="5" t="s">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="C419" s="5" t="s">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>470</v>
+        <v>675</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>470</v>
+        <v>661</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>470</v>
+        <v>661</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>470</v>
+        <v>882</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>470</v>
+        <v>553</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>470</v>
+        <v>553</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>470</v>
+        <v>889</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>470</v>
+        <v>857</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>470</v>
+        <v>347</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>918</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>788</v>
+        <v>484</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>923</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>319</v>
+        <v>484</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>608</v>
+        <v>484</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>586</v>
+        <v>484</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>937</v>
+        <v>484</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>940</v>
+        <v>484</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>943</v>
+        <v>484</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>221</v>
+        <v>484</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>948</v>
+        <v>484</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>537</v>
+        <v>953</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>221</v>
+        <v>820</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>0</v>
+        <v>957</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>0</v>
+        <v>960</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>0</v>
+        <v>962</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>959</v>
+        <v>556</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>959</v>
+        <v>601</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>959</v>
+        <v>976</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>959</v>
+        <v>216</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>958</v>
+        <v>983</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>959</v>
+        <v>553</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>958</v>
+        <v>985</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>959</v>
+        <v>216</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C475" s="5" t="s">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>972</v>
+        <v>988</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>925</v>
+        <v>991</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>540</v>
+        <v>992</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>962</v>
+        <v>995</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>963</v>
+        <v>996</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>927</v>
+        <v>991</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>319</v>
+        <v>992</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>978</v>
+        <v>998</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>927</v>
+        <v>991</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>319</v>
+        <v>992</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>979</v>
+        <v>999</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>927</v>
+        <v>991</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>319</v>
+        <v>992</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>962</v>
+        <v>991</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>982</v>
+        <v>1002</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>983</v>
+        <v>1003</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>962</v>
+        <v>991</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>984</v>
+        <v>1004</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>962</v>
+        <v>991</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>439</v>
+        <v>992</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>987</v>
+        <v>1007</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>929</v>
+        <v>991</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>608</v>
+        <v>992</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>988</v>
+        <v>1008</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>963</v>
+        <v>556</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>962</v>
+        <v>995</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>963</v>
+        <v>996</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>962</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>963</v>
+        <v>319</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>991</v>
+        <v>1011</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>962</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>963</v>
+        <v>319</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>992</v>
+        <v>1012</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>962</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>963</v>
+        <v>319</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>993</v>
+        <v>1013</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>934</v>
+        <v>995</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>586</v>
+        <v>996</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>934</v>
+        <v>991</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>586</v>
+        <v>992</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>934</v>
+        <v>991</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>586</v>
+        <v>992</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>996</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>540</v>
+        <v>996</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>998</v>
+        <v>1018</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>540</v>
+        <v>456</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>931</v>
+        <v>991</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>540</v>
+        <v>992</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>540</v>
+        <v>996</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>1001</v>
+        <v>1021</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>540</v>
+        <v>996</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>936</v>
+        <v>995</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>937</v>
+        <v>996</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>939</v>
+        <v>995</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>940</v>
+        <v>996</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>942</v>
+        <v>995</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>943</v>
+        <v>996</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>948</v>
+        <v>601</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1007</v>
+        <v>967</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>948</v>
+        <v>601</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1007</v>
+        <v>967</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>948</v>
+        <v>601</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>221</v>
+        <v>556</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>1010</v>
+        <v>1029</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1011</v>
+        <v>964</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>658</v>
+        <v>556</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1014</v>
+        <v>964</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>1015</v>
+        <v>556</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1017</v>
+        <v>964</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>1018</v>
+        <v>556</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1020</v>
+        <v>964</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>412</v>
+        <v>969</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1022</v>
+        <v>970</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>406</v>
+        <v>972</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>1024</v>
+        <v>973</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>406</v>
+        <v>975</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>1024</v>
+        <v>976</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1027</v>
+        <v>980</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>1028</v>
+        <v>981</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>217</v>
+        <v>981</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>0</v>
+        <v>1039</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>406</v>
+        <v>978</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>1032</v>
+        <v>216</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>489</v>
+        <v>1043</v>
       </c>
       <c r="C525" s="5" t="s">
-        <v>165</v>
+        <v>675</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C526" s="4" t="s">
-        <v>553</v>
+        <v>0</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>683</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>1043</v>
+        <v>623</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1042</v>
+        <v>429</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1042</v>
+        <v>423</v>
       </c>
       <c r="C531" s="5" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1042</v>
+        <v>423</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>846</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>846</v>
+        <v>212</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C535" s="5" t="s">
-        <v>846</v>
+        <v>0</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1051</v>
+        <v>423</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>846</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1054</v>
+        <v>503</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>1055</v>
+        <v>162</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1055</v>
+        <v>568</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1054</v>
+        <v>1069</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>1055</v>
+        <v>703</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1054</v>
+        <v>1071</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>1055</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1059</v>
+        <v>1073</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1060</v>
+        <v>1074</v>
       </c>
       <c r="C541" s="5" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1062</v>
+        <v>1076</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1060</v>
+        <v>1074</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1063</v>
+        <v>1077</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>392</v>
+        <v>882</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>392</v>
+        <v>882</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>392</v>
+        <v>882</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1070</v>
+        <v>1084</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>392</v>
+        <v>882</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1071</v>
+        <v>1085</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1067</v>
+        <v>1086</v>
       </c>
       <c r="C549" s="5" t="s">
-        <v>392</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1067</v>
+        <v>1086</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>392</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1067</v>
+        <v>1086</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>392</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>455</v>
+        <v>1086</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>1077</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>1078</v>
+        <v>1094</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>1081</v>
+        <v>1095</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1082</v>
+        <v>1096</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>412</v>
+        <v>1096</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1067</v>
+        <v>470</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>392</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1086</v>
+        <v>1100</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1087</v>
+        <v>1052</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>155</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>1088</v>
+        <v>1102</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>432</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>1090</v>
+        <v>1105</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C560" s="1" t="s">
-        <v>0</v>
+        <v>1106</v>
+      </c>
+      <c r="C560" s="4" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>1091</v>
+        <v>1108</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>0</v>
+        <v>429</v>
+      </c>
+      <c r="C561" s="5" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1092</v>
+        <v>1109</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1093</v>
+        <v>1110</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1094</v>
+        <v>149</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>1092</v>
+        <v>1111</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1095</v>
+        <v>1112</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>1096</v>
+        <v>1113</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C564" s="4" t="s">
-        <v>460</v>
+        <v>0</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C565" s="5" t="s">
-        <v>1099</v>
+        <v>0</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1100</v>
+        <v>1115</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>1102</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>1105</v>
+        <v>444</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>196</v>
+        <v>475</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>1108</v>
+        <v>1119</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>1110</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>298</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1118</v>
+        <v>191</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>679</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>423</v>
+        <v>1137</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>423</v>
+        <v>1140</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>1127</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
-        <v>1128</v>
+        <v>1142</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1129</v>
+        <v>1143</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>1130</v>
+        <v>699</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1135</v>
+        <v>440</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>1136</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>1137</v>
+        <v>1149</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1138</v>
+        <v>440</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>763</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>1139</v>
+        <v>1151</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1143</v>
+        <v>1155</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1146</v>
+        <v>1158</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>1141</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1148</v>
+        <v>1161</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>1141</v>
+        <v>795</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>1152</v>
+        <v>1165</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1141</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1157</v>
+        <v>1171</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>1158</v>
+        <v>1172</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1159</v>
+        <v>1173</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>1141</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1160</v>
+        <v>1175</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>1163</v>
+        <v>1177</v>
       </c>
       <c r="B591" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C591" s="5" t="s">
         <v>1164</v>
-      </c>
-      <c r="C591" s="5" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>1141</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>1172</v>
+        <v>1186</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1173</v>
+        <v>1187</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>1174</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>1175</v>
+        <v>1189</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1176</v>
+        <v>1190</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1178</v>
+        <v>1192</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>1181</v>
+        <v>1195</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1182</v>
+        <v>1196</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>1183</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>1184</v>
+        <v>1198</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1185</v>
+        <v>1199</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>1186</v>
+        <v>1200</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1187</v>
+        <v>1201</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>1188</v>
+        <v>1202</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>1190</v>
+        <v>1204</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1191</v>
+        <v>1205</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>1192</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>1193</v>
+        <v>1207</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1194</v>
+        <v>1208</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>1195</v>
+        <v>1209</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1196</v>
+        <v>1210</v>
       </c>
       <c r="C605" s="5" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>1197</v>
+        <v>1211</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1198</v>
+        <v>1212</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>1199</v>
+        <v>1213</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1200</v>
+        <v>1214</v>
       </c>
       <c r="C607" s="5" t="s">
-        <v>1201</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>1202</v>
+        <v>1216</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1203</v>
+        <v>1217</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1204</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1208</v>
+        <v>1221</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1209</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1141</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>1215</v>
+        <v>1228</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1216</v>
+        <v>1229</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>1141</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>1217</v>
+        <v>1230</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1218</v>
+        <v>1231</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1204</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>1221</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>1222</v>
+        <v>1236</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>1224</v>
+        <v>1238</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1225</v>
+        <v>1239</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>1226</v>
+        <v>1240</v>
       </c>
       <c r="B618" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C618" s="4" t="s">
         <v>1227</v>
-      </c>
-      <c r="C618" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>1228</v>
+        <v>1242</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1227</v>
+        <v>1243</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>155</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1229</v>
+        <v>1245</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1227</v>
+        <v>1246</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>155</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1231</v>
+        <v>1248</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>155</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>1232</v>
+        <v>1249</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1231</v>
+        <v>1250</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A624" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C624" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A625" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C625" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A626" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C626" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A627" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C627" s="5" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="629" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="630" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -4226,7 +4226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C663"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
       <selection activeCell="A661" sqref="A661:E661"/>
     </sheetView>
   </sheetViews>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1253">
   <si>
     <t/>
   </si>
@@ -222,15 +222,12 @@
     <t>T3 Kit 24T Afias Boditech</t>
   </si>
   <si>
-    <t>EVA T3VAA38X</t>
+    <t>EVA T3VAA39X</t>
   </si>
   <si>
     <t>19/09/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>EVA T3VAA39X</t>
-  </si>
-  <si>
     <t>T4 Kit 24T Afias Boditech</t>
   </si>
   <si>
@@ -327,15 +324,12 @@
     <t>Anti-CCP Plus Kit 25T iChroma Boditech</t>
   </si>
   <si>
-    <t>ACUKD06E</t>
+    <t>EVA ACUKD06E</t>
   </si>
   <si>
     <t>21/07/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>EVA ACUKD06E</t>
-  </si>
-  <si>
     <t>Anti-HBS Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -2226,9 +2220,6 @@
     <t>EVA F4VEA35G</t>
   </si>
   <si>
-    <t>F4VEA34G</t>
-  </si>
-  <si>
     <t>Free T4 Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -2466,6 +2457,9 @@
     <t>EVA B25C21D09DL</t>
   </si>
   <si>
+    <t>EVA B25C21D10DL</t>
+  </si>
+  <si>
     <t>EVA B25D02D09EL</t>
   </si>
   <si>
@@ -2713,6 +2707,12 @@
   </si>
   <si>
     <t>PEUYA05G</t>
+  </si>
+  <si>
+    <t>Insulin Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA INVEA06G</t>
   </si>
   <si>
     <t>Ca19-9 Kit 24T Afias Boditech</t>
@@ -4131,10 +4131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C641"/>
+  <dimension ref="A1:C640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A639" sqref="A639:E639"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A638" sqref="A638:E638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4452,629 +4452,629 @@
     </row>
     <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5082,329 +5082,329 @@
         <v>190</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5412,274 +5412,274 @@
         <v>241</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>245</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>282</v>
+        <v>0</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>293</v>
+        <v>0</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5698,373 +5698,373 @@
         <v>295</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>0</v>
+        <v>296</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>0</v>
+        <v>298</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>299</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>321</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>340</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>129</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>346</v>
+        <v>0</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>0</v>
+        <v>352</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>363</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>366</v>
+        <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>277</v>
+        <v>0</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6094,32 +6094,32 @@
         <v>372</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>0</v>
+        <v>373</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>0</v>
+      <c r="C179" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6127,48 +6127,48 @@
         <v>376</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>0</v>
+        <v>379</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>380</v>
+        <v>0</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>0</v>
@@ -6179,13 +6179,13 @@
     </row>
     <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>386</v>
+        <v>0</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6193,15 +6193,15 @@
         <v>387</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>0</v>
+        <v>388</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>0</v>
@@ -6212,13 +6212,13 @@
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>391</v>
+        <v>0</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6259,15 +6259,15 @@
         <v>395</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>0</v>
+        <v>396</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>0</v>
@@ -6278,13 +6278,13 @@
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>399</v>
+        <v>0</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6292,10 +6292,10 @@
         <v>400</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6303,120 +6303,120 @@
         <v>401</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>0</v>
+        <v>402</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>281</v>
+        <v>403</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>169</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>279</v>
+        <v>0</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>426</v>
+        <v>0</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6424,362 +6424,362 @@
         <v>427</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>0</v>
+        <v>428</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>0</v>
+        <v>431</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>22</v>
+        <v>436</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>68</v>
+        <v>443</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>462</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="C224" s="4" t="s">
-        <v>346</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>469</v>
+        <v>97</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>98</v>
+        <v>475</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>380</v>
+        <v>476</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>481</v>
+        <v>291</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>293</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>493</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>121</v>
+        <v>498</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6787,106 +6787,106 @@
         <v>497</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>507</v>
+        <v>338</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>340</v>
+        <v>513</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>515</v>
@@ -6894,90 +6894,90 @@
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>526</v>
+        <v>433</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>527</v>
+        <v>299</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>301</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6985,32 +6985,32 @@
         <v>531</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>447</v>
+        <v>537</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7018,18 +7018,18 @@
         <v>536</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>537</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>539</v>
+        <v>463</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>540</v>
@@ -7037,310 +7037,310 @@
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>84</v>
+        <v>542</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>548</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>550</v>
+        <v>456</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C270" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>554</v>
+        <v>319</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>321</v>
+        <v>558</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>558</v>
+        <v>97</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>435</v>
+        <v>561</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>560</v>
+        <v>155</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>467</v>
+        <v>563</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>98</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>468</v>
+        <v>568</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>567</v>
+        <v>463</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>327</v>
+        <v>570</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>569</v>
+        <v>439</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>572</v>
+        <v>448</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>450</v>
+        <v>65</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>444</v>
+        <v>548</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>65</v>
+        <v>520</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>483</v>
+        <v>581</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>550</v>
+        <v>435</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>583</v>
+        <v>435</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>437</v>
+        <v>587</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>585</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>437</v>
+        <v>587</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>587</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>589</v>
+        <v>439</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7348,10 +7348,10 @@
         <v>590</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>589</v>
+        <v>439</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7359,98 +7359,98 @@
         <v>591</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>113</v>
+        <v>592</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>437</v>
+        <v>596</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>594</v>
+        <v>147</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="C298" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>599</v>
+        <v>490</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>600</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>598</v>
+        <v>439</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>507</v>
+        <v>243</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7458,65 +7458,65 @@
         <v>602</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>441</v>
+        <v>603</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>441</v>
+        <v>597</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>245</v>
+        <v>605</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>308</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>607</v>
+        <v>340</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>609</v>
+        <v>445</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>25</v>
+        <v>611</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>611</v>
+        <v>268</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>342</v>
+        <v>544</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7524,10 +7524,10 @@
         <v>612</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>447</v>
+        <v>613</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>613</v>
+        <v>34</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7535,10 +7535,10 @@
         <v>614</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>546</v>
+        <v>280</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7549,7 +7549,7 @@
         <v>615</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7557,10 +7557,10 @@
         <v>616</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>281</v>
+        <v>617</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7568,263 +7568,263 @@
         <v>616</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>619</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>232</v>
+        <v>620</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>232</v>
+        <v>42</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>622</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>42</v>
+        <v>626</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>42</v>
+        <v>629</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>631</v>
+        <v>429</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>633</v>
+        <v>429</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>635</v>
+        <v>465</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>431</v>
+        <v>637</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>637</v>
+        <v>490</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>431</v>
+        <v>639</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>465</v>
+        <v>647</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>645</v>
+        <v>466</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>649</v>
+        <v>490</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>468</v>
+        <v>172</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>174</v>
+        <v>653</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>655</v>
+        <v>556</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>483</v>
+        <v>658</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>657</v>
+        <v>530</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="C334" s="4" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>532</v>
+        <v>0</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7832,304 +7832,304 @@
         <v>661</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>532</v>
+        <v>31</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>31</v>
+        <v>667</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>668</v>
+        <v>480</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>669</v>
+        <v>582</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>671</v>
+        <v>474</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>121</v>
+        <v>672</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>482</v>
+        <v>674</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>584</v>
+        <v>675</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>476</v>
+        <v>677</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>674</v>
+        <v>31</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>676</v>
+        <v>435</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>677</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>31</v>
+        <v>681</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>437</v>
+        <v>683</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>103</v>
+        <v>684</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>683</v>
+        <v>59</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>686</v>
+        <v>59</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>59</v>
+        <v>535</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>59</v>
+        <v>476</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>537</v>
+        <v>0</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>0</v>
+        <v>695</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>696</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>498</v>
+        <v>697</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>81</v>
+        <v>700</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>698</v>
+        <v>453</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>701</v>
+        <v>453</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>714</v>
@@ -8137,332 +8137,332 @@
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>461</v>
+        <v>719</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>512</v>
+        <v>722</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>719</v>
+        <v>167</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>722</v>
+        <v>198</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>229</v>
+        <v>729</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>731</v>
+        <v>310</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>312</v>
+        <v>50</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>312</v>
+        <v>736</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>739</v>
+        <v>466</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>48</v>
+        <v>527</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>468</v>
+        <v>747</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>52</v>
+        <v>475</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>529</v>
+        <v>751</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>477</v>
+        <v>756</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>754</v>
+        <v>378</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>757</v>
+        <v>518</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>380</v>
+        <v>230</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>520</v>
+        <v>306</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>232</v>
+        <v>771</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>308</v>
+        <v>774</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>771</v>
+        <v>378</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8478,7 +8478,7 @@
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>776</v>
@@ -8489,68 +8489,68 @@
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>380</v>
+        <v>649</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>777</v>
+        <v>653</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>651</v>
+        <v>787</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>655</v>
+        <v>359</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>787</v>
+        <v>167</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8558,109 +8558,109 @@
         <v>788</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>361</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>169</v>
+        <v>797</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>25</v>
+        <v>802</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>800</v>
+        <v>308</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>802</v>
+        <v>167</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>169</v>
+        <v>631</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8668,120 +8668,120 @@
         <v>810</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>812</v>
+        <v>303</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>305</v>
+        <v>816</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>305</v>
+        <v>819</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>829</v>
+        <v>378</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>380</v>
+        <v>834</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8789,230 +8789,230 @@
         <v>837</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>849</v>
+        <v>243</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>836</v>
+        <v>124</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>54</v>
+        <v>860</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>50</v>
+        <v>558</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>560</v>
+        <v>865</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>867</v>
+        <v>133</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>135</v>
+        <v>875</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>874</v>
+        <v>59</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>877</v>
+        <v>549</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>59</v>
+        <v>865</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>551</v>
+        <v>768</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>867</v>
+        <v>530</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>771</v>
+        <v>83</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9020,32 +9020,32 @@
         <v>886</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>532</v>
+        <v>889</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C445" s="5" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C446" s="4" t="s">
-        <v>891</v>
+        <v>0</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9075,32 +9075,32 @@
         <v>894</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>0</v>
+        <v>895</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>0</v>
+        <v>897</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>10</v>
+        <v>900</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9108,81 +9108,81 @@
         <v>898</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>900</v>
+        <v>380</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>382</v>
+        <v>904</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>904</v>
+        <v>291</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>293</v>
+        <v>909</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>909</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>12</v>
+        <v>914</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="C458" s="4" t="s">
-        <v>914</v>
+        <v>0</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>0</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>0</v>
@@ -9204,13 +9204,13 @@
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>0</v>
+        <v>919</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9218,10 +9218,10 @@
         <v>918</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9229,54 +9229,54 @@
         <v>918</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>922</v>
+        <v>675</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="C464" s="4" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>0</v>
+        <v>926</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>702</v>
+        <v>929</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>929</v>
+        <v>37</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9284,7 +9284,7 @@
         <v>930</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>37</v>
@@ -9292,343 +9292,343 @@
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>382</v>
+        <v>520</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>522</v>
+        <v>712</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9636,59 +9636,59 @@
         <v>993</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>714</v>
+        <v>996</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>999</v>
+        <v>86</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>87</v>
+        <v>641</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C504" s="4" t="s">
-        <v>643</v>
+        <v>0</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>0</v>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>0</v>
@@ -9710,7 +9710,7 @@
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>0</v>
@@ -9721,18 +9721,18 @@
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>0</v>
+        <v>1009</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>1009</v>
@@ -9743,29 +9743,29 @@
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>1009</v>
@@ -9776,7 +9776,7 @@
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>1009</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>1009</v>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>1009</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>1009</v>
@@ -9820,7 +9820,7 @@
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>1009</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>1009</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>1009</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>1009</v>
@@ -9864,7 +9864,7 @@
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>1009</v>
@@ -9875,18 +9875,18 @@
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>1013</v>
@@ -9897,18 +9897,18 @@
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>1009</v>
@@ -9919,18 +9919,18 @@
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>1013</v>
@@ -9941,13 +9941,13 @@
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9955,26 +9955,26 @@
         <v>1032</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>1013</v>
@@ -9985,7 +9985,7 @@
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>1013</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>1013</v>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>1013</v>
@@ -10018,120 +10018,120 @@
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>1014</v>
+        <v>641</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>1003</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1003</v>
+        <v>1044</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>643</v>
+        <v>714</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C539" s="5" t="s">
-        <v>716</v>
+        <v>0</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>0</v>
+        <v>1047</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C541" s="5" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1051</v>
+        <v>797</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1053</v>
+        <v>459</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>800</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>1057</v>
@@ -10139,13 +10139,13 @@
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>455</v>
+        <v>1060</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10153,10 +10153,10 @@
         <v>1059</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>1061</v>
+        <v>243</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10164,81 +10164,81 @@
         <v>1059</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C549" s="5" t="s">
-        <v>232</v>
+        <v>0</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>0</v>
+        <v>1066</v>
+      </c>
+      <c r="C550" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1066</v>
+        <v>481</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>483</v>
+        <v>1069</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>174</v>
+        <v>768</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>771</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1072</v>
+        <v>929</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>1074</v>
@@ -10249,10 +10249,10 @@
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>929</v>
@@ -10260,7 +10260,7 @@
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>1077</v>
@@ -10271,18 +10271,18 @@
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>929</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>1080</v>
@@ -10293,10 +10293,10 @@
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C560" s="4" t="s">
         <v>1081</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>1084</v>
@@ -10315,54 +10315,54 @@
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1084</v>
+        <v>609</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>611</v>
+        <v>1089</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1089</v>
+        <v>1053</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1053</v>
+        <v>1094</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1094</v>
+        <v>459</v>
       </c>
       <c r="C566" s="4" t="s">
         <v>1095</v>
@@ -10370,18 +10370,18 @@
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C567" s="5" t="s">
-        <v>1095</v>
+        <v>0</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>0</v>
@@ -10392,13 +10392,13 @@
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C569" s="3" t="s">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10406,21 +10406,21 @@
         <v>1099</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>1101</v>
+        <v>475</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10428,205 +10428,205 @@
         <v>1103</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>513</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>1112</v>
+        <v>212</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>214</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>1117</v>
+        <v>702</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>704</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>1125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>48</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1129</v>
+        <v>480</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>482</v>
+        <v>1136</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>1146</v>
+        <v>777</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>780</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C590" s="4" t="s">
         <v>1146</v>
@@ -10634,32 +10634,32 @@
     </row>
     <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>1146</v>
@@ -10667,10 +10667,10 @@
     </row>
     <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C594" s="4" t="s">
         <v>1146</v>
@@ -10678,10 +10678,10 @@
     </row>
     <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>1146</v>
@@ -10689,43 +10689,43 @@
     </row>
     <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1146</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1169</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>1146</v>
@@ -10733,32 +10733,32 @@
     </row>
     <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1146</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>1176</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>1146</v>
@@ -10766,10 +10766,10 @@
     </row>
     <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>1146</v>
@@ -10777,32 +10777,32 @@
     </row>
     <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1146</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="C605" s="5" t="s">
-        <v>1185</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C606" s="4" t="s">
         <v>1146</v>
@@ -10810,10 +10810,10 @@
     </row>
     <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>1146</v>
@@ -10821,32 +10821,32 @@
     </row>
     <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1146</v>
+        <v>404</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>406</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C610" s="4" t="s">
         <v>1146</v>
@@ -10854,10 +10854,10 @@
     </row>
     <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>1146</v>
@@ -10865,76 +10865,76 @@
     </row>
     <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1146</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1205</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>1176</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>1213</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C618" s="4" t="s">
         <v>1146</v>
@@ -10942,43 +10942,43 @@
     </row>
     <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>1146</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1205</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>1222</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C622" s="4" t="s">
         <v>1146</v>
@@ -10986,128 +10986,128 @@
     </row>
     <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>1146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>1228</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>157</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C627" s="5" t="s">
-        <v>1233</v>
+        <v>37</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>1237</v>
       </c>
       <c r="C629" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>157</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C631" s="5" t="s">
-        <v>1241</v>
+        <v>0</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C632" s="1" t="s">
-        <v>0</v>
+        <v>1244</v>
+      </c>
+      <c r="C632" s="4" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="C633" s="5" t="s">
-        <v>1245</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>1247</v>
@@ -11118,7 +11118,7 @@
     </row>
     <row r="635" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>1247</v>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="636" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>1247</v>
@@ -11140,29 +11140,18 @@
     </row>
     <row r="637" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="C637" s="5" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A638" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C638" s="4" t="s">
-        <v>843</v>
-      </c>
-    </row>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
     <row r="639" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="640" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1146">
   <si>
     <t/>
   </si>
@@ -282,9 +282,6 @@
     <t>DPLUKF05</t>
   </si>
   <si>
-    <t>EVA DPLUKF06</t>
-  </si>
-  <si>
     <t>EVA DPLVBG01</t>
   </si>
   <si>
@@ -813,9 +810,6 @@
     <t>M-30 Diluent Reagent 3-part 20L Hematology Mindray</t>
   </si>
   <si>
-    <t>2025022555</t>
-  </si>
-  <si>
     <t>2025082351</t>
   </si>
   <si>
@@ -825,6 +819,12 @@
     <t>M-52 Diff Lyse Reagent 5-part 500ml Hematology Mindray</t>
   </si>
   <si>
+    <t>2025052351</t>
+  </si>
+  <si>
+    <t>22/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>M-52 LH Lyse Reagent 5-part 100ml Hematology Mindray</t>
   </si>
   <si>
@@ -1104,654 +1104,645 @@
     <t>Lipids Calibrator Chemistry Mindray</t>
   </si>
   <si>
-    <t>150425004</t>
+    <t>150425013</t>
+  </si>
+  <si>
+    <t>جهاز سنترفيوج صيني</t>
+  </si>
+  <si>
+    <t>Aqappe 30ml Nano Detergent</t>
+  </si>
+  <si>
+    <t>32410142</t>
+  </si>
+  <si>
+    <t>31/08/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>كرسي سحب دم</t>
+  </si>
+  <si>
+    <t>Afias-6 paper + i chroma 11</t>
+  </si>
+  <si>
+    <t>مجهر صيني</t>
+  </si>
+  <si>
+    <t>Capillary tube 15ul  25/tube</t>
+  </si>
+  <si>
+    <t>جهاز pcv عراقي</t>
+  </si>
+  <si>
+    <t>BC-10-3part Instrument Auto Hematology Mindray</t>
+  </si>
+  <si>
+    <t>BC-30S-3part Instrument used Auto Hematology Mindray</t>
+  </si>
+  <si>
+    <t>Hba1c Control Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>052425007</t>
+  </si>
+  <si>
+    <t>15/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Semi-auto BA-88A used</t>
+  </si>
+  <si>
+    <t>Cuvette BS230 Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>Creatinine kit  Chemistry Mindray</t>
+  </si>
+  <si>
+    <t>141125016</t>
+  </si>
+  <si>
+    <t>23/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 FN Dye Reagent 7-part 12mL Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025061351</t>
+  </si>
+  <si>
+    <t>12/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 FD Dye Reagent 7-part 12mL Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025073051</t>
+  </si>
+  <si>
+    <t>29/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 FR Dye Reagent 7-part 12mL Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025080652</t>
+  </si>
+  <si>
+    <t>05/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 LD Lyse Reagent 7-part 1L Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025050651</t>
+  </si>
+  <si>
+    <t>05/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 LH Lyse Reagent 7-part 1L Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025050951</t>
+  </si>
+  <si>
+    <t>08/05/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>M-62 DS Diluent Reagent 7-part 20L Hematology Mindray</t>
+  </si>
+  <si>
+    <t>2025051651</t>
+  </si>
+  <si>
+    <t>HbA1c 5ul micro capillary tube</t>
+  </si>
+  <si>
+    <t>CP05TAA01</t>
+  </si>
+  <si>
+    <t>12/01/2028 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>مايكرو سنترفيوج</t>
+  </si>
+  <si>
+    <t>حديدة فيتامين دي</t>
+  </si>
+  <si>
+    <t>FT4 kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025020113</t>
+  </si>
+  <si>
+    <t>18/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>T3 kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024100113</t>
+  </si>
+  <si>
+    <t>T4 kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025010111</t>
+  </si>
+  <si>
+    <t>TSH  kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>2025060111</t>
+  </si>
+  <si>
+    <t>18/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Tg kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>Anti-Tg kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>2025070111</t>
+  </si>
+  <si>
+    <t>08/03/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-TPO kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>2025050111</t>
+  </si>
+  <si>
+    <t>10/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>T-PSA kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>2025010112</t>
+  </si>
+  <si>
+    <t>05/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Ferritin  kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>06/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total β HCG kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025010121</t>
+  </si>
+  <si>
+    <t>LH  kit 2×50T Cl900i Mindray</t>
   </si>
   <si>
     <t>24/08/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>150425013</t>
-  </si>
-  <si>
-    <t>جهاز سنترفيوج صيني</t>
-  </si>
-  <si>
-    <t>Aqappe 30ml Nano Detergent</t>
-  </si>
-  <si>
-    <t>32410142</t>
-  </si>
-  <si>
-    <t>31/08/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>كرسي سحب دم</t>
-  </si>
-  <si>
-    <t>Afias-6 paper + i chroma 11</t>
-  </si>
-  <si>
-    <t>مجهر صيني</t>
-  </si>
-  <si>
-    <t>Capillary tube 15ul  25/tube</t>
-  </si>
-  <si>
-    <t>جهاز pcv عراقي</t>
-  </si>
-  <si>
-    <t>BC-10-3part Instrument Auto Hematology Mindray</t>
-  </si>
-  <si>
-    <t>BC-30S-3part Instrument used Auto Hematology Mindray</t>
-  </si>
-  <si>
-    <t>Hba1c Control Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>052425007</t>
-  </si>
-  <si>
-    <t>15/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Semi-auto BA-88A used</t>
-  </si>
-  <si>
-    <t>Cuvette BS230 Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>Creatinine kit  Chemistry Mindray</t>
-  </si>
-  <si>
-    <t>141125016</t>
-  </si>
-  <si>
-    <t>23/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>M-62 FN Dye Reagent 7-part 12mL Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025061351</t>
-  </si>
-  <si>
-    <t>12/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>M-62 FD Dye Reagent 7-part 12mL Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025073051</t>
-  </si>
-  <si>
-    <t>29/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>M-62 FR Dye Reagent 7-part 12mL Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025080652</t>
-  </si>
-  <si>
-    <t>05/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>M-62 LD Lyse Reagent 7-part 1L Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025050651</t>
-  </si>
-  <si>
-    <t>05/05/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>M-62 LH Lyse Reagent 7-part 1L Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025050951</t>
-  </si>
-  <si>
-    <t>08/05/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>M-62 DS Diluent Reagent 7-part 20L Hematology Mindray</t>
-  </si>
-  <si>
-    <t>2025051651</t>
-  </si>
-  <si>
-    <t>HbA1c 5ul micro capillary tube</t>
-  </si>
-  <si>
-    <t>CP05TAA01</t>
-  </si>
-  <si>
-    <t>12/01/2028 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>مايكرو سنترفيوج</t>
-  </si>
-  <si>
-    <t>حديدة فيتامين دي</t>
-  </si>
-  <si>
-    <t>FT4 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025020113</t>
-  </si>
-  <si>
-    <t>18/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>T3 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024100113</t>
-  </si>
-  <si>
-    <t>T4 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025010111</t>
-  </si>
-  <si>
-    <t>TSH  kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>2025060111</t>
-  </si>
-  <si>
-    <t>18/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Tg kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>Anti-Tg kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>2025070111</t>
-  </si>
-  <si>
-    <t>08/03/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-TPO kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>2025050111</t>
-  </si>
-  <si>
-    <t>10/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>T-PSA kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>2025010112</t>
-  </si>
-  <si>
-    <t>05/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>AFP  kit 2×50T Cl-900i Mindray</t>
+    <t>FSH kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024110111</t>
+  </si>
+  <si>
+    <t>02/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PRL kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024080111</t>
+  </si>
+  <si>
+    <t>25/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2025030111</t>
+  </si>
+  <si>
+    <t>Free T3 kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>2025060112</t>
+  </si>
+  <si>
+    <t>28/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>TESTO kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025040111</t>
+  </si>
+  <si>
+    <t>29/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>E2 kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>11/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Insulin kit 2×50T Cl900 Mindray</t>
+  </si>
+  <si>
+    <t>C-Peptide kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>26/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>DHEA-S kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>09/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2024120111</t>
+  </si>
+  <si>
+    <t>02/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cortisol kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>09/03/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CK-MB kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>14/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PTH kit 2×50T Cl900i  Mindray</t>
+  </si>
+  <si>
+    <t>2025040112</t>
+  </si>
+  <si>
+    <t>19/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Folate kit 50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>HBs Ag kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024090141</t>
+  </si>
+  <si>
+    <t>13/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-HCV  kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>18/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>03/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HIV kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Free T3 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024100111</t>
+  </si>
+  <si>
+    <t>01/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Free T4 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>01/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total T3 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024050111</t>
+  </si>
+  <si>
+    <t>15/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>19/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total T4 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>27/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-TPO Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>02/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total PSA Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>17/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>AFP Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>01/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Ferritin Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Total BHCG Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>FSH Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>22/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Prolactin Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>16/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Progesterone Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024070111</t>
+  </si>
+  <si>
+    <t>13/02/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Testosterone Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025020111</t>
+  </si>
+  <si>
+    <t>Estradiol Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>24/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2024100111.</t>
+  </si>
+  <si>
+    <t>Insulin Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>C-peptide Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>25/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>DHEA-S Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>12/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cortisol Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>TnI Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025010101</t>
+  </si>
+  <si>
+    <t>12/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CK-MB Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025020101</t>
+  </si>
+  <si>
+    <t>BNP Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024060101</t>
+  </si>
+  <si>
+    <t>06/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PTH Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>05/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>OH-25 Vitamin D Total Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>26/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>VB12 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>17/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Folate Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>29/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HBsAg Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Anti-HCV Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>HIV Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Substrate Solution Consumables Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>02/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Thyroid Function Multi Control L 1*5ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025060211</t>
+  </si>
+  <si>
+    <t>Thyroid Function Multi Control H 1*5ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Tumor Marker Multi Control L 1*5ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Tumor Marker Multi Control H 1*5ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Rd Multi Control L 1*5ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>09/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cardiac Marker Multi Control L 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025030101</t>
+  </si>
+  <si>
+    <t>Cardiac Marker Multi Control H 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Immunoassay Multi Control L 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>ACTH Control H 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024100101</t>
+  </si>
+  <si>
+    <t>21/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HBsAg Positive Control 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024090111</t>
+  </si>
+  <si>
+    <t>Anti-HCV Positive Control 1*2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>10/12/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Wash Buffer Consumables 1X10L Cl-900i Mindray</t>
+  </si>
+  <si>
+    <t>Immunoassay Cuvette Consumables 2*88 Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>01/01/2031 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>531351125</t>
+  </si>
+  <si>
+    <t>01/01/2032 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Amylase kit 40T Agappe</t>
+  </si>
+  <si>
+    <t>32412013</t>
+  </si>
+  <si>
+    <t>32501120</t>
+  </si>
+  <si>
+    <t>32503003</t>
+  </si>
+  <si>
+    <t>02/03/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Lipase kit 25T Agappe</t>
+  </si>
+  <si>
+    <t>32410226</t>
+  </si>
+  <si>
+    <t>32411191</t>
+  </si>
+  <si>
+    <t>NT-proBNP Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA NBUYE11E</t>
+  </si>
+  <si>
+    <t>20/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Calprotectin Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>CPTYB10Z</t>
+  </si>
+  <si>
+    <t>24/06/2025 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>EVA CPVBC11Z</t>
+  </si>
+  <si>
+    <t>09/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>H. Pylori SA Kit 25T iChroma Boditech</t>
+  </si>
+  <si>
+    <t>EVA HSVCH02</t>
+  </si>
+  <si>
+    <t>AMH Kit 24T Afias Boditech</t>
+  </si>
+  <si>
+    <t>EVA MHVCA24G</t>
+  </si>
+  <si>
+    <t>Anti-TP kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>02/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>MYO kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>09/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-HBs Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
     <t>2024040111</t>
   </si>
   <si>
-    <t>05/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Ferritin  kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>06/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total β HCG kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025010121</t>
-  </si>
-  <si>
-    <t>LH  kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>FSH kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024110111</t>
-  </si>
-  <si>
-    <t>02/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PRL kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024080111</t>
-  </si>
-  <si>
-    <t>25/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2025030111</t>
-  </si>
-  <si>
-    <t>Free T3 kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>2025060112</t>
-  </si>
-  <si>
-    <t>28/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TESTO kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025040111</t>
-  </si>
-  <si>
-    <t>29/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>E2 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>11/12/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Insulin kit 2×50T Cl900 Mindray</t>
-  </si>
-  <si>
-    <t>C-Peptide kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>26/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>DHEA-S kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>09/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2024120111</t>
-  </si>
-  <si>
-    <t>02/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cortisol kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>09/03/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TnI kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>07/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CK-MB kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>14/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PTH kit 2×50T Cl900i  Mindray</t>
-  </si>
-  <si>
-    <t>2025040112</t>
-  </si>
-  <si>
-    <t>19/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Folate kit 50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>HBs Ag kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024090141</t>
-  </si>
-  <si>
-    <t>13/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HCV  kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>18/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>03/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HIV kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Free T3 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024100111</t>
-  </si>
-  <si>
-    <t>01/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Free T4 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>01/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total T3 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024050111</t>
-  </si>
-  <si>
-    <t>15/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total T4 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>27/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-TPO Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>02/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total PSA Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>17/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>AFP Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>01/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Ferritin Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Total BHCG Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>FSH Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>22/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Prolactin Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>16/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Progesterone Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024070111</t>
-  </si>
-  <si>
-    <t>13/02/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Testosterone Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025020111</t>
-  </si>
-  <si>
-    <t>Estradiol Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>24/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2024100111.</t>
-  </si>
-  <si>
-    <t>Insulin Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>C-peptide Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>25/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>DHEA-S Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>12/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cortisol Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>TnI Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025010101</t>
-  </si>
-  <si>
-    <t>12/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CK-MB Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025020101</t>
-  </si>
-  <si>
-    <t>BNP Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024060101</t>
-  </si>
-  <si>
-    <t>06/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PTH Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>05/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>OH-25 Vitamin D Total Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>26/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>VB12 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>17/12/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Folate Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>29/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HBsAg Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Anti-HCV Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>HIV Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Substrate Solution Consumables Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>02/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Thyroid Function Multi Control L 1*5ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025060211</t>
-  </si>
-  <si>
-    <t>Thyroid Function Multi Control H 1*5ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Tumor Marker Multi Control L 1*5ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Tumor Marker Multi Control H 1*5ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Rd Multi Control L 1*5ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>09/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cardiac Marker Multi Control L 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025030101</t>
-  </si>
-  <si>
-    <t>Cardiac Marker Multi Control H 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Immunoassay Multi Control L 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>ACTH Control H 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024100101</t>
-  </si>
-  <si>
-    <t>21/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HBsAg Positive Control 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024090111</t>
-  </si>
-  <si>
-    <t>Anti-HCV Positive Control 1*2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>10/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Wash Buffer Consumables 1X10L Cl-900i Mindray</t>
-  </si>
-  <si>
-    <t>2025052351</t>
-  </si>
-  <si>
-    <t>Immunoassay Cuvette Consumables 2*88 Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>01/01/2031 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Amylase kit 40T Agappe</t>
-  </si>
-  <si>
-    <t>32412013</t>
-  </si>
-  <si>
-    <t>32501120</t>
-  </si>
-  <si>
-    <t>32503003</t>
-  </si>
-  <si>
-    <t>02/03/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Lipase kit 25T Agappe</t>
-  </si>
-  <si>
-    <t>32410226</t>
-  </si>
-  <si>
-    <t>32411191</t>
-  </si>
-  <si>
-    <t>NT-proBNP Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA NBUYE11E</t>
-  </si>
-  <si>
-    <t>20/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Calprotectin Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>CPTYB10Z</t>
-  </si>
-  <si>
-    <t>24/06/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>EVA CPVBC11Z</t>
-  </si>
-  <si>
-    <t>09/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>H. Pylori SA Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>EVA HSVCH02</t>
-  </si>
-  <si>
-    <t>AMH Kit 24T Afias Boditech</t>
-  </si>
-  <si>
-    <t>EVA MHVCA24G</t>
-  </si>
-  <si>
-    <t>Anti-TP kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>02/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>MYO kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>09/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HBs Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
     <t>11/12/2025 12:00:00 ص</t>
   </si>
   <si>
@@ -1980,12 +1971,6 @@
     <t>07/10/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>TORCH IgG positive  control</t>
-  </si>
-  <si>
-    <t>04/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
     <t>TORCH IgM positive  control</t>
   </si>
   <si>
@@ -2061,9 +2046,6 @@
     <t>Vitamin D  Neo Kit 25T iChroma Boditech</t>
   </si>
   <si>
-    <t>EVA VEVBZ04E</t>
-  </si>
-  <si>
     <t>EVA VEVBZ05E</t>
   </si>
   <si>
@@ -2352,15 +2334,6 @@
     <t>17/02/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>IgA Kit 10T  Mispa i3</t>
-  </si>
-  <si>
-    <t>32501181</t>
-  </si>
-  <si>
-    <t>03/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
     <t>IgG Kit 10T Mispa i3</t>
   </si>
   <si>
@@ -2406,21 +2379,6 @@
     <t>RMULA09EX</t>
   </si>
   <si>
-    <t>Rubella Igg Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>RGUDA06EX</t>
-  </si>
-  <si>
-    <t>02/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CMV Igm Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>VMUDA06EX</t>
-  </si>
-  <si>
     <t>HIV 1/2 Ab Kit 24T afias Boditech</t>
   </si>
   <si>
@@ -2454,12 +2412,6 @@
     <t>KCUFA09EX</t>
   </si>
   <si>
-    <t>Toxo igm Kit 25T iChroma Boditech</t>
-  </si>
-  <si>
-    <t>XMUDA04EX</t>
-  </si>
-  <si>
     <t>ASO Kit 30T Mispa i3</t>
   </si>
   <si>
@@ -2808,10 +2760,10 @@
     <t>BioCLIA Silicone gasket (Large)</t>
   </si>
   <si>
-    <t>BioCLIA  6500 cuvettes</t>
-  </si>
-  <si>
-    <t>BioCLIA 500 cuvettes</t>
+    <t>Cuvettes 6500 BioCLIA (2000 Pieces/bag)</t>
+  </si>
+  <si>
+    <t>Cuvettes 500 BioCLIA  (65 Pieces/box)</t>
   </si>
   <si>
     <t>Strawberry (f44) BioCLIA Allergy kit 50 t</t>
@@ -2910,12 +2862,6 @@
     <t>Sesame seed, Shrimp, Beef, Kiwi(Fx28) BioCLIA Allergy 50 HOB</t>
   </si>
   <si>
-    <t>BioCLIA Allergy Specific IgE  Conjugate and Microparticle Set150 T HOB</t>
-  </si>
-  <si>
-    <t>20240605</t>
-  </si>
-  <si>
     <t>ICL-6E Chemiluminecense immunassay analyzer Render</t>
   </si>
   <si>
@@ -2950,15 +2896,6 @@
   </si>
   <si>
     <t>09/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HBc Positive control cl900i Mindray</t>
-  </si>
-  <si>
-    <t>07/12/2025 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HBc Negative control cl900i Mindray</t>
   </si>
   <si>
     <t>LIPISE kit Chemistry Mindray</t>
@@ -3873,10 +3810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
-      <selection activeCell="A583" sqref="A583:E583"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4277,518 +4214,518 @@
         <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>189</v>
@@ -4799,546 +4736,546 @@
     </row>
     <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="C129" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>275</v>
@@ -5349,62 +5286,62 @@
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>287</v>
+        <v>0</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>0</v>
@@ -5415,7 +5352,7 @@
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>0</v>
@@ -5426,13 +5363,13 @@
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>0</v>
+        <v>292</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5440,10 +5377,10 @@
         <v>291</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5451,43 +5388,43 @@
         <v>291</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>299</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5495,21 +5432,21 @@
         <v>302</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5517,10 +5454,10 @@
         <v>307</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5528,54 +5465,54 @@
         <v>307</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>311</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5583,10 +5520,10 @@
         <v>322</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5594,76 +5531,76 @@
         <v>322</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>326</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5671,37 +5608,37 @@
         <v>343</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
@@ -5712,7 +5649,7 @@
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>0</v>
@@ -5723,7 +5660,7 @@
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>0</v>
@@ -5734,7 +5671,7 @@
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>0</v>
@@ -5745,18 +5682,18 @@
     </row>
     <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>0</v>
+        <v>357</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>357</v>
@@ -5767,51 +5704,51 @@
     </row>
     <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>0</v>
+        <v>361</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>362</v>
+        <v>0</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>19</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>0</v>
@@ -5822,13 +5759,13 @@
     </row>
     <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>367</v>
+        <v>0</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5891,15 +5828,15 @@
         <v>373</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>0</v>
+        <v>374</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>0</v>
@@ -5910,13 +5847,13 @@
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>377</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5924,109 +5861,109 @@
         <v>378</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>0</v>
+        <v>379</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>273</v>
+        <v>0</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>402</v>
+        <v>0</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6034,142 +5971,142 @@
         <v>403</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>404</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>0</v>
+        <v>407</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>407</v>
+        <v>299</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>299</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>65</v>
+        <v>419</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>424</v>
+        <v>94</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6177,208 +6114,208 @@
         <v>432</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>287</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>442</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>89</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>456</v>
+        <v>324</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>324</v>
+        <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6386,65 +6323,65 @@
         <v>471</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>136</v>
+        <v>474</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>483</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6452,32 +6389,32 @@
         <v>484</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6485,32 +6422,32 @@
         <v>489</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>491</v>
+        <v>197</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6518,10 +6455,10 @@
         <v>494</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6529,32 +6466,32 @@
         <v>497</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>498</v>
+        <v>440</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>198</v>
+        <v>309</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6562,10 +6499,10 @@
         <v>502</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>309</v>
+        <v>94</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6573,87 +6510,87 @@
         <v>503</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>411</v>
+        <v>507</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>506</v>
+        <v>118</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>95</v>
+        <v>510</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>512</v>
+        <v>415</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>119</v>
+        <v>514</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>514</v>
+        <v>418</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>417</v>
+        <v>493</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>519</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6661,43 +6598,43 @@
         <v>520</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>521</v>
+        <v>101</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>523</v>
+        <v>470</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>22</v>
+        <v>523</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="C256" s="4" t="s">
-        <v>102</v>
+        <v>347</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6705,10 +6642,10 @@
         <v>526</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>476</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6716,43 +6653,43 @@
         <v>527</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>528</v>
+        <v>111</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>347</v>
+        <v>111</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B261" s="3" t="s">
-        <v>417</v>
-      </c>
       <c r="C261" s="5" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6760,10 +6697,10 @@
         <v>533</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>417</v>
+        <v>532</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6771,65 +6708,65 @@
         <v>534</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>535</v>
+        <v>454</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="C266" s="4" t="s">
-        <v>460</v>
+        <v>326</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>244</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>541</v>
+        <v>266</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6840,139 +6777,139 @@
         <v>544</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>326</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>434</v>
+        <v>546</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>548</v>
+        <v>275</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>491</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="C272" s="4" t="s">
-        <v>551</v>
+        <v>230</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>275</v>
+        <v>550</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>554</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>556</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="C277" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>32</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>565</v>
+        <v>405</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>567</v>
+        <v>405</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6980,10 +6917,10 @@
         <v>568</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C282" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -6991,10 +6928,10 @@
         <v>570</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C283" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7002,65 +6939,65 @@
         <v>572</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>453</v>
+        <v>573</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>583</v>
+        <v>440</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>510</v>
+        <v>170</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7068,7 +7005,7 @@
         <v>584</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>585</v>
@@ -7079,10 +7016,10 @@
         <v>586</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7090,7 +7027,7 @@
         <v>587</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>588</v>
@@ -7101,21 +7038,21 @@
         <v>589</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>439</v>
+        <v>590</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>10</v>
+        <v>478</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="C294" s="4" t="s">
-        <v>591</v>
+        <v>478</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7123,21 +7060,21 @@
         <v>592</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>483</v>
+        <v>0</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="C296" s="4" t="s">
-        <v>483</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7145,21 +7082,21 @@
         <v>595</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>0</v>
+        <v>596</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7170,7 +7107,7 @@
         <v>599</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>19</v>
+        <v>600</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7178,65 +7115,65 @@
         <v>598</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>604</v>
+        <v>433</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>89</v>
+        <v>609</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>437</v>
+        <v>611</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>609</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>612</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7247,84 +7184,84 @@
         <v>614</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>25</v>
+        <v>615</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>413</v>
+        <v>617</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>100</v>
+        <v>618</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>618</v>
+        <v>135</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C310" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>626</v>
+        <v>482</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>626</v>
+        <v>431</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>487</v>
+        <v>0</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7335,59 +7272,59 @@
         <v>631</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>435</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B315" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B315" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>0</v>
+      <c r="C315" s="5" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>10</v>
+        <v>636</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>638</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>641</v>
+        <v>490</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>642</v>
@@ -7398,40 +7335,40 @@
         <v>643</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>649</v>
@@ -7442,7 +7379,7 @@
         <v>650</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>651</v>
@@ -7450,35 +7387,35 @@
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>426</v>
+        <v>655</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>617</v>
+        <v>658</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>656</v>
+        <v>166</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7486,43 +7423,43 @@
         <v>657</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>478</v>
+        <v>659</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>658</v>
+        <v>200</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>661</v>
+        <v>227</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="C330" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>664</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>201</v>
+        <v>588</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7533,18 +7470,18 @@
         <v>666</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>228</v>
+        <v>667</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7552,43 +7489,43 @@
         <v>668</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>672</v>
+        <v>212</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>676</v>
+        <v>183</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7599,51 +7536,51 @@
         <v>678</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>213</v>
+        <v>679</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>40</v>
+        <v>682</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>40</v>
+        <v>684</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>184</v>
+        <v>478</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7651,98 +7588,98 @@
         <v>686</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>483</v>
+        <v>695</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>694</v>
+        <v>428</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>696</v>
+        <v>468</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>701</v>
+        <v>230</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7750,10 +7687,10 @@
         <v>705</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>707</v>
+        <v>70</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7764,7 +7701,7 @@
         <v>709</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>231</v>
+        <v>710</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7772,32 +7709,32 @@
         <v>708</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>542</v>
+        <v>710</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7808,7 +7745,7 @@
         <v>715</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>716</v>
+        <v>476</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7816,65 +7753,65 @@
         <v>714</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>362</v>
+        <v>582</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>716</v>
+        <v>585</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>481</v>
+        <v>724</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>585</v>
+        <v>342</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>588</v>
+        <v>166</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -7882,164 +7819,164 @@
         <v>725</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>342</v>
+        <v>735</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>738</v>
+        <v>151</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>167</v>
+        <v>748</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>152</v>
+        <v>753</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>754</v>
+        <v>684</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>756</v>
+        <v>428</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8047,109 +7984,109 @@
         <v>763</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>362</v>
+        <v>770</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>771</v>
+        <v>243</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>773</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>776</v>
+        <v>42</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>779</v>
+        <v>53</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>244</v>
+        <v>501</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8157,202 +8094,202 @@
         <v>786</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>42</v>
+        <v>789</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>53</v>
+        <v>792</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>792</v>
+        <v>446</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>797</v>
+        <v>70</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>797</v>
+        <v>478</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="C397" s="5" t="s">
-        <v>806</v>
+        <v>0</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>450</v>
+        <v>0</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>496</v>
+        <v>0</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>815</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B403" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="B403" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="C403" s="5" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>819</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>820</v>
+        <v>464</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="B405" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>0</v>
+      <c r="C405" s="5" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>0</v>
+        <v>824</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>0</v>
@@ -8363,46 +8300,46 @@
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>826</v>
+        <v>0</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>19</v>
+        <v>830</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>833</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>287</v>
+        <v>609</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8410,98 +8347,98 @@
         <v>834</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="B413" s="3" t="s">
-        <v>837</v>
-      </c>
       <c r="C413" s="5" t="s">
-        <v>838</v>
+        <v>636</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C414" s="4" t="s">
         <v>839</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>0</v>
+        <v>841</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>0</v>
+        <v>842</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B417" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="B417" s="3" t="s">
-        <v>845</v>
-      </c>
       <c r="C417" s="5" t="s">
-        <v>846</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>848</v>
+        <v>470</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>612</v>
+        <v>470</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>0</v>
+      <c r="C420" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8512,7 +8449,7 @@
         <v>852</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>639</v>
+        <v>470</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8523,29 +8460,29 @@
         <v>854</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>855</v>
+        <v>470</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B423" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="B423" s="3" t="s">
-        <v>857</v>
-      </c>
       <c r="C423" s="5" t="s">
-        <v>48</v>
+        <v>470</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>858</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>48</v>
+        <v>470</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8556,7 +8493,7 @@
         <v>860</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>19</v>
+        <v>470</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8567,7 +8504,7 @@
         <v>862</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8578,7 +8515,7 @@
         <v>864</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8589,7 +8526,7 @@
         <v>866</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8600,7 +8537,7 @@
         <v>868</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8611,7 +8548,7 @@
         <v>870</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8622,7 +8559,7 @@
         <v>872</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8633,7 +8570,7 @@
         <v>874</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8644,7 +8581,7 @@
         <v>876</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8655,7 +8592,7 @@
         <v>878</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8666,7 +8603,7 @@
         <v>880</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8677,7 +8614,7 @@
         <v>882</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8688,7 +8625,7 @@
         <v>884</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8699,7 +8636,7 @@
         <v>886</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8710,7 +8647,7 @@
         <v>888</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8721,7 +8658,7 @@
         <v>890</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8732,7 +8669,7 @@
         <v>892</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8743,7 +8680,7 @@
         <v>894</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8754,7 +8691,7 @@
         <v>896</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8765,7 +8702,7 @@
         <v>898</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8776,7 +8713,7 @@
         <v>900</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8787,7 +8724,7 @@
         <v>902</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8798,18 +8735,18 @@
         <v>904</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>476</v>
+        <v>648</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="C448" s="4" t="s">
         <v>906</v>
-      </c>
-      <c r="C448" s="4" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8820,7 +8757,7 @@
         <v>908</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>476</v>
+        <v>839</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8831,7 +8768,7 @@
         <v>910</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>476</v>
+        <v>82</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8839,439 +8776,439 @@
         <v>911</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="C451" s="5" t="s">
-        <v>476</v>
+        <v>0</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>476</v>
+        <v>0</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="C453" s="5" t="s">
-        <v>476</v>
+        <v>0</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="C454" s="4" t="s">
-        <v>476</v>
+        <v>0</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>651</v>
+        <v>917</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>855</v>
+        <v>921</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>82</v>
+        <v>917</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C459" s="3" t="s">
-        <v>0</v>
+        <v>916</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>0</v>
+        <v>916</v>
+      </c>
+      <c r="C460" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>0</v>
+        <v>916</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>0</v>
+        <v>916</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="C482" s="4" t="s">
-        <v>937</v>
+        <v>0</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>936</v>
+        <v>573</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>937</v>
+        <v>958</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B487" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="B487" s="3" t="s">
-        <v>936</v>
-      </c>
       <c r="C487" s="5" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>937</v>
+        <v>243</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>937</v>
+        <v>230</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>654</v>
+        <v>0</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9279,21 +9216,21 @@
         <v>965</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>0</v>
+        <v>966</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>967</v>
+        <v>435</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>968</v>
+        <v>170</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9304,139 +9241,139 @@
         <v>970</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>971</v>
+        <v>70</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="C494" s="4" t="s">
         <v>973</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C495" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C495" s="5" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B497" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="B497" s="3" t="s">
-        <v>641</v>
-      </c>
       <c r="C497" s="5" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C498" s="4" t="s">
         <v>980</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>983</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>244</v>
+        <v>984</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>231</v>
+        <v>986</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>0</v>
+        <v>988</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="C502" s="4" t="s">
-        <v>988</v>
+        <v>0</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C503" s="5" t="s">
-        <v>171</v>
+        <v>0</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>70</v>
+        <v>993</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>994</v>
+        <v>688</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9444,670 +9381,670 @@
         <v>995</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>544</v>
+        <v>996</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>973</v>
+        <v>998</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>426</v>
+        <v>1004</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1005</v>
+        <v>212</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>707</v>
+        <v>639</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>0</v>
+        <v>1014</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>0</v>
+        <v>1017</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>694</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1017</v>
+        <v>433</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1019</v>
+        <v>433</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>213</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>642</v>
+        <v>713</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="C525" s="5" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>437</v>
+        <v>1053</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>437</v>
+        <v>1055</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="C531" s="5" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>719</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>1061</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>1070</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="C541" s="5" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1081</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>1084</v>
+        <v>380</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1091</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>1061</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C549" s="5" t="s">
-        <v>1061</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>1061</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>382</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>1061</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>1120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>1091</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C561" s="5" t="s">
-        <v>1125</v>
+        <v>0</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>1061</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>1061</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>1134</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10118,7 +10055,7 @@
         <v>1139</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>1061</v>
+        <v>753</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10129,7 +10066,7 @@
         <v>1141</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>1061</v>
+        <v>163</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -10137,158 +10074,37 @@
         <v>1142</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>1144</v>
+        <v>753</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>48</v>
+        <v>767</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C571" s="5" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A572" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B572" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C572" s="1" t="s">
+      <c r="C571" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A573" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B573" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C573" s="5" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A574" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C574" s="4" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A575" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B575" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C575" s="5" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A576" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C576" s="4" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A577" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B577" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C577" s="5" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A578" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A579" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B579" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C579" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A580" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C580" s="4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A581" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B581" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C581" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A582" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="585" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="574" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/المواد.xlsx
+++ b/المواد.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\الفواتير\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{823A9E91-6808-42BE-8378-008CA1C7D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1154">
+  <si>
+    <t>ارصدة المخازن</t>
+  </si>
+  <si>
+    <t>الى تاريخ :25/11/2025 12:00:00 ص</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>المخزن : الكل</t>
+  </si>
+  <si>
+    <t>العلامة التجارية : الكل</t>
+  </si>
+  <si>
+    <t>ادخل المجهز  : الكل</t>
+  </si>
+  <si>
     <t>اسم المادة</t>
   </si>
   <si>
@@ -219,6 +235,12 @@
     <t>19/09/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>EVA T3VCA44X</t>
+  </si>
+  <si>
+    <t>05/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>T4 Kit 24T Afias Boditech</t>
   </si>
   <si>
@@ -273,15 +295,12 @@
     <t>PRL Kit 25T iChroma Boditech</t>
   </si>
   <si>
-    <t>DPLUKF06</t>
+    <t>DPLUKF05</t>
   </si>
   <si>
     <t>17/07/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>DPLUKF05</t>
-  </si>
-  <si>
     <t>EVA DPLVBG01</t>
   </si>
   <si>
@@ -399,12 +418,15 @@
     <t>01/02/2027 12:00:00 ص</t>
   </si>
   <si>
+    <t>EVA DFRVBZ07</t>
+  </si>
+  <si>
+    <t>03/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>EVA DFRVBZ08</t>
   </si>
   <si>
-    <t>03/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>HBsAg Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -426,9 +448,6 @@
     <t>EVA AAVCT10</t>
   </si>
   <si>
-    <t>05/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>LH Kit 25T iChroma Boditech</t>
   </si>
   <si>
@@ -471,6 +490,12 @@
     <t>B-HCG Kit 25T iChroma Boditech</t>
   </si>
   <si>
+    <t>EVA HCVAY03EX</t>
+  </si>
+  <si>
+    <t>15/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>EVA HCVBY06EX</t>
   </si>
   <si>
@@ -801,6 +826,12 @@
     <t>M-30CFL Lyse Reagent 3-part 500ml Hematology Mindray</t>
   </si>
   <si>
+    <t>2025021551</t>
+  </si>
+  <si>
+    <t>14/02/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>2025022551</t>
   </si>
   <si>
@@ -819,6 +850,12 @@
     <t>M-52 Diff Lyse Reagent 5-part 500ml Hematology Mindray</t>
   </si>
   <si>
+    <t>2025022051</t>
+  </si>
+  <si>
+    <t>19/02/2027 12:00:00 ص</t>
+  </si>
+  <si>
     <t>2025052351</t>
   </si>
   <si>
@@ -1023,6 +1060,12 @@
     <t>26/05/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>196125094</t>
+  </si>
+  <si>
+    <t>10/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
     <t>Multi Sera Calibrator Chemistry Mindray</t>
   </si>
   <si>
@@ -1071,21 +1114,9 @@
     <t>150725009</t>
   </si>
   <si>
-    <t>19/02/2027 12:00:00 ص</t>
-  </si>
-  <si>
     <t>Semi-cuvettes (steel ball included)/350 كيوفيت</t>
   </si>
   <si>
-    <t>ماصة Pipette 10-100</t>
-  </si>
-  <si>
-    <t>ماصة Pipette 100-1000</t>
-  </si>
-  <si>
-    <t>ماصةPipette 20-200</t>
-  </si>
-  <si>
     <t>Mispa i2 Instrument agappe</t>
   </si>
   <si>
@@ -1107,9 +1138,6 @@
     <t>150425013</t>
   </si>
   <si>
-    <t>جهاز سنترفيوج صيني</t>
-  </si>
-  <si>
     <t>Aqappe 30ml Nano Detergent</t>
   </si>
   <si>
@@ -1119,15 +1147,9 @@
     <t>31/08/2027 12:00:00 ص</t>
   </si>
   <si>
-    <t>كرسي سحب دم</t>
-  </si>
-  <si>
     <t>Afias-6 paper + i chroma 11</t>
   </si>
   <si>
-    <t>مجهر صيني</t>
-  </si>
-  <si>
     <t>Capillary tube 15ul  25/tube</t>
   </si>
   <si>
@@ -1137,9 +1159,6 @@
     <t>BC-10-3part Instrument Auto Hematology Mindray</t>
   </si>
   <si>
-    <t>BC-30S-3part Instrument used Auto Hematology Mindray</t>
-  </si>
-  <si>
     <t>Hba1c Control Chemistry Mindray</t>
   </si>
   <si>
@@ -1149,9 +1168,6 @@
     <t>15/01/2027 12:00:00 ص</t>
   </si>
   <si>
-    <t>Semi-auto BA-88A used</t>
-  </si>
-  <si>
     <t>Cuvette BS230 Chemistry Mindray</t>
   </si>
   <si>
@@ -1224,9 +1240,6 @@
     <t>12/01/2028 12:00:00 ص</t>
   </si>
   <si>
-    <t>مايكرو سنترفيوج</t>
-  </si>
-  <si>
     <t>حديدة فيتامين دي</t>
   </si>
   <si>
@@ -1272,210 +1285,201 @@
     <t>08/03/2027 12:00:00 ص</t>
   </si>
   <si>
-    <t>Anti-TPO kit 2×50T CL900i Mindray</t>
+    <t>T-PSA kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>2025010112</t>
+  </si>
+  <si>
+    <t>05/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2025040111</t>
+  </si>
+  <si>
+    <t>26/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Ferritin  kit 2×50T Cl900i Mindray</t>
   </si>
   <si>
     <t>2025050111</t>
   </si>
   <si>
+    <t>06/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total β HCG kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025010121</t>
+  </si>
+  <si>
+    <t>LH  kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>24/08/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>FSH kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024110111</t>
+  </si>
+  <si>
+    <t>02/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PRL kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024080111</t>
+  </si>
+  <si>
+    <t>25/04/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2025030111</t>
+  </si>
+  <si>
+    <t>Free T3 kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>2025060112</t>
+  </si>
+  <si>
+    <t>28/01/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>TESTO kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>29/11/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>E2 kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>11/12/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Insulin kit 2×50T Cl900 Mindray</t>
+  </si>
+  <si>
+    <t>C-Peptide kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>26/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>DHEA-S kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>09/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>2024120111</t>
+  </si>
+  <si>
+    <t>02/09/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Cortisol kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>09/03/2027 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>CK-MB kit 2×50T CL900i Mindray</t>
+  </si>
+  <si>
+    <t>14/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>PTH kit 2×50T Cl900i  Mindray</t>
+  </si>
+  <si>
+    <t>2025040112</t>
+  </si>
+  <si>
+    <t>19/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Folate kit 50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Anti-HCV  kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>18/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>03/07/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>HIV kit 2×50T Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Free T3 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024100111</t>
+  </si>
+  <si>
+    <t>01/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Free T4 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>01/03/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total T3 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2024050111</t>
+  </si>
+  <si>
+    <t>15/01/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>19/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total T4 Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>27/05/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Anti-TPO Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>02/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Total PSA Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>17/06/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>AFP Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>01/10/2026 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>Ferritin Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>Total BHCG Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
     <t>10/07/2026 12:00:00 ص</t>
   </si>
   <si>
-    <t>T-PSA kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>2025010112</t>
-  </si>
-  <si>
-    <t>05/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Ferritin  kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>06/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total β HCG kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025010121</t>
-  </si>
-  <si>
-    <t>LH  kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>24/08/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>FSH kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024110111</t>
-  </si>
-  <si>
-    <t>02/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PRL kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024080111</t>
-  </si>
-  <si>
-    <t>25/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2025030111</t>
-  </si>
-  <si>
-    <t>Free T3 kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>2025060112</t>
-  </si>
-  <si>
-    <t>28/01/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>TESTO kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2025040111</t>
-  </si>
-  <si>
-    <t>29/11/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>E2 kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>11/12/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Insulin kit 2×50T Cl900 Mindray</t>
-  </si>
-  <si>
-    <t>C-Peptide kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>26/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>DHEA-S kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>09/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>2024120111</t>
-  </si>
-  <si>
-    <t>02/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Cortisol kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>09/03/2027 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>CK-MB kit 2×50T CL900i Mindray</t>
-  </si>
-  <si>
-    <t>14/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>PTH kit 2×50T Cl900i  Mindray</t>
-  </si>
-  <si>
-    <t>2025040112</t>
-  </si>
-  <si>
-    <t>19/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Folate kit 50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>HBs Ag kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024090141</t>
-  </si>
-  <si>
-    <t>13/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-HCV  kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>18/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>03/07/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>HIV kit 2×50T Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Free T3 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024100111</t>
-  </si>
-  <si>
-    <t>01/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Free T4 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>01/03/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total T3 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>2024050111</t>
-  </si>
-  <si>
-    <t>15/01/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>19/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total T4 Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>27/05/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Anti-TPO Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>02/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Total PSA Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>17/06/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>AFP Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>01/10/2026 12:00:00 ص</t>
-  </si>
-  <si>
-    <t>Ferritin Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
-    <t>Total BHCG Calibrator 2ml Cl900i Mindray</t>
-  </si>
-  <si>
     <t>FSH Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
@@ -1530,6 +1534,12 @@
     <t>Cortisol Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
+    <t>ACTH Calibrator 2ml Cl900i Mindray</t>
+  </si>
+  <si>
+    <t>2025050101</t>
+  </si>
+  <si>
     <t>TnI Calibrator 2ml Cl900i Mindray</t>
   </si>
   <si>
@@ -1653,18 +1663,18 @@
     <t>Immunoassay Cuvette Consumables 2*88 Cl900i Mindray</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>531351125</t>
+  </si>
+  <si>
+    <t>01/01/2032 12:00:00 ص</t>
+  </si>
+  <si>
+    <t>561161523</t>
   </si>
   <si>
     <t>01/01/2031 12:00:00 ص</t>
   </si>
   <si>
-    <t>531351125</t>
-  </si>
-  <si>
-    <t>01/01/2032 12:00:00 ص</t>
-  </si>
-  <si>
     <t>Amylase kit 40T Agappe</t>
   </si>
   <si>
@@ -1920,7 +1930,10 @@
     <t>EVA VEVDB94X</t>
   </si>
   <si>
-    <t>10/12/2026 12:00:00 ص</t>
+    <t>EVA VEVDB95X</t>
+  </si>
+  <si>
+    <t>13/12/2026 12:00:00 ص</t>
   </si>
   <si>
     <t>G6PD Control L Chemistry Mindray</t>
@@ -2247,9 +2260,21 @@
     <t>HBA1C Kit 10T Clover كلوفر</t>
   </si>
   <si>
+    <t>EVA B25C18D02DL</t>
+  </si>
+  <si>
+    <t>EVA B25C20D02EL</t>
+  </si>
+  <si>
+    <t>EVA B25D02D10EL</t>
+  </si>
+  <si>
     <t>EVA B25D03D11DL</t>
   </si>
   <si>
+    <t>EVA B25D05D11EL</t>
+  </si>
+  <si>
     <t>Ferritin Cal Chemistry Mindray</t>
   </si>
   <si>
@@ -2334,6 +2359,15 @@
     <t>17/02/2026 12:00:00 ص</t>
   </si>
   <si>
+    <t>EVA  32509129</t>
+  </si>
+  <si>
+    <t>IgA Kit 10T  Mispa i3</t>
+  </si>
+  <si>
+    <t>32503326</t>
+  </si>
+  <si>
     <t>IgG Kit 10T Mispa i3</t>
   </si>
   <si>
@@ -2364,6 +2398,9 @@
     <t>EVA KDVBA38X</t>
   </si>
   <si>
+    <t>EVA KDVBA39X</t>
+  </si>
+  <si>
     <t>CC. M Control Chemistry Mindray level 2</t>
   </si>
   <si>
@@ -2481,6 +2518,9 @@
     <t>EVA PSUKA12EX</t>
   </si>
   <si>
+    <t>EVA PSVBB04EX</t>
+  </si>
+  <si>
     <t>CK-MB NeO Kit 24T Afias Boditech</t>
   </si>
   <si>
@@ -2724,7 +2764,7 @@
     <t>O02024040003</t>
   </si>
   <si>
-    <t>Pregnancy (HCG) Cassette 25T hindering (S/P.U)</t>
+    <t>Pregnancy (HCG) Cassette 25T hindering (S/P.U) ملغي</t>
   </si>
   <si>
     <t>F00124040006</t>
@@ -2736,12 +2776,6 @@
     <t>PPUEB09EX</t>
   </si>
   <si>
-    <t>PPUHB11EX</t>
-  </si>
-  <si>
-    <t>08/04/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>PCT Plus G Kit 24T Afias Boditech</t>
   </si>
   <si>
@@ -2922,9 +2956,6 @@
     <t>2024030411</t>
   </si>
   <si>
-    <t>15/09/2026 12:00:00 ص</t>
-  </si>
-  <si>
     <t>TRAb Calibrators Cl900i Mindray</t>
   </si>
   <si>
@@ -3355,12 +3386,6 @@
   </si>
   <si>
     <t>EVA A53A4F4</t>
-  </si>
-  <si>
-    <t>CD4 mFluor450 100Tests Caprico</t>
-  </si>
-  <si>
-    <t>EVA A120A4F2</t>
   </si>
   <si>
     <t>CD73 mFluor450 100Tests Caprico</t>
@@ -3462,8 +3487,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh:mm:ss\ \t\t"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -3523,13 +3549,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3564,7 +3591,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -3576,7 +3603,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -3623,6 +3650,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3658,6 +3702,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3809,164 +3870,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C574"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
@@ -3999,51 +4062,51 @@
     </row>
     <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -4054,73 +4117,73 @@
     </row>
     <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>69</v>
@@ -4131,29 +4194,29 @@
     </row>
     <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>76</v>
@@ -4170,67 +4233,67 @@
         <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>93</v>
@@ -4247,40 +4310,40 @@
         <v>96</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4288,21 +4351,21 @@
         <v>103</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4318,167 +4381,167 @@
     </row>
     <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4489,150 +4552,150 @@
         <v>146</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4643,7 +4706,7 @@
         <v>176</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4651,51 +4714,51 @@
         <v>175</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>185</v>
@@ -4703,68 +4766,68 @@
     </row>
     <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4772,43 +4835,43 @@
         <v>195</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4830,62 +4893,62 @@
         <v>206</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4893,65 +4956,65 @@
         <v>215</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4959,10 +5022,10 @@
         <v>223</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4970,10 +5033,10 @@
         <v>223</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -4981,175 +5044,175 @@
         <v>223</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5157,10 +5220,10 @@
         <v>253</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5168,175 +5231,175 @@
         <v>253</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="C128" s="4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5344,10 +5407,10 @@
         <v>289</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>0</v>
+        <v>287</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5355,65 +5418,65 @@
         <v>290</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>299</v>
+        <v>2</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5421,241 +5484,241 @@
         <v>302</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>304</v>
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>311</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>170</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="C151" s="5" t="s">
-        <v>315</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="C155" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>345</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -5663,1382 +5726,1382 @@
         <v>354</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>0</v>
+        <v>355</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>0</v>
+        <v>358</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>25</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>0</v>
+        <v>371</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>0</v>
+        <v>373</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>0</v>
+        <v>287</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>275</v>
+        <v>384</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>276</v>
+        <v>385</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>395</v>
+        <v>285</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>400</v>
+        <v>2</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>0</v>
+        <v>408</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>0</v>
+        <v>411</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>65</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>422</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>94</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>434</v>
+        <v>299</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>287</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>443</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>88</v>
+        <v>449</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>457</v>
+        <v>336</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>324</v>
+        <v>463</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>463</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>135</v>
+        <v>470</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>480</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>62</v>
+        <v>487</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>419</v>
+        <v>489</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>488</v>
+        <v>205</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>197</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>495</v>
+        <v>321</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>309</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>499</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>94</v>
+        <v>508</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>505</v>
+        <v>124</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>118</v>
+        <v>513</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>509</v>
+        <v>427</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>518</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>101</v>
+        <v>470</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>490</v>
+        <v>427</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>470</v>
+        <v>164</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>275</v>
+        <v>552</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>230</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>552</v>
+        <v>37</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>32</v>
+        <v>561</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>563</v>
+        <v>409</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>567</v>
+        <v>452</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>405</v>
+        <v>572</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>440</v>
+        <v>576</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>573</v>
+        <v>427</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>493</v>
+        <v>583</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>578</v>
+        <v>508</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>580</v>
+        <v>415</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>582</v>
+        <v>178</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>170</v>
+        <v>588</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>585</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>10</v>
+        <v>591</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>418</v>
+        <v>593</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>588</v>
+        <v>478</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>478</v>
@@ -7046,527 +7109,527 @@
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>478</v>
+        <v>2</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>0</v>
+        <v>597</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>13</v>
+        <v>603</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>602</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>604</v>
+        <v>437</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>88</v>
+        <v>609</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>609</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>611</v>
+        <v>415</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>411</v>
+        <v>617</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>99</v>
+        <v>618</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>618</v>
+        <v>72</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>135</v>
+        <v>626</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>623</v>
+        <v>482</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>431</v>
+        <v>2</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>0</v>
+        <v>634</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>472</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>478</v>
@@ -7574,65 +7637,65 @@
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>468</v>
@@ -7640,109 +7703,109 @@
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>476</v>
@@ -7750,343 +7813,343 @@
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>151</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>745</v>
+        <v>482</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>748</v>
+        <v>566</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>749</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>750</v>
+        <v>159</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>753</v>
+        <v>159</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>684</v>
+        <v>756</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B376" s="1" t="s">
-        <v>759</v>
-      </c>
       <c r="C376" s="4" t="s">
-        <v>428</v>
+        <v>758</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="C377" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C378" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>766</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>767</v>
+        <v>688</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>770</v>
+        <v>432</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C382" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C382" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C383" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="C384" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B385" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B385" s="3" t="s">
-        <v>780</v>
-      </c>
       <c r="C385" s="5" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="C386" s="4" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>501</v>
+        <v>770</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8094,109 +8157,109 @@
         <v>786</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>789</v>
+        <v>133</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>792</v>
+        <v>47</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>446</v>
+        <v>58</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>491</v>
+        <v>80</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>70</v>
+        <v>795</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C396" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>0</v>
+        <v>803</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>0</v>
+      <c r="C398" s="4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8204,21 +8267,21 @@
         <v>807</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>0</v>
+        <v>808</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>810</v>
+        <v>77</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8229,7 +8292,7 @@
         <v>812</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8240,84 +8303,84 @@
         <v>814</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>815</v>
+        <v>67</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C403" s="5" t="s">
         <v>816</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>464</v>
+        <v>2</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>822</v>
+        <v>2</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>825</v>
+        <v>2</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>0</v>
+        <v>821</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>0</v>
+        <v>824</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8325,65 +8388,65 @@
         <v>828</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>832</v>
+        <v>299</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>609</v>
+        <v>464</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>0</v>
+        <v>832</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C413" s="5" t="s">
         <v>835</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="C413" s="5" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="C414" s="4" t="s">
         <v>838</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="C415" s="5" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8391,117 +8454,117 @@
         <v>840</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C417" s="5" t="s">
         <v>843</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="C417" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C418" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>470</v>
+        <v>612</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>470</v>
+        <v>2</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>470</v>
+        <v>640</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>470</v>
+        <v>852</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>470</v>
+        <v>53</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>470</v>
+        <v>53</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>470</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>470</v>
@@ -8509,10 +8572,10 @@
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>470</v>
@@ -8520,10 +8583,10 @@
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>470</v>
@@ -8531,10 +8594,10 @@
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>470</v>
@@ -8542,10 +8605,10 @@
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>470</v>
@@ -8553,10 +8616,10 @@
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>470</v>
@@ -8564,10 +8627,10 @@
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>470</v>
@@ -8575,10 +8638,10 @@
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>470</v>
@@ -8586,10 +8649,10 @@
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>470</v>
@@ -8597,10 +8660,10 @@
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>470</v>
@@ -8608,10 +8671,10 @@
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>470</v>
@@ -8619,10 +8682,10 @@
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>470</v>
@@ -8630,10 +8693,10 @@
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>470</v>
@@ -8641,10 +8704,10 @@
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>470</v>
@@ -8652,10 +8715,10 @@
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>470</v>
@@ -8663,10 +8726,10 @@
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>470</v>
@@ -8674,10 +8737,10 @@
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>470</v>
@@ -8685,10 +8748,10 @@
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>470</v>
@@ -8696,10 +8759,10 @@
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>470</v>
@@ -8707,10 +8770,10 @@
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>470</v>
@@ -8718,10 +8781,10 @@
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>470</v>
@@ -8729,79 +8792,79 @@
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>648</v>
+        <v>470</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>905</v>
-      </c>
       <c r="C448" s="4" t="s">
-        <v>906</v>
+        <v>470</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>839</v>
+        <v>470</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>82</v>
+        <v>470</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>0</v>
+        <v>909</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>0</v>
+        <v>911</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B453" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="B453" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>0</v>
+      <c r="C453" s="5" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8809,21 +8872,21 @@
         <v>914</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>0</v>
+        <v>915</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>917</v>
+        <v>652</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8831,21 +8894,21 @@
         <v>918</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>917</v>
+        <v>852</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>921</v>
+        <v>89</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8853,10 +8916,10 @@
         <v>922</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C458" s="4" t="s">
-        <v>917</v>
+        <v>2</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8864,10 +8927,10 @@
         <v>923</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="C459" s="5" t="s">
-        <v>917</v>
+        <v>2</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8875,10 +8938,10 @@
         <v>924</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C460" s="4" t="s">
-        <v>917</v>
+        <v>2</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8886,10 +8949,10 @@
         <v>925</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="C461" s="5" t="s">
-        <v>917</v>
+        <v>2</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -8897,252 +8960,252 @@
         <v>926</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B463" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="B463" s="3" t="s">
-        <v>916</v>
-      </c>
       <c r="C463" s="5" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>917</v>
+        <v>932</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>917</v>
+        <v>932</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>0</v>
+        <v>951</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9150,219 +9213,219 @@
         <v>954</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>573</v>
+        <v>931</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>958</v>
+        <v>932</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>960</v>
+        <v>931</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>961</v>
+        <v>932</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>962</v>
+        <v>931</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>243</v>
+        <v>932</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="C489" s="5" t="s">
-        <v>230</v>
+        <v>2</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>0</v>
+        <v>960</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>435</v>
+        <v>966</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>170</v>
+        <v>967</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C493" s="5" t="s">
         <v>969</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="C493" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="C494" s="4" t="s">
         <v>972</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>539</v>
+        <v>973</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>975</v>
+        <v>251</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>977</v>
+        <v>238</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C497" s="5" t="s">
-        <v>980</v>
+        <v>2</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>573</v>
+        <v>977</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>980</v>
+        <v>157</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>983</v>
+        <v>439</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>984</v>
+        <v>178</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>986</v>
+        <v>77</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>701</v>
+        <v>983</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>0</v>
+        <v>542</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>0</v>
+        <v>966</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
@@ -9370,714 +9433,714 @@
         <v>991</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>994</v>
+        <v>576</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>688</v>
+        <v>990</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>996<